--- a/出口日語/出口日语学习进度.xlsx
+++ b/出口日語/出口日语学习进度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtitechacjp-my.sharepoint.com/personal/a_s_aa_m_titech_ac_jp/Documents/13.Github/Japanese/出口日語/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihana/Documents/GitHub/Japanese/出口日語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{501D5111-702E-4FD2-B4ED-C97BC63F9C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE8D598A-1463-48EB-A39D-08E4BD6A8F3B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DB9BC-A348-0741-A42A-5BED396440AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20490" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="24720" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N5" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="425">
   <si>
     <t>～一方だ</t>
   </si>
@@ -1615,23 +1615,873 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～までに</t>
+  </si>
+  <si>
+    <t>～つもり</t>
+  </si>
+  <si>
+    <t>～かもしれません</t>
+  </si>
+  <si>
+    <t>～は…より</t>
+  </si>
+  <si>
+    <t>～やすい</t>
+  </si>
+  <si>
+    <t>～にくい</t>
+  </si>
+  <si>
+    <t>～方</t>
+  </si>
+  <si>
+    <t>～ので</t>
+  </si>
+  <si>
+    <t>～のに</t>
+  </si>
+  <si>
+    <t>～ことができます</t>
+  </si>
+  <si>
+    <t>～たことがあります</t>
+  </si>
+  <si>
+    <t>～ほうがいいです</t>
+  </si>
+  <si>
+    <t>～なさい</t>
+  </si>
+  <si>
+    <t>～ことになります</t>
+  </si>
+  <si>
+    <t>～ことにします</t>
+  </si>
+  <si>
+    <t>～てきます</t>
+  </si>
+  <si>
+    <t>～ていきます</t>
+  </si>
+  <si>
+    <t>～てみます</t>
+  </si>
+  <si>
+    <t>～てしまいます</t>
+  </si>
+  <si>
+    <t>～ておきます</t>
+  </si>
+  <si>
+    <t>～ています</t>
+  </si>
+  <si>
+    <t>縮約表現</t>
+  </si>
+  <si>
+    <t>指示詞2</t>
+  </si>
+  <si>
+    <t>～はじめます</t>
+  </si>
+  <si>
+    <t>～だします</t>
+  </si>
+  <si>
+    <t>～続けます</t>
+  </si>
+  <si>
+    <t>～がします</t>
+  </si>
+  <si>
+    <t>～てあげます</t>
+  </si>
+  <si>
+    <t>～てもらいます</t>
+  </si>
+  <si>
+    <t>～てくれます</t>
+  </si>
+  <si>
+    <t>～ことがあります</t>
+  </si>
+  <si>
+    <t>～ために①</t>
+  </si>
+  <si>
+    <t>～ように</t>
+  </si>
+  <si>
+    <t>～ようにします</t>
+  </si>
+  <si>
+    <t>～ようにしてください</t>
+  </si>
+  <si>
+    <t>～より…ほうが</t>
+  </si>
+  <si>
+    <t>～は…ほど</t>
+  </si>
+  <si>
+    <t>～と…とどちら</t>
+  </si>
+  <si>
+    <t>～で…がいちばん</t>
+  </si>
+  <si>
+    <t>～と言います</t>
+  </si>
+  <si>
+    <t>～ように言います</t>
+  </si>
+  <si>
+    <t>～と思います</t>
+  </si>
+  <si>
+    <t>～うと思います</t>
+  </si>
+  <si>
+    <t>～うとします</t>
+  </si>
+  <si>
+    <t>～がります</t>
+  </si>
+  <si>
+    <t>～さ</t>
+  </si>
+  <si>
+    <t>数量詞＋助詞</t>
+  </si>
+  <si>
+    <t>～ないで</t>
+  </si>
+  <si>
+    <t>～まま</t>
+  </si>
+  <si>
+    <t>助詞:全肯定「でも」</t>
+  </si>
+  <si>
+    <t>意向形</t>
+  </si>
+  <si>
+    <t>可能形</t>
+  </si>
+  <si>
+    <t>命令形</t>
+  </si>
+  <si>
+    <t>禁止形</t>
+  </si>
+  <si>
+    <t>受身形</t>
+  </si>
+  <si>
+    <t>使役形</t>
+  </si>
+  <si>
+    <t>使役受身形</t>
+  </si>
+  <si>
+    <t>尊敬形</t>
+  </si>
+  <si>
+    <t>謙讓語</t>
+  </si>
+  <si>
+    <t>～せていただきます</t>
+  </si>
+  <si>
+    <t>文体「論説体（である体）」</t>
+  </si>
+  <si>
+    <t>～うございます</t>
+  </si>
+  <si>
+    <t>～し～し</t>
+  </si>
+  <si>
+    <t>～たばかりです</t>
+  </si>
+  <si>
+    <t>～だろう</t>
+  </si>
+  <si>
+    <t>～たら</t>
+  </si>
+  <si>
+    <t>～ために②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ところです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～すぎます・～すぎです</t>
+  </si>
+  <si>
+    <t>～てもいいです・～てもかまいません</t>
+  </si>
+  <si>
+    <t>～てはいけません・～てはだめです</t>
+  </si>
+  <si>
+    <t>～なくてもいいです・～なくてもかまいません</t>
+  </si>
+  <si>
+    <t>～なくてはいけません・～なければなりません・～ないとだめです</t>
+  </si>
+  <si>
+    <t>～終わります・～終えます</t>
+  </si>
+  <si>
+    <t>やります・～てやります</t>
+  </si>
+  <si>
+    <t>さしあげます・～てさしあげます</t>
+  </si>
+  <si>
+    <t>いただきます・～ていただきます</t>
+  </si>
+  <si>
+    <t>くださいます・～てくださいます</t>
+  </si>
+  <si>
+    <t>～ようになります・～なくなります</t>
+  </si>
+  <si>
+    <t>～んです・～のです</t>
+  </si>
+  <si>
+    <t>～なくて（原因・並述）</t>
+  </si>
+  <si>
+    <t>～ず・～ずに</t>
+  </si>
+  <si>
+    <t>～か・～かどうか</t>
+  </si>
+  <si>
+    <t>お～になります・お～です・ご～になります・ご～です</t>
+  </si>
+  <si>
+    <t>お～ください・ご～ください</t>
+  </si>
+  <si>
+    <t>お～します・ご～します</t>
+  </si>
+  <si>
+    <t>お～・ご～</t>
+  </si>
+  <si>
+    <t>ございます・～でございます・いらっしゃいます・～でいらっしゃいます</t>
+  </si>
+  <si>
+    <t>お～いただきます・ごへいただきます</t>
+  </si>
+  <si>
+    <t>～せてください・～せてくださいませんか</t>
+  </si>
+  <si>
+    <t>まずです・～はずがありません</t>
+  </si>
+  <si>
+    <t>～ばかり（偏向・偏重）</t>
+  </si>
+  <si>
+    <t>条件形</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尊敬語</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～あげく</t>
+  </si>
+  <si>
+    <t>～あまり／あまりの～に</t>
+  </si>
+  <si>
+    <t>～以上</t>
+  </si>
+  <si>
+    <t>～一方</t>
+  </si>
+  <si>
+    <t>～うえで①</t>
+  </si>
+  <si>
+    <t>～うえで②</t>
+  </si>
+  <si>
+    <t>～うえは</t>
+  </si>
+  <si>
+    <t>～うではないか</t>
+  </si>
+  <si>
+    <t>～得る</t>
+  </si>
+  <si>
+    <t>～かぎり</t>
+  </si>
+  <si>
+    <t>～かぎりでは</t>
+  </si>
+  <si>
+    <t>～がたい</t>
+  </si>
+  <si>
+    <t>～かねる</t>
+  </si>
+  <si>
+    <t>～かねない</t>
+  </si>
+  <si>
+    <t>～からして</t>
+  </si>
+  <si>
+    <t>～からして／～からすると／～からすれば／～からしたら</t>
+  </si>
+  <si>
+    <t>～からといって／～からって</t>
+  </si>
+  <si>
+    <t>～気味</t>
+  </si>
+  <si>
+    <t>～きり</t>
+  </si>
+  <si>
+    <t>～くせに／～くせして</t>
+  </si>
+  <si>
+    <t>～げ</t>
+  </si>
+  <si>
+    <t>～ことだ（忠告）</t>
+  </si>
+  <si>
+    <t>～ことだ（感慨）</t>
+  </si>
+  <si>
+    <t>～ことなく</t>
+  </si>
+  <si>
+    <t>～ことに</t>
+  </si>
+  <si>
+    <t>～ざるを得ない</t>
+  </si>
+  <si>
+    <t>～次第</t>
+  </si>
+  <si>
+    <t>～次第で</t>
+  </si>
+  <si>
+    <t>～次第では</t>
+  </si>
+  <si>
+    <t>～上／～の上で</t>
+  </si>
+  <si>
+    <t>～ないではいられない／～ずにはいられない</t>
+  </si>
+  <si>
+    <t>～だけに／～だけあって／～だけのことはある</t>
+  </si>
+  <si>
+    <t>～っこない</t>
+  </si>
+  <si>
+    <t>～つつ①</t>
+  </si>
+  <si>
+    <t>～つつ②</t>
+  </si>
+  <si>
+    <t>～つつある</t>
+  </si>
+  <si>
+    <t>～っぱなし</t>
+  </si>
+  <si>
+    <t>～て以来（修正版）</t>
+  </si>
+  <si>
+    <t>～てならない</t>
+  </si>
+  <si>
+    <t>～と言えば／～と言うと／～と言ったら</t>
+  </si>
+  <si>
+    <t>～ってば／～ったら</t>
+  </si>
+  <si>
+    <t>～というものだ</t>
+  </si>
+  <si>
+    <t>～というものではない</t>
+  </si>
+  <si>
+    <t>～とか</t>
+  </si>
+  <si>
+    <t>～どころか</t>
+  </si>
+  <si>
+    <t>～どころではない</t>
+  </si>
+  <si>
+    <t>～とともに</t>
+  </si>
+  <si>
+    <t>～ないことには</t>
+  </si>
+  <si>
+    <t>～ないことはない</t>
+  </si>
+  <si>
+    <t>～ながら（逆接）</t>
+  </si>
+  <si>
+    <t>～にあたって</t>
+  </si>
+  <si>
+    <t>～に応じて</t>
+  </si>
+  <si>
+    <t>～にかかわりなく／～にかかわらず</t>
+  </si>
+  <si>
+    <t>～にもかかわらず</t>
+  </si>
+  <si>
+    <t>～に限って</t>
+  </si>
+  <si>
+    <t>～に限らず</t>
+  </si>
+  <si>
+    <t>～に限り（限定）</t>
+  </si>
+  <si>
+    <t>～に関して</t>
+  </si>
+  <si>
+    <t>～に相違ない</t>
+  </si>
+  <si>
+    <t>～に際して</t>
+  </si>
+  <si>
+    <t>～に先立って</t>
+  </si>
+  <si>
+    <t>～にしたら／～にすれば/～にしても／にしたって（立場）</t>
+  </si>
+  <si>
+    <t>～にしては</t>
+  </si>
+  <si>
+    <t>～にしても／～にしたって／～にしろ／～にせよ</t>
+  </si>
+  <si>
+    <t>～にすぎない</t>
+  </si>
+  <si>
+    <t>～に沿って</t>
+  </si>
+  <si>
+    <t>～につけて</t>
+  </si>
+  <si>
+    <t>～にともなって</t>
+  </si>
+  <si>
+    <t>～にほかならない</t>
+  </si>
+  <si>
+    <t>～に基づいて</t>
+  </si>
+  <si>
+    <t>～はさておき</t>
+  </si>
+  <si>
+    <t>～はもとより</t>
+  </si>
+  <si>
+    <t>～ぬきで／～ぬきに／～をぬきにして／～はぬきにして</t>
+  </si>
+  <si>
+    <t>～末に</t>
+  </si>
+  <si>
+    <t>～のみならず</t>
+  </si>
+  <si>
+    <t>～ばかりか</t>
+  </si>
+  <si>
+    <t>～ばかりに</t>
+  </si>
+  <si>
+    <t>～くらいなら</t>
+  </si>
+  <si>
+    <t>～まい</t>
+  </si>
+  <si>
+    <t>～うか～まいか（再掲）</t>
+  </si>
+  <si>
+    <t>～もかまわず</t>
+  </si>
+  <si>
+    <t>～ものがある</t>
+  </si>
+  <si>
+    <t>～ものだ／～ものではない（常識／本質）</t>
+  </si>
+  <si>
+    <t>～ものだ （感慨／懷古）</t>
+  </si>
+  <si>
+    <t>～ものなら</t>
+  </si>
+  <si>
+    <t>～ないものか</t>
+  </si>
+  <si>
+    <t>～うものなら</t>
+  </si>
+  <si>
+    <t>～ものの</t>
+  </si>
+  <si>
+    <t>～やら～やら</t>
+  </si>
+  <si>
+    <t>～ようがない</t>
+  </si>
+  <si>
+    <t>～を契機にして／～を契機として</t>
+  </si>
+  <si>
+    <t>～を問わず</t>
+  </si>
+  <si>
+    <t>～をはじめとして</t>
+  </si>
+  <si>
+    <t>～をめぐって</t>
+  </si>
+  <si>
+    <t>助詞：主題「は」</t>
+  </si>
+  <si>
+    <t>助詞：同様「も」</t>
+  </si>
+  <si>
+    <t>助詞：所属、所有、所在、所産「の」</t>
+  </si>
+  <si>
+    <t>助詞：疑問「か」</t>
+  </si>
+  <si>
+    <t>～ました·～ませんでした （動詞過去）</t>
+  </si>
+  <si>
+    <t>助詞：動作進行時点「に」</t>
+  </si>
+  <si>
+    <t>助詞：移動方向「へ」</t>
+  </si>
+  <si>
+    <t>助詞：交通工具「で」</t>
+  </si>
+  <si>
+    <t>助詞：動作夥伴「と」</t>
+  </si>
+  <si>
+    <t>～ませんか</t>
+  </si>
+  <si>
+    <t>～ましょう</t>
+  </si>
+  <si>
+    <t>助詞：動作作用対象「を」</t>
+  </si>
+  <si>
+    <t>助詞：動作進行地点「で」</t>
+  </si>
+  <si>
+    <t>助詞：起点，経由点「から」</t>
+  </si>
+  <si>
+    <t>疑問詞</t>
+  </si>
+  <si>
+    <t>指示詞</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>時間表現</t>
+  </si>
+  <si>
+    <t>助詞：並立「と」</t>
+  </si>
+  <si>
+    <t>助詞：並立一部「や」</t>
+  </si>
+  <si>
+    <t>助詞：動作相手「に」</t>
+  </si>
+  <si>
+    <t>あげます</t>
+  </si>
+  <si>
+    <t>もらいます</t>
+  </si>
+  <si>
+    <t>くれます</t>
+  </si>
+  <si>
+    <t>やります</t>
+  </si>
+  <si>
+    <t>助詞：動作相手授方「から」</t>
+  </si>
+  <si>
+    <t>助詞：接触点「に」</t>
+  </si>
+  <si>
+    <t>助詞：動作単位「で」</t>
+  </si>
+  <si>
+    <t>助詞：焦点「が」</t>
+  </si>
+  <si>
+    <t>助詞：存在位置「に」</t>
+  </si>
+  <si>
+    <t>～に…があります（います）</t>
+  </si>
+  <si>
+    <t>～は…にあります（います）</t>
+  </si>
+  <si>
+    <t>位置表現</t>
+  </si>
+  <si>
+    <t>形容詞の名詞接続</t>
+  </si>
+  <si>
+    <t>副詞</t>
+  </si>
+  <si>
+    <t>形容詞の副詞用法</t>
+  </si>
+  <si>
+    <t>方法手段の「動詞て形」</t>
+  </si>
+  <si>
+    <t>助词：進入点，到達点「に」</t>
+  </si>
+  <si>
+    <t>助詞：離脱点「を」</t>
+  </si>
+  <si>
+    <t>助詞：経過点「を」</t>
+  </si>
+  <si>
+    <t>数量詞</t>
+  </si>
+  <si>
+    <t>助詞：概数量「くらい」</t>
+  </si>
+  <si>
+    <t>助詞：限定「だけ」</t>
+  </si>
+  <si>
+    <t>助詞：限定「しか」（強調：軽薄短小少）</t>
+  </si>
+  <si>
+    <t>名詞代替「の」</t>
+  </si>
+  <si>
+    <t>動作順序「動詞て形」</t>
+  </si>
+  <si>
+    <t>～てから</t>
+  </si>
+  <si>
+    <t>～あとで</t>
+  </si>
+  <si>
+    <t>～まえに</t>
+  </si>
+  <si>
+    <t>助詞：全否定「も」</t>
+  </si>
+  <si>
+    <t>附帶状況「動詞て形」</t>
+  </si>
+  <si>
+    <t>ます形</t>
+  </si>
+  <si>
+    <t>て形</t>
+  </si>
+  <si>
+    <t>辞書形</t>
+  </si>
+  <si>
+    <t>ない形</t>
+  </si>
+  <si>
+    <t>た形</t>
+  </si>
+  <si>
+    <t>なかった形</t>
+  </si>
+  <si>
+    <t>動詞「普通形」</t>
+  </si>
+  <si>
+    <t>い形容詞「普通形」</t>
+  </si>
+  <si>
+    <t>な形容詞「普通形」</t>
+  </si>
+  <si>
+    <t>名詞「普通形」</t>
+  </si>
+  <si>
+    <t>普通形＋名詞（連体修飾）</t>
+  </si>
+  <si>
+    <t>連体詞</t>
+  </si>
+  <si>
+    <t>～とき</t>
+  </si>
+  <si>
+    <t>助詞：同意「ね」</t>
+  </si>
+  <si>
+    <t>助詞：喚起「よ」</t>
+  </si>
+  <si>
+    <t>助詞：女性語気「わ」</t>
+  </si>
+  <si>
+    <t>文体「丁寧体，普通体」</t>
+  </si>
+  <si>
+    <t>助詞：述語の主体「が」</t>
+  </si>
+  <si>
+    <t>助詞：逆接「が」</t>
+  </si>
+  <si>
+    <t>接続詞</t>
+  </si>
+  <si>
+    <t>感応詞</t>
+  </si>
+  <si>
+    <t>ください</t>
+  </si>
+  <si>
+    <t>～ないで（附帯状況）</t>
+  </si>
+  <si>
+    <t>助詞：同時進行「ながら」</t>
+  </si>
+  <si>
+    <t>～です・～じゃありません（名詞肯定·否定）</t>
+  </si>
+  <si>
+    <t>～ます・～ません（動詞肯定·否定）</t>
+  </si>
+  <si>
+    <t>～です・～じゃありません（な形容詞肯定，否定）</t>
+  </si>
+  <si>
+    <t>～いです・～くないです（い形容詞肯定，否定）</t>
+  </si>
+  <si>
+    <t>～でした・～じゃありませんでした（名詞過去）</t>
+  </si>
+  <si>
+    <t>～でした・～じゃありませんでした（な形容詞過去）</t>
+  </si>
+  <si>
+    <t>～かったです・～くなかったです（い形容詞過去）</t>
+  </si>
+  <si>
+    <t>～くなります・～になります</t>
+  </si>
+  <si>
+    <t>～くします・～にします</t>
+  </si>
+  <si>
+    <t>助詞：終点・限界「まで」</t>
+  </si>
+  <si>
+    <t>助詞：手段・工具「で」</t>
+  </si>
+  <si>
+    <t>～が欲しいです・～たいです</t>
+  </si>
+  <si>
+    <t>助詞：原因・理由「から」</t>
+  </si>
+  <si>
+    <t>原因「て形」・助詞：原因「で」</t>
+  </si>
+  <si>
+    <t>動詞・形容詞・名詞の並述</t>
+  </si>
+  <si>
+    <t>もう・まだ</t>
+  </si>
+  <si>
+    <t>接頭辞・接尾辞</t>
+  </si>
+  <si>
+    <t>何か・誰か・どこか·いつか（不特定，不確定「か」）</t>
+  </si>
+  <si>
+    <t>～てください・～ないでください</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1662,6 +2512,27 @@
       <color theme="1"/>
       <name val="仿宋"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="冬青黑体简体中文 W3"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="冬青黑体简体中文 W3"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="冬青黑体简体中文 W3"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1700,7 +2571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1718,9 +2589,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1998,12 +2895,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7369BD21-13ED-47F0-A561-613CAF1795CF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18">
+      <c r="A71" s="15">
+        <v>70</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18">
+      <c r="A73" s="15">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18">
+      <c r="A74" s="15">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18">
+      <c r="A75" s="15">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18">
+      <c r="A76" s="15">
+        <v>75</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18">
+      <c r="A77" s="15">
+        <v>76</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18">
+      <c r="A78" s="15">
+        <v>77</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18">
+      <c r="A79" s="15">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18">
+      <c r="A80" s="15">
+        <v>79</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18">
+      <c r="A81" s="15">
+        <v>80</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18">
+      <c r="A82" s="15">
+        <v>81</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18">
+      <c r="A83" s="15">
+        <v>82</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18">
+      <c r="A84" s="15">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18">
+      <c r="A85" s="15">
+        <v>84</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18">
+      <c r="A86" s="15">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="36">
+      <c r="A87" s="15">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18">
+      <c r="A88" s="15">
+        <v>87</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18">
+      <c r="A89" s="15">
+        <v>88</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18">
+      <c r="A90" s="15">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18">
+      <c r="A91" s="15">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18">
+      <c r="A92" s="15">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2011,12 +3688,1167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF5FAC9-7E8F-4987-B664-D67CC8417A32}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="36">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="18">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="18">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="18">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="18">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="18">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="18">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="18">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" ht="18">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="18">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" ht="18">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="18">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="18">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="18">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="18">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="18">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="18">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="18">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" ht="18">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="18">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" ht="18">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="18">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" ht="18">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="18">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="18">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="18">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="18">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="18">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" ht="18">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" ht="18">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" ht="18">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" ht="18">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" ht="18">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" ht="18">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="18">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="18">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" ht="18">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="18">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" ht="18">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="18">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="18">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" ht="18">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="18">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" ht="18">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" ht="18">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="18">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" ht="18">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="18">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="18">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="18">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" ht="36">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="18">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" ht="18">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" ht="18">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="18">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="18">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="18">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="18">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" ht="18">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" ht="18">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" ht="18">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2026,21 +4858,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2165,7 +4997,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2237,7 +5069,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2273,7 +5105,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2291,7 +5123,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2327,7 +5159,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2345,7 +5177,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2399,7 +5231,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2543,7 +5375,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2687,7 +5519,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2705,7 +5537,7 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2741,7 +5573,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2795,7 +5627,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="18">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2867,7 +5699,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="18">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2885,7 +5717,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="18">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2921,7 +5753,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="18">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2947,7 +5779,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3043,7 +5875,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="18">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3241,7 +6073,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="18">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3339,7 +6171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="18">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3365,7 +6197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="18">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3391,7 +6223,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="18">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3443,7 +6275,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="18">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3521,7 +6353,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="18">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3547,7 +6379,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="18">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3573,7 +6405,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="18">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3599,7 +6431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="18">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3625,7 +6457,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="18">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3651,7 +6483,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="18">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3703,7 +6535,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="18">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3729,7 +6561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="18">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3755,7 +6587,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="18">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3911,7 +6743,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="18">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3963,7 +6795,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="18">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3989,7 +6821,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="18">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4015,7 +6847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="18">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4041,7 +6873,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="18">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4067,7 +6899,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="18">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4093,7 +6925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="18">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4128,14 +6960,1574 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="18">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="18">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="18">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="18">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="18">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="18">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="18">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="18">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="18">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="18">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="18">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="18">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="18">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="18">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="18">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="18">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="18">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="18">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="18">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="18">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="18">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="18">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="18">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="18">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="18">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="18">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="18">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="18">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="18">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="18">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="18">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="18">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="18">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="18">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="18">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="18">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="18">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="18">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="18">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="18">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="18">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="18">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="18">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="18">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="18">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="18">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="18">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="18">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" ht="18">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" ht="18">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" ht="18">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="18">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" ht="18">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="18">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="18">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" ht="18">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" ht="18">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" ht="18">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" ht="18">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" ht="18">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" ht="18">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" ht="18">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" ht="18">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" ht="18">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" ht="18">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" ht="18">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" ht="18">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" ht="18">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="18">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="18">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" ht="18">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" ht="18">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="18">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="18">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="18">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" ht="18">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" ht="18">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" ht="18">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4145,7 +8537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/出口日語/出口日语学习进度.xlsx
+++ b/出口日語/出口日语学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihana/GitHub/Japanese/出口日語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477AEE6-5B9A-5842-A16D-8C57A8DF779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6119913-1E77-3B45-B54E-1E6491F3784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N5" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="473">
   <si>
     <t>～一方だ</t>
   </si>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既……又……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>因为</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,10 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不会……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>难怪</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,34 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（比起）虽然……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>把……当作……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以……为机会</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>充满……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以……为中心/重点</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>透过；在整个……期间</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>从……来说</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～までに</t>
   </si>
   <si>
@@ -662,13 +626,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>～あげく</t>
-  </si>
-  <si>
     <t>～以上</t>
-  </si>
-  <si>
-    <t>～一方</t>
   </si>
   <si>
     <t>～うえで①</t>
@@ -1225,10 +1183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（逆接）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～にかかわりなく
 ～にかかわらず</t>
     <phoneticPr fontId="1"/>
@@ -1289,18 +1243,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（限定）</t>
-  </si>
-  <si>
     <t>～て以来</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>～ことだ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（忠告）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1584,12 +1531,218 @@
 ～から言ったら</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>限定，只有</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不只是</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只有；唯独；偏偏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>按照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>听说</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就是～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>我说；就说</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>说到</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～得不得了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>结果；最后</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>由于过度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～一方（で）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>难以</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稍微；有点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（忠告）就得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取决于</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不愧是
+正因为是</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可能；不会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放置不管；一直</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="YuKyokasho Yoko Medium"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～あげく</t>
+    </r>
+  </si>
+  <si>
+    <t>只要…就…</t>
+  </si>
+  <si>
+    <t>据…所知</t>
+  </si>
+  <si>
+    <t>单从…来看</t>
+  </si>
+  <si>
+    <t>从…来看</t>
+  </si>
+  <si>
+    <t>（不能）只因…就…</t>
+  </si>
+  <si>
+    <t>既…又…</t>
+  </si>
+  <si>
+    <t>不会…</t>
+  </si>
+  <si>
+    <t>（比起）虽然…</t>
+  </si>
+  <si>
+    <t>把…当作…</t>
+  </si>
+  <si>
+    <t>以…为机会</t>
+  </si>
+  <si>
+    <t>充满…</t>
+  </si>
+  <si>
+    <t>以…为中心/重点</t>
+  </si>
+  <si>
+    <t>透过；在整个…期间</t>
+  </si>
+  <si>
+    <t>从…来说</t>
+  </si>
+  <si>
+    <t>既然…就…</t>
+  </si>
+  <si>
+    <t>让我们…吧</t>
+  </si>
+  <si>
+    <t>（做了）…就（再也没有）
+一直持续
+只有</t>
+  </si>
+  <si>
+    <t>不…而</t>
+  </si>
+  <si>
+    <t>不得不…</t>
+  </si>
+  <si>
+    <t>一…立刻</t>
+  </si>
+  <si>
+    <t>一边…一边…</t>
+  </si>
+  <si>
+    <t>虽然…但是</t>
+  </si>
+  <si>
+    <t>正在…</t>
+  </si>
+  <si>
+    <t>别说…还</t>
+  </si>
+  <si>
+    <t>不是…的时候</t>
+  </si>
+  <si>
+    <t>随着；与…同时</t>
+  </si>
+  <si>
+    <t>如果不…（就不）</t>
+  </si>
+  <si>
+    <t>不是不…</t>
+  </si>
+  <si>
+    <t>（逆接）虽然…但是</t>
+  </si>
+  <si>
+    <t>在…时候</t>
+  </si>
+  <si>
+    <t>不管…</t>
+  </si>
+  <si>
+    <t>在…方面</t>
+  </si>
+  <si>
+    <t>在…之后</t>
+  </si>
+  <si>
+    <t>（令人）…的是</t>
+  </si>
+  <si>
+    <t>在…之上</t>
+  </si>
+  <si>
+    <t>…以来</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,14 +1779,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1665,6 +1810,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="YuKyokasho Yoko Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="YuKyokasho Yoko Medium"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1674,7 +1843,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1697,11 +1866,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1724,7 +1906,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1751,20 +1933,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2084,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -2092,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
@@ -2100,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -2108,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -2116,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -2124,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
@@ -2132,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -2140,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
@@ -2148,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -2156,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -2164,7 +2354,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
@@ -2172,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
@@ -2180,7 +2370,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
@@ -2188,7 +2378,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -2196,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -2204,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
@@ -2212,7 +2402,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
@@ -2220,7 +2410,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
@@ -2228,7 +2418,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
@@ -2236,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
@@ -2244,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
@@ -2252,7 +2442,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18">
@@ -2260,7 +2450,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
@@ -2268,7 +2458,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
@@ -2276,7 +2466,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
@@ -2284,7 +2474,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
@@ -2292,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
@@ -2300,7 +2490,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18">
@@ -2308,7 +2498,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18">
@@ -2316,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18">
@@ -2324,7 +2514,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
@@ -2332,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18">
@@ -2340,7 +2530,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18">
@@ -2348,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18">
@@ -2356,7 +2546,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18">
@@ -2364,7 +2554,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18">
@@ -2372,7 +2562,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18">
@@ -2380,7 +2570,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18">
@@ -2388,7 +2578,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18">
@@ -2396,7 +2586,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18">
@@ -2404,7 +2594,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18">
@@ -2412,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18">
@@ -2420,7 +2610,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18">
@@ -2428,7 +2618,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18">
@@ -2436,7 +2626,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18">
@@ -2444,7 +2634,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18">
@@ -2452,7 +2642,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
@@ -2460,7 +2650,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
@@ -2468,7 +2658,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
@@ -2476,7 +2666,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
@@ -2484,7 +2674,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
@@ -2492,7 +2682,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
@@ -2500,7 +2690,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
@@ -2508,7 +2698,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
@@ -2516,7 +2706,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18">
@@ -2524,7 +2714,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
@@ -2532,7 +2722,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18">
@@ -2540,7 +2730,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18">
@@ -2548,7 +2738,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18">
@@ -2556,7 +2746,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
@@ -2564,7 +2754,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18">
@@ -2572,7 +2762,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18">
@@ -2580,7 +2770,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18">
@@ -2588,7 +2778,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18">
@@ -2596,7 +2786,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18">
@@ -2604,7 +2794,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18">
@@ -2612,7 +2802,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18">
@@ -2620,7 +2810,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18">
@@ -2628,7 +2818,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18">
@@ -2636,7 +2826,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18">
@@ -2644,7 +2834,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18">
@@ -2652,7 +2842,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18">
@@ -2660,7 +2850,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18">
@@ -2668,7 +2858,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18">
@@ -2676,7 +2866,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18">
@@ -2684,7 +2874,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18">
@@ -2692,7 +2882,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18">
@@ -2700,7 +2890,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18">
@@ -2708,7 +2898,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18">
@@ -2716,7 +2906,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18">
@@ -2724,7 +2914,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18">
@@ -2732,7 +2922,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18">
@@ -2740,7 +2930,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18">
@@ -2748,7 +2938,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18">
@@ -2756,7 +2946,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="36">
@@ -2764,7 +2954,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18">
@@ -2772,7 +2962,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18">
@@ -2780,7 +2970,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18">
@@ -2788,7 +2978,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18">
@@ -2796,7 +2986,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18">
@@ -2804,7 +2994,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18">
@@ -2812,7 +3002,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18">
@@ -2820,7 +3010,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18">
@@ -2828,7 +3018,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2888,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2900,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2912,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2924,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2936,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2948,7 +3138,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2960,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2972,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2984,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2996,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3008,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3020,7 +3210,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3032,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3044,7 +3234,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3056,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3068,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3080,7 +3270,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3092,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3104,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3116,7 +3306,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3128,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3140,7 +3330,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3152,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3164,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3176,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3188,7 +3378,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3200,7 +3390,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3212,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3224,7 +3414,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3236,7 +3426,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3248,7 +3438,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3260,7 +3450,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3272,7 +3462,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3284,7 +3474,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3296,7 +3486,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3308,7 +3498,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3320,7 +3510,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3332,7 +3522,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3344,7 +3534,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3356,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3368,7 +3558,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3380,7 +3570,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3392,7 +3582,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3404,7 +3594,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3416,7 +3606,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3428,7 +3618,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3440,7 +3630,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3452,7 +3642,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3464,7 +3654,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3476,7 +3666,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3488,7 +3678,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3500,7 +3690,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3512,7 +3702,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3524,7 +3714,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3536,7 +3726,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3548,7 +3738,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3560,7 +3750,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3572,7 +3762,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3584,7 +3774,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3596,7 +3786,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3608,7 +3798,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3620,7 +3810,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3632,7 +3822,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3644,7 +3834,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3656,7 +3846,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3668,7 +3858,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3680,7 +3870,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3692,7 +3882,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3704,7 +3894,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3716,7 +3906,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3728,7 +3918,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3740,7 +3930,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3752,7 +3942,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3764,7 +3954,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3776,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3788,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3800,7 +3990,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3812,7 +4002,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3824,7 +4014,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3836,7 +4026,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3848,7 +4038,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3860,7 +4050,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3872,7 +4062,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3884,7 +4074,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3896,7 +4086,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3908,7 +4098,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3920,7 +4110,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3932,7 +4122,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3944,7 +4134,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3956,7 +4146,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3968,7 +4158,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3980,7 +4170,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3992,7 +4182,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -4009,1526 +4199,1526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>6</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19">
         <v>3</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="64">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="32">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="32">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="32">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="32">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="32">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="32">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" ht="32">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" ht="32">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" ht="32">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" ht="48">
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" ht="64">
+      <c r="A46" s="22">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" ht="64">
+      <c r="A47" s="22">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" ht="48">
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="64">
-      <c r="A11" s="23">
+      <c r="C49" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="19">
+        <v>3</v>
+      </c>
+      <c r="E49" s="19">
+        <v>88</v>
+      </c>
+      <c r="F49" s="19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32">
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19">
+        <v>3</v>
+      </c>
+      <c r="E50" s="19">
+        <v>89</v>
+      </c>
+      <c r="F50" s="19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="22">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19">
+        <v>2</v>
+      </c>
+      <c r="E51" s="19">
+        <v>89</v>
+      </c>
+      <c r="F51" s="19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="22">
+        <v>51</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19">
+        <v>3</v>
+      </c>
+      <c r="E52" s="19">
+        <v>90</v>
+      </c>
+      <c r="F52" s="19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19">
+        <v>2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>90</v>
+      </c>
+      <c r="F53" s="19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="32">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19">
+        <v>3</v>
+      </c>
+      <c r="E54" s="19">
+        <v>92</v>
+      </c>
+      <c r="F54" s="19">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19">
+        <v>2</v>
+      </c>
+      <c r="E55" s="19">
+        <v>91</v>
+      </c>
+      <c r="F55" s="19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19">
+        <v>2</v>
+      </c>
+      <c r="E56" s="19">
+        <v>95</v>
+      </c>
+      <c r="F56" s="19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19">
+        <v>3</v>
+      </c>
+      <c r="E57" s="19">
+        <v>94</v>
+      </c>
+      <c r="F57" s="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="22">
+        <v>57</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19">
+        <v>2</v>
+      </c>
+      <c r="E58" s="19">
+        <v>102</v>
+      </c>
+      <c r="F58" s="19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="22">
+        <v>58</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="19">
+        <v>3</v>
+      </c>
+      <c r="E59" s="19">
+        <v>95</v>
+      </c>
+      <c r="F59" s="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="22">
+        <v>59</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="19">
+        <v>3</v>
+      </c>
+      <c r="E60" s="19">
+        <v>96</v>
+      </c>
+      <c r="F60" s="19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="22">
+        <v>60</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="19">
+        <v>3</v>
+      </c>
+      <c r="E61" s="19">
+        <v>98</v>
+      </c>
+      <c r="F61" s="19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="32">
+      <c r="A62" s="22">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="22">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="19">
+        <v>3</v>
+      </c>
+      <c r="E63" s="19">
+        <v>94</v>
+      </c>
+      <c r="F63" s="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="19">
+        <v>2</v>
+      </c>
+      <c r="E64" s="19">
+        <v>92</v>
+      </c>
+      <c r="F64" s="19">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="19">
+        <v>2</v>
+      </c>
+      <c r="E65" s="19">
+        <v>106</v>
+      </c>
+      <c r="F65" s="19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="22">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D66" s="19">
+        <v>3</v>
+      </c>
+      <c r="E66" s="19">
+        <v>100</v>
+      </c>
+      <c r="F66" s="19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="32">
+      <c r="A67" s="22">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="19">
+        <v>3</v>
+      </c>
+      <c r="E67" s="19">
+        <v>100</v>
+      </c>
+      <c r="F67" s="19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="32">
+      <c r="A68" s="22">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="19">
+        <v>4</v>
+      </c>
+      <c r="E68" s="19">
+        <v>79</v>
+      </c>
+      <c r="F68" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="22">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="19">
+        <v>2</v>
+      </c>
+      <c r="E69" s="19">
+        <v>110</v>
+      </c>
+      <c r="F69" s="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="32">
+      <c r="A70" s="22">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="19">
+        <v>3</v>
+      </c>
+      <c r="E70" s="19">
+        <v>107</v>
+      </c>
+      <c r="F70" s="19">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="22">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="19">
+        <v>2</v>
+      </c>
+      <c r="E71" s="19">
+        <v>118</v>
+      </c>
+      <c r="F71" s="19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="22">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="19">
+        <v>2</v>
+      </c>
+      <c r="E72" s="19">
+        <v>120</v>
+      </c>
+      <c r="F72" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="32">
+      <c r="A73" s="22">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="19">
+        <v>3</v>
+      </c>
+      <c r="E73" s="19">
+        <v>43</v>
+      </c>
+      <c r="F73" s="19">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="22">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="19">
+        <v>2</v>
+      </c>
+      <c r="E74" s="19">
+        <v>121</v>
+      </c>
+      <c r="F74" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="32">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="19">
+        <v>3</v>
+      </c>
+      <c r="E75" s="19">
+        <v>110</v>
+      </c>
+      <c r="F75" s="19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="48">
+      <c r="A76" s="22">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="19">
+        <v>2</v>
+      </c>
+      <c r="E76" s="19">
+        <v>122</v>
+      </c>
+      <c r="F76" s="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="32">
+      <c r="A77" s="22">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="19">
+        <v>3</v>
+      </c>
+      <c r="E77" s="19">
+        <v>111</v>
+      </c>
+      <c r="F77" s="19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="32">
+      <c r="A78" s="22">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="19">
+        <v>3</v>
+      </c>
+      <c r="E78" s="19">
+        <v>111</v>
+      </c>
+      <c r="F78" s="19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="22">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="19">
+        <v>3</v>
+      </c>
+      <c r="E79" s="19">
+        <v>23</v>
+      </c>
+      <c r="F79" s="19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="64">
+      <c r="A80" s="22">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="19">
+        <v>3</v>
+      </c>
+      <c r="E80" s="19">
+        <v>112</v>
+      </c>
+      <c r="F80" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="32">
+      <c r="A81" s="22">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D81" s="19">
+        <v>2</v>
+      </c>
+      <c r="E81" s="19">
+        <v>134</v>
+      </c>
+      <c r="F81" s="19">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="48">
+      <c r="A82" s="22">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="19">
+        <v>3</v>
+      </c>
+      <c r="E82" s="19">
+        <v>114</v>
+      </c>
+      <c r="F82" s="19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="22">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="19">
+        <v>2</v>
+      </c>
+      <c r="E83" s="19">
+        <v>128</v>
+      </c>
+      <c r="F83" s="19">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="22">
+        <v>83</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" s="19">
+        <v>3</v>
+      </c>
+      <c r="E84" s="19">
+        <v>122</v>
+      </c>
+      <c r="F84" s="19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="22">
+        <v>84</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="19">
+        <v>3</v>
+      </c>
+      <c r="E85" s="19">
+        <v>123</v>
+      </c>
+      <c r="F85" s="19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="22">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="19">
+        <v>3</v>
+      </c>
+      <c r="E86" s="19">
+        <v>124</v>
+      </c>
+      <c r="F86" s="19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="22">
+        <v>86</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="19">
+        <v>3</v>
+      </c>
+      <c r="E87" s="19">
+        <v>125</v>
+      </c>
+      <c r="F87" s="19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="48">
+      <c r="A88" s="22">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="19">
+        <v>3</v>
+      </c>
+      <c r="E88" s="19">
+        <v>76</v>
+      </c>
+      <c r="F88" s="19">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="22">
+        <v>88</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D89" s="19">
+        <v>2</v>
+      </c>
+      <c r="E89" s="19">
+        <v>139</v>
+      </c>
+      <c r="F89" s="19">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="32">
+      <c r="A90" s="22">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D90" s="19">
+        <v>3</v>
+      </c>
+      <c r="E90" s="19">
+        <v>127</v>
+      </c>
+      <c r="F90" s="19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="32">
+      <c r="A91" s="22">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D91" s="19">
+        <v>2</v>
+      </c>
+      <c r="E91" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="32">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="32">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="32">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" ht="32">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="23">
+      <c r="F91" s="19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="32">
+      <c r="A92" s="22">
+        <v>91</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D92" s="19">
+        <v>3</v>
+      </c>
+      <c r="E92" s="19">
+        <v>126</v>
+      </c>
+      <c r="F92" s="19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="32">
+      <c r="A93" s="22">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93" s="19">
+        <v>2</v>
+      </c>
+      <c r="E93" s="19">
+        <v>141</v>
+      </c>
+      <c r="F93" s="19">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="32">
+      <c r="A94" s="22">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D94" s="19">
+        <v>2</v>
+      </c>
+      <c r="E94" s="19">
+        <v>142</v>
+      </c>
+      <c r="F94" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="64">
+      <c r="A95" s="22">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D95" s="19">
+        <v>3</v>
+      </c>
+      <c r="E95" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="23">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="23">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="23">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="23">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="23">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="23">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="23">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="23">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="23">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="23">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="23">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="23">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="23">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="23">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="23">
-        <v>40</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" ht="48">
-      <c r="A42" s="23">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="23">
-        <v>42</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="23">
-        <v>43</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="23">
-        <v>44</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" ht="64">
-      <c r="A46" s="23">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="1:6" ht="64">
-      <c r="A47" s="23">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="23">
-        <v>47</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" ht="48">
-      <c r="A49" s="23">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="20">
-        <v>3</v>
-      </c>
-      <c r="E49" s="20">
-        <v>88</v>
-      </c>
-      <c r="F49" s="20">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="32">
-      <c r="A50" s="23">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20">
-        <v>3</v>
-      </c>
-      <c r="E50" s="20">
-        <v>89</v>
-      </c>
-      <c r="F50" s="20">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="23">
-        <v>50</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20">
-        <v>2</v>
-      </c>
-      <c r="E51" s="20">
-        <v>89</v>
-      </c>
-      <c r="F51" s="20">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="23">
-        <v>51</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20">
-        <v>3</v>
-      </c>
-      <c r="E52" s="20">
-        <v>90</v>
-      </c>
-      <c r="F52" s="20">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="23">
-        <v>52</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20">
-        <v>2</v>
-      </c>
-      <c r="E53" s="20">
-        <v>90</v>
-      </c>
-      <c r="F53" s="20">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="32">
-      <c r="A54" s="23">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20">
-        <v>3</v>
-      </c>
-      <c r="E54" s="20">
-        <v>92</v>
-      </c>
-      <c r="F54" s="20">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="23">
-        <v>54</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20">
-        <v>2</v>
-      </c>
-      <c r="E55" s="20">
-        <v>91</v>
-      </c>
-      <c r="F55" s="20">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="23">
-        <v>55</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20">
-        <v>2</v>
-      </c>
-      <c r="E56" s="20">
-        <v>95</v>
-      </c>
-      <c r="F56" s="20">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="23">
-        <v>56</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20">
-        <v>3</v>
-      </c>
-      <c r="E57" s="20">
-        <v>94</v>
-      </c>
-      <c r="F57" s="20">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="23">
-        <v>57</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20">
-        <v>2</v>
-      </c>
-      <c r="E58" s="20">
-        <v>102</v>
-      </c>
-      <c r="F58" s="20">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="23">
-        <v>58</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="20">
-        <v>3</v>
-      </c>
-      <c r="E59" s="20">
-        <v>95</v>
-      </c>
-      <c r="F59" s="20">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="23">
-        <v>59</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="20">
-        <v>3</v>
-      </c>
-      <c r="E60" s="20">
-        <v>96</v>
-      </c>
-      <c r="F60" s="20">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="23">
-        <v>60</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="20">
-        <v>3</v>
-      </c>
-      <c r="E61" s="20">
-        <v>98</v>
-      </c>
-      <c r="F61" s="20">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="32">
-      <c r="A62" s="23">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="23">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="20">
-        <v>3</v>
-      </c>
-      <c r="E63" s="20">
-        <v>94</v>
-      </c>
-      <c r="F63" s="20">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="23">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="20">
-        <v>2</v>
-      </c>
-      <c r="E64" s="20">
-        <v>92</v>
-      </c>
-      <c r="F64" s="20">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="23">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="20">
-        <v>2</v>
-      </c>
-      <c r="E65" s="20">
-        <v>106</v>
-      </c>
-      <c r="F65" s="20">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="23">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D66" s="20">
-        <v>3</v>
-      </c>
-      <c r="E66" s="20">
-        <v>100</v>
-      </c>
-      <c r="F66" s="20">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="32">
-      <c r="A67" s="23">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="20">
-        <v>3</v>
-      </c>
-      <c r="E67" s="20">
-        <v>100</v>
-      </c>
-      <c r="F67" s="20">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="32">
-      <c r="A68" s="23">
-        <v>67</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="20">
-        <v>4</v>
-      </c>
-      <c r="E68" s="20">
-        <v>79</v>
-      </c>
-      <c r="F68" s="20">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="23">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="20">
-        <v>2</v>
-      </c>
-      <c r="E69" s="20">
-        <v>110</v>
-      </c>
-      <c r="F69" s="20">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="32">
-      <c r="A70" s="23">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="20">
-        <v>3</v>
-      </c>
-      <c r="E70" s="20">
-        <v>107</v>
-      </c>
-      <c r="F70" s="20">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="23">
-        <v>70</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="20">
-        <v>2</v>
-      </c>
-      <c r="E71" s="20">
-        <v>118</v>
-      </c>
-      <c r="F71" s="20">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="23">
-        <v>71</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="20">
-        <v>2</v>
-      </c>
-      <c r="E72" s="20">
-        <v>120</v>
-      </c>
-      <c r="F72" s="20">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="32">
-      <c r="A73" s="23">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="20">
-        <v>3</v>
-      </c>
-      <c r="E73" s="20">
-        <v>43</v>
-      </c>
-      <c r="F73" s="20">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="23">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="20">
-        <v>2</v>
-      </c>
-      <c r="E74" s="20">
-        <v>121</v>
-      </c>
-      <c r="F74" s="20">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="32">
-      <c r="A75" s="23">
-        <v>74</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="20">
-        <v>3</v>
-      </c>
-      <c r="E75" s="20">
-        <v>110</v>
-      </c>
-      <c r="F75" s="20">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="48">
-      <c r="A76" s="23">
-        <v>75</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="20">
-        <v>2</v>
-      </c>
-      <c r="E76" s="20">
-        <v>122</v>
-      </c>
-      <c r="F76" s="20">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="32">
-      <c r="A77" s="23">
-        <v>76</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="20">
-        <v>3</v>
-      </c>
-      <c r="E77" s="20">
-        <v>111</v>
-      </c>
-      <c r="F77" s="20">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="32">
-      <c r="A78" s="23">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="20">
-        <v>3</v>
-      </c>
-      <c r="E78" s="20">
-        <v>111</v>
-      </c>
-      <c r="F78" s="20">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="23">
-        <v>78</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="20">
-        <v>3</v>
-      </c>
-      <c r="E79" s="20">
-        <v>23</v>
-      </c>
-      <c r="F79" s="20">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="64">
-      <c r="A80" s="23">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="20">
-        <v>3</v>
-      </c>
-      <c r="E80" s="20">
-        <v>112</v>
-      </c>
-      <c r="F80" s="20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="32">
-      <c r="A81" s="23">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="20">
-        <v>2</v>
-      </c>
-      <c r="E81" s="20">
-        <v>134</v>
-      </c>
-      <c r="F81" s="20">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="48">
-      <c r="A82" s="23">
-        <v>81</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="20">
-        <v>3</v>
-      </c>
-      <c r="E82" s="20">
-        <v>114</v>
-      </c>
-      <c r="F82" s="20">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="23">
-        <v>82</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="20">
-        <v>2</v>
-      </c>
-      <c r="E83" s="20">
-        <v>128</v>
-      </c>
-      <c r="F83" s="20">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="23">
-        <v>83</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="20">
-        <v>3</v>
-      </c>
-      <c r="E84" s="20">
-        <v>122</v>
-      </c>
-      <c r="F84" s="20">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="23">
-        <v>84</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="20">
-        <v>3</v>
-      </c>
-      <c r="E85" s="20">
-        <v>123</v>
-      </c>
-      <c r="F85" s="20">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="23">
-        <v>85</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="20">
-        <v>3</v>
-      </c>
-      <c r="E86" s="20">
-        <v>124</v>
-      </c>
-      <c r="F86" s="20">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="23">
-        <v>86</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="20">
-        <v>3</v>
-      </c>
-      <c r="E87" s="20">
-        <v>125</v>
-      </c>
-      <c r="F87" s="20">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="48">
-      <c r="A88" s="23">
-        <v>87</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="20">
-        <v>3</v>
-      </c>
-      <c r="E88" s="20">
-        <v>76</v>
-      </c>
-      <c r="F88" s="20">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="23">
-        <v>88</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="20">
-        <v>2</v>
-      </c>
-      <c r="E89" s="20">
-        <v>139</v>
-      </c>
-      <c r="F89" s="20">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="32">
-      <c r="A90" s="23">
-        <v>89</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="20">
-        <v>3</v>
-      </c>
-      <c r="E90" s="20">
-        <v>127</v>
-      </c>
-      <c r="F90" s="20">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="32">
-      <c r="A91" s="23">
-        <v>90</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="20">
-        <v>2</v>
-      </c>
-      <c r="E91" s="20">
-        <v>10</v>
-      </c>
-      <c r="F91" s="20">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="32">
-      <c r="A92" s="23">
-        <v>91</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="20">
-        <v>3</v>
-      </c>
-      <c r="E92" s="20">
-        <v>126</v>
-      </c>
-      <c r="F92" s="20">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="32">
-      <c r="A93" s="23">
-        <v>92</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="20">
-        <v>2</v>
-      </c>
-      <c r="E93" s="20">
-        <v>141</v>
-      </c>
-      <c r="F93" s="20">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="32">
-      <c r="A94" s="23">
-        <v>93</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="20">
-        <v>2</v>
-      </c>
-      <c r="E94" s="20">
-        <v>142</v>
-      </c>
-      <c r="F94" s="20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="64">
-      <c r="A95" s="23">
-        <v>94</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="20">
-        <v>3</v>
-      </c>
-      <c r="E95" s="20">
-        <v>17</v>
-      </c>
-      <c r="F95" s="20">
+      <c r="F95" s="19">
         <v>162</v>
       </c>
     </row>
@@ -5543,1584 +5733,1824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="19">
+    <row r="2" spans="1:8" ht="19">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19">
+      <c r="B2" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" s="25">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="25">
         <v>89</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="34">
-      <c r="A3" s="19">
+    <row r="3" spans="1:8" ht="38">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19">
+      <c r="B3" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="25">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="25">
         <v>2</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="25">
         <v>89</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="19">
+    <row r="4" spans="1:8" ht="19">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19">
+      <c r="B4" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="25">
         <v>2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="25">
         <v>3</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="25">
         <v>89</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="19">
+    <row r="5" spans="1:8" ht="19">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
+      <c r="B5" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="25">
         <v>3</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="25">
         <v>5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="25">
         <v>158</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="19">
+    <row r="6" spans="1:8" ht="19">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
+      <c r="B6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="25">
         <v>3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="25">
         <v>8</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="25">
         <v>159</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="19">
+    <row r="7" spans="1:8" ht="19">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
+      <c r="B7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="25">
         <v>3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="25">
         <v>7</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="25">
         <v>159</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="19">
+    <row r="8" spans="1:8" ht="19">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19">
+      <c r="B8" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="25">
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="25">
         <v>4</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="25">
         <v>90</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="19">
+    <row r="9" spans="1:8" ht="19">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19">
+      <c r="B9" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="25">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="25">
         <v>5</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="25">
         <v>90</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="19">
+    <row r="10" spans="1:8" ht="19">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19">
+      <c r="B10" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="25">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="25">
         <v>6</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="25">
         <v>90</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="19">
+    <row r="11" spans="1:8" ht="19">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19">
+      <c r="B11" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="25">
         <v>2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="25">
         <v>9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="25">
         <v>92</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="19">
+    <row r="12" spans="1:8" ht="19">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19">
+      <c r="B12" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="25">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="25">
         <v>9</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="25">
         <v>92</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="19">
+    <row r="13" spans="1:8" ht="19">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
+      <c r="B13" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="25">
         <v>3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="25">
         <v>15</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="25">
         <v>161</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" ht="19">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19">
+      <c r="B14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="25">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="25">
         <v>16</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="25">
         <v>95</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="19">
+    <row r="15" spans="1:8" ht="19">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19">
+      <c r="B15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="25">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="25">
         <v>16</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="25">
         <v>96</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="19">
+    <row r="16" spans="1:8" ht="19">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19">
+      <c r="B16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" s="25">
         <v>2</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="25">
         <v>20</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="25">
         <v>97</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="68">
-      <c r="A17" s="19">
+    <row r="17" spans="1:8" ht="76">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19">
+      <c r="B17" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="25">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="25">
         <v>20</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="25">
         <v>97</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="34">
-      <c r="A18" s="19">
+    <row r="18" spans="1:8" ht="38">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19">
+      <c r="B18" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="25">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="25">
         <v>21</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="25">
         <v>98</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="17">
-      <c r="A19" s="19">
+    <row r="19" spans="1:8" ht="19">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19">
+      <c r="B19" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="25">
         <v>2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="25">
         <v>24</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="25">
         <v>99</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="17">
-      <c r="A20" s="19">
+    <row r="20" spans="1:8" ht="51">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
+      <c r="B20" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="25">
         <v>2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="25">
         <v>25</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="25">
         <v>100</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="34">
-      <c r="A21" s="19">
+    <row r="21" spans="1:8" ht="38">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="B21" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="25">
         <v>3</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="25">
         <v>22</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="25">
         <v>164</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="17">
-      <c r="A22" s="19">
+    <row r="22" spans="1:8" ht="19">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="B22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="25">
         <v>2</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="25">
         <v>26</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="25">
         <v>100</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="17">
-      <c r="A23" s="19">
+    <row r="23" spans="1:8" ht="19">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="B23" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="25">
         <v>3</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="25">
         <v>27</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="25">
         <v>166</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="17">
-      <c r="A24" s="19">
+    <row r="24" spans="1:8" ht="19">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="B24" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="25">
         <v>3</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="25">
         <v>25</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="25">
         <v>165</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="17">
-      <c r="A25" s="19">
+    <row r="25" spans="1:8" ht="19">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="25">
         <v>2</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="25">
         <v>29</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="25">
         <v>101</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="17">
-      <c r="A26" s="19">
+    <row r="26" spans="1:8" ht="19">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19">
+      <c r="B26" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26" s="25">
         <v>3</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="25">
         <v>28</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="25">
         <v>166</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="17">
-      <c r="A27" s="19">
+    <row r="27" spans="1:8" ht="19">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="B27" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D27" s="25">
         <v>2</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="25">
         <v>34</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="25">
         <v>103</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="17">
-      <c r="A28" s="19">
+    <row r="28" spans="1:8" ht="19">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19">
+      <c r="B28" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" s="25">
         <v>2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="25">
         <v>35</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="25">
         <v>104</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="17">
-      <c r="A29" s="19">
+    <row r="29" spans="1:8" ht="19">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19">
+      <c r="B29" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" s="25">
         <v>2</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="25">
         <v>35</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="25">
         <v>104</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="17">
-      <c r="A30" s="19">
+    <row r="30" spans="1:8" ht="19">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19">
+      <c r="B30" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D30" s="25">
         <v>2</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="25">
         <v>35</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="25">
         <v>104</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="34">
-      <c r="A31" s="19">
+    <row r="31" spans="1:8" ht="38">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19">
+      <c r="B31" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" s="25">
         <v>3</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="25">
         <v>37</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="25">
         <v>170</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="34">
-      <c r="A32" s="19">
+    <row r="32" spans="1:8" ht="38">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19">
+      <c r="B32" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D32" s="25">
         <v>2</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="25">
         <v>38</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="25">
         <v>106</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="51">
-      <c r="A33" s="19">
+    <row r="33" spans="1:8" ht="57">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19">
+      <c r="B33" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" s="25">
         <v>2</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="25">
         <v>40</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="25">
         <v>106</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="17">
-      <c r="A34" s="19">
+    <row r="34" spans="1:8" ht="19">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19">
+      <c r="B34" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D34" s="25">
         <v>2</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="25">
         <v>46</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="25">
         <v>109</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="17">
-      <c r="A35" s="19">
+    <row r="35" spans="1:8" ht="19">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19">
+      <c r="B35" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="25">
         <v>2</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="25">
         <v>47</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="25">
         <v>109</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="17">
-      <c r="A36" s="19">
+    <row r="36" spans="1:8" ht="19">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="B36" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D36" s="25">
+        <v>2</v>
+      </c>
+      <c r="E36" s="25">
+        <v>47</v>
+      </c>
+      <c r="F36" s="25">
+        <v>110</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="17">
-      <c r="A37" s="19">
+    <row r="37" spans="1:8" ht="19">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="B37" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D37" s="25">
+        <v>2</v>
+      </c>
+      <c r="E37" s="25">
+        <v>48</v>
+      </c>
+      <c r="F37" s="25">
+        <v>110</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="17">
-      <c r="A38" s="19">
+    <row r="38" spans="1:8" ht="19">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" s="25">
+        <v>2</v>
+      </c>
+      <c r="E38" s="25">
+        <v>49</v>
+      </c>
+      <c r="F38" s="25">
+        <v>110</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="17">
-      <c r="A39" s="19">
+    <row r="39" spans="1:8" ht="19">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="B39" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D39" s="25">
+        <v>3</v>
+      </c>
+      <c r="E39" s="25">
+        <v>59</v>
+      </c>
+      <c r="F39" s="25">
+        <v>178</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="17">
-      <c r="A40" s="19">
+    <row r="40" spans="1:8" ht="19">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="B40" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="25">
+        <v>3</v>
+      </c>
+      <c r="E40" s="25">
+        <v>64</v>
+      </c>
+      <c r="F40" s="25">
+        <v>180</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="51">
-      <c r="A41" s="19">
+    <row r="41" spans="1:8" ht="57">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="B41" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D41" s="25">
+        <v>3</v>
+      </c>
+      <c r="E41" s="25">
+        <v>75</v>
+      </c>
+      <c r="F41" s="25">
+        <v>184</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="34">
-      <c r="A42" s="19">
+    <row r="42" spans="1:8" ht="38">
+      <c r="A42" s="25">
         <v>41</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="B42" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="25">
+        <v>3</v>
+      </c>
+      <c r="E42" s="25">
+        <v>51</v>
+      </c>
+      <c r="F42" s="25">
+        <v>175</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="17">
-      <c r="A43" s="19">
+    <row r="43" spans="1:8" ht="19">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="B43" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" s="25">
+        <v>2</v>
+      </c>
+      <c r="E43" s="25">
+        <v>60</v>
+      </c>
+      <c r="F43" s="25">
+        <v>115</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="17">
-      <c r="A44" s="19">
+    <row r="44" spans="1:8" ht="19">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="B44" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="25">
+        <v>2</v>
+      </c>
+      <c r="E44" s="25">
+        <v>61</v>
+      </c>
+      <c r="F44" s="25">
+        <v>115</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="17">
-      <c r="A45" s="19">
+    <row r="45" spans="1:8" ht="19">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="B45" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" s="25">
+        <v>2</v>
+      </c>
+      <c r="E45" s="25">
+        <v>65</v>
+      </c>
+      <c r="F45" s="25">
+        <v>117</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="17">
-      <c r="A46" s="19">
+    <row r="46" spans="1:8" ht="19">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="B46" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D46" s="25">
+        <v>2</v>
+      </c>
+      <c r="E46" s="25">
+        <v>66</v>
+      </c>
+      <c r="F46" s="25">
+        <v>118</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="17">
-      <c r="A47" s="19">
+    <row r="47" spans="1:8" ht="19">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="B47" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D47" s="25">
+        <v>2</v>
+      </c>
+      <c r="E47" s="25">
+        <v>68</v>
+      </c>
+      <c r="F47" s="25">
+        <v>119</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="17">
-      <c r="A48" s="19">
+    <row r="48" spans="1:8" ht="19">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="B48" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="D48" s="25">
+        <v>2</v>
+      </c>
+      <c r="E48" s="25">
+        <v>73</v>
+      </c>
+      <c r="F48" s="25">
+        <v>121</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="17">
-      <c r="A49" s="19">
+    <row r="49" spans="1:8" ht="19">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="B49" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D49" s="25">
+        <v>2</v>
+      </c>
+      <c r="E49" s="25">
+        <v>76</v>
+      </c>
+      <c r="F49" s="25">
+        <v>122</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="17">
-      <c r="A50" s="19">
+    <row r="50" spans="1:8" ht="19">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="B50" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" s="25">
+        <v>2</v>
+      </c>
+      <c r="E50" s="25">
+        <v>77</v>
+      </c>
+      <c r="F50" s="25">
+        <v>122</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="17">
-      <c r="A51" s="19">
+    <row r="51" spans="1:8" ht="19">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="B51" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="D51" s="25">
+        <v>2</v>
+      </c>
+      <c r="E51" s="25">
+        <v>79</v>
+      </c>
+      <c r="F51" s="25">
+        <v>123</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="17">
-      <c r="A52" s="19">
+    <row r="52" spans="1:8" ht="19">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="B52" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D52" s="25">
+        <v>2</v>
+      </c>
+      <c r="E52" s="25">
+        <v>82</v>
+      </c>
+      <c r="F52" s="25">
+        <v>125</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="17">
-      <c r="A53" s="19">
+    <row r="53" spans="1:8" ht="19">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="B53" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D53" s="25">
+        <v>2</v>
+      </c>
+      <c r="E53" s="25">
+        <v>83</v>
+      </c>
+      <c r="F53" s="25">
+        <v>125</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="34">
-      <c r="A54" s="19">
+    <row r="54" spans="1:8" ht="38">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="B54" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D54" s="25">
+        <v>2</v>
+      </c>
+      <c r="E54" s="25">
+        <v>84</v>
+      </c>
+      <c r="F54" s="25">
+        <v>126</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="17">
-      <c r="A55" s="19">
+    <row r="55" spans="1:8" ht="19">
+      <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="B55" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D55" s="25">
+        <v>2</v>
+      </c>
+      <c r="E55" s="25">
+        <v>108</v>
+      </c>
+      <c r="F55" s="25">
+        <v>136</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="17">
-      <c r="A56" s="19">
+    <row r="56" spans="1:8" ht="19">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="B56" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="25">
+        <v>2</v>
+      </c>
+      <c r="E56" s="25">
+        <v>86</v>
+      </c>
+      <c r="F56" s="25">
+        <v>126</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="17">
-      <c r="A57" s="19">
+    <row r="57" spans="1:8" ht="19">
+      <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="B57" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" s="25">
+        <v>2</v>
+      </c>
+      <c r="E57" s="25">
+        <v>87</v>
+      </c>
+      <c r="F57" s="25">
+        <v>127</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="17">
-      <c r="A58" s="19">
+    <row r="58" spans="1:8" ht="19">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="B58" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" s="25">
+        <v>2</v>
+      </c>
+      <c r="E58" s="25">
+        <v>86</v>
+      </c>
+      <c r="F58" s="25">
+        <v>126</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="17">
-      <c r="A59" s="19">
+    <row r="59" spans="1:8" ht="19">
+      <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="B59" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="17">
-      <c r="A60" s="19">
+    <row r="60" spans="1:8" ht="19">
+      <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="B60" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" ht="17">
-      <c r="A61" s="19">
+    <row r="61" spans="1:8" ht="19">
+      <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="B61" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="17">
-      <c r="A62" s="19">
+    <row r="62" spans="1:8" ht="19">
+      <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="B62" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="68">
-      <c r="A63" s="19">
+    <row r="63" spans="1:8" ht="76">
+      <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="B63" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="17">
-      <c r="A64" s="19">
+    <row r="64" spans="1:8" ht="19">
+      <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="B64" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="68">
-      <c r="A65" s="19">
+    <row r="65" spans="1:8" ht="76">
+      <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="B65" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" ht="17">
-      <c r="A66" s="19">
+    <row r="66" spans="1:8" ht="19">
+      <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="B66" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="17">
-      <c r="A67" s="19">
+    <row r="67" spans="1:8" ht="19">
+      <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="B67" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="17">
-      <c r="A68" s="19">
+    <row r="68" spans="1:8" ht="19">
+      <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="B68" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="17">
-      <c r="A69" s="19">
+    <row r="69" spans="1:8" ht="19">
+      <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="B69" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" ht="17">
-      <c r="A70" s="19">
+    <row r="70" spans="1:8" ht="19">
+      <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="B70" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="17">
-      <c r="A71" s="19">
+    <row r="71" spans="1:8" ht="19">
+      <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="B71" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="17">
-      <c r="A72" s="19">
+    <row r="72" spans="1:8" ht="19">
+      <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="B72" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="17">
-      <c r="A73" s="19">
+    <row r="73" spans="1:8" ht="19">
+      <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="B73" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="68">
-      <c r="A74" s="19">
+    <row r="74" spans="1:8" ht="76">
+      <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="B74" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" ht="17">
-      <c r="A75" s="19">
+    <row r="75" spans="1:8" ht="19">
+      <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="B75" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" ht="17">
-      <c r="A76" s="19">
+    <row r="76" spans="1:8" ht="19">
+      <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
+      <c r="B76" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="17">
-      <c r="A77" s="19">
+    <row r="77" spans="1:8" ht="19">
+      <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
+      <c r="B77" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" ht="17">
-      <c r="A78" s="19">
+    <row r="78" spans="1:8" ht="19">
+      <c r="A78" s="25">
         <v>77</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
+      <c r="B78" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" ht="17">
-      <c r="A79" s="19">
+    <row r="79" spans="1:8" ht="19">
+      <c r="A79" s="25">
         <v>78</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
+      <c r="B79" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" ht="17">
-      <c r="A80" s="19">
+    <row r="80" spans="1:8" ht="19">
+      <c r="A80" s="25">
         <v>79</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+      <c r="B80" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="17">
-      <c r="A81" s="19">
+    <row r="81" spans="1:8" ht="19">
+      <c r="A81" s="25">
         <v>80</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="B81" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" ht="17">
-      <c r="A82" s="19">
+    <row r="82" spans="1:8" ht="19">
+      <c r="A82" s="25">
         <v>81</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
+      <c r="B82" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="17">
-      <c r="A83" s="19">
+    <row r="83" spans="1:8" ht="19">
+      <c r="A83" s="25">
         <v>82</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
+      <c r="B83" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" ht="34">
-      <c r="A84" s="19">
+    <row r="84" spans="1:8" ht="38">
+      <c r="A84" s="25">
         <v>83</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
+      <c r="B84" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" ht="17">
-      <c r="A85" s="19">
+    <row r="85" spans="1:8" ht="19">
+      <c r="A85" s="25">
         <v>84</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
+      <c r="B85" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" ht="17">
-      <c r="A86" s="19">
+    <row r="86" spans="1:8" ht="19">
+      <c r="A86" s="25">
         <v>85</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
+      <c r="B86" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" ht="17">
-      <c r="A87" s="19">
+    <row r="87" spans="1:8" ht="19">
+      <c r="A87" s="25">
         <v>86</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
+      <c r="B87" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" ht="17">
-      <c r="A88" s="19">
+    <row r="88" spans="1:8" ht="19">
+      <c r="A88" s="25">
         <v>87</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
+      <c r="B88" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" ht="17">
-      <c r="A89" s="19">
+    <row r="89" spans="1:8" ht="19">
+      <c r="A89" s="25">
         <v>88</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
+      <c r="B89" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" ht="17">
-      <c r="A90" s="19">
+    <row r="90" spans="1:8" ht="19">
+      <c r="A90" s="25">
         <v>89</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
+      <c r="B90" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" ht="17">
-      <c r="A91" s="19">
+    <row r="91" spans="1:8" ht="19">
+      <c r="A91" s="25">
         <v>90</v>
       </c>
-      <c r="B91" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
+      <c r="B91" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="34">
-      <c r="A92" s="19">
+    <row r="92" spans="1:8" ht="38">
+      <c r="A92" s="25">
         <v>91</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
+      <c r="B92" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" ht="17">
-      <c r="A93" s="19">
+    <row r="93" spans="1:8" ht="19">
+      <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
+      <c r="B93" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="17">
-      <c r="A94" s="19">
+    <row r="94" spans="1:8" ht="19">
+      <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
+      <c r="B94" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" ht="17">
-      <c r="A95" s="19">
+    <row r="95" spans="1:8" ht="19">
+      <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
+      <c r="B95" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="15"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="11"/>
       <c r="E96" s="17"/>
       <c r="F96" s="11"/>
@@ -7130,7 +7560,7 @@
     <row r="97" spans="1:8">
       <c r="A97" s="15"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="11"/>
       <c r="E97" s="17"/>
       <c r="F97" s="11"/>
@@ -7138,6 +7568,9 @@
       <c r="H97" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F95">
+    <sortCondition ref="A1:A95"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/出口日語/出口日语学习进度.xlsx
+++ b/出口日語/出口日语学习进度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihana/GitHub/Japanese/出口日語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6119913-1E77-3B45-B54E-1E6491F3784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A6896-C3F5-654E-BEE2-D88B8D1E1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="N1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'N2'!$A$1:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'N2'!$B$1:$G$95</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="495">
   <si>
     <t>～一方だ</t>
   </si>
@@ -1116,10 +1116,6 @@
   </si>
   <si>
     <t>～てください・～ないでください</t>
-  </si>
-  <si>
-    <t>顺序</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>明明…却</t>
@@ -1225,10 +1221,6 @@
   </si>
   <si>
     <t>～うか～まいか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（立場）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1617,17 +1609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="YuKyokasho Yoko Medium"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～あげく</t>
-    </r>
-  </si>
-  <si>
     <t>只要…就…</t>
   </si>
   <si>
@@ -1736,13 +1717,112 @@
   </si>
   <si>
     <t>…以来</t>
+  </si>
+  <si>
+    <t>一定；肯定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在…时候</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在…之前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>从…立場来看</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就…而言</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虽然…也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只不过是</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沿着；按照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～あげく</t>
+  </si>
+  <si>
+    <t>每当；无论</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正是；不外乎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暂且不说</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不必说</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省去；去掉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>经过…最后</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不仅…也…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不仅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只因为</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与其…不如…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不想…不会…吧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要…还是不要…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不顾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>总觉得…；感觉…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出级</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出顺</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,24 +1896,6 @@
       <name val="楷体-简 常规体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线 Light"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="YuKyokasho Yoko Medium"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="YuKyokasho Yoko Medium"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1843,7 +1905,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1866,24 +1928,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,13 +1996,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4307,7 +4353,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -4355,7 +4401,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -4379,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -4391,7 +4437,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4415,7 +4461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4427,7 +4473,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4463,7 +4509,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4559,7 +4605,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4655,7 +4701,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4667,7 +4713,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -4691,7 +4737,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -4727,7 +4773,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -4775,7 +4821,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -4787,7 +4833,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -4811,7 +4857,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>55</v>
@@ -4831,7 +4877,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19">
@@ -4903,7 +4949,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19">
@@ -5053,7 +5099,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>63</v>
@@ -5067,7 +5113,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>65</v>
@@ -5130,7 +5176,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D66" s="19">
         <v>3</v>
@@ -5147,7 +5193,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>68</v>
@@ -5167,7 +5213,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>69</v>
@@ -5207,7 +5253,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>71</v>
@@ -5267,7 +5313,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>74</v>
@@ -5287,7 +5333,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>75</v>
@@ -5307,7 +5353,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>76</v>
@@ -5327,7 +5373,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>77</v>
@@ -5347,7 +5393,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>78</v>
@@ -5367,7 +5413,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>79</v>
@@ -5387,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>80</v>
@@ -5407,7 +5453,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>81</v>
@@ -5427,10 +5473,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D81" s="19">
         <v>2</v>
@@ -5447,7 +5493,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>82</v>
@@ -5490,7 +5536,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D84" s="19">
         <v>3</v>
@@ -5567,7 +5613,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>87</v>
@@ -5590,7 +5636,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D89" s="19">
         <v>2</v>
@@ -5607,10 +5653,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D90" s="19">
         <v>3</v>
@@ -5627,10 +5673,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D91" s="19">
         <v>2</v>
@@ -5647,10 +5693,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D92" s="19">
         <v>3</v>
@@ -5667,10 +5713,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D93" s="19">
         <v>2</v>
@@ -5687,10 +5733,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D94" s="19">
         <v>2</v>
@@ -5707,10 +5753,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D95" s="19">
         <v>3</v>
@@ -5731,1845 +5777,2317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="26">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26">
+        <v>89</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="32">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2</v>
+      </c>
+      <c r="G3" s="26">
+        <v>89</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" s="26">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3</v>
+      </c>
+      <c r="G4" s="26">
+        <v>89</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5</v>
+      </c>
+      <c r="G5" s="26">
+        <v>158</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="16">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26">
+        <v>8</v>
+      </c>
+      <c r="G6" s="26">
+        <v>159</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="16">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="26">
+        <v>6</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>7</v>
+      </c>
+      <c r="G7" s="26">
+        <v>159</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" s="25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="26">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>4</v>
+      </c>
+      <c r="G8" s="26">
+        <v>90</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="16">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>5</v>
+      </c>
+      <c r="G9" s="26">
+        <v>90</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="25">
+        <v>2</v>
+      </c>
+      <c r="B10" s="26">
+        <v>9</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="26">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>6</v>
+      </c>
+      <c r="G10" s="26">
+        <v>90</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="25">
+        <v>2</v>
+      </c>
+      <c r="B11" s="26">
+        <v>10</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="26">
+        <v>9</v>
+      </c>
+      <c r="G11" s="26">
+        <v>92</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="16">
+      <c r="A12" s="25">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26">
+        <v>11</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>9</v>
+      </c>
+      <c r="G12" s="26">
+        <v>92</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="16">
+      <c r="A13" s="25">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="26">
+        <v>15</v>
+      </c>
+      <c r="G13" s="26">
+        <v>161</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="16">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="26">
+        <v>13</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>16</v>
+      </c>
+      <c r="G14" s="26">
+        <v>95</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="16">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="26">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26">
+        <v>16</v>
+      </c>
+      <c r="G15" s="26">
+        <v>96</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="16">
+      <c r="A16" s="25">
+        <v>2</v>
+      </c>
+      <c r="B16" s="26">
+        <v>15</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" s="26">
+        <v>2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>20</v>
+      </c>
+      <c r="G16" s="26">
+        <v>97</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="64">
+      <c r="A17" s="25">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26">
+        <v>16</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>20</v>
+      </c>
+      <c r="G17" s="26">
+        <v>97</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="32">
+      <c r="A18" s="25">
+        <v>2</v>
+      </c>
+      <c r="B18" s="26">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" s="26">
+        <v>2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>21</v>
+      </c>
+      <c r="G18" s="26">
+        <v>98</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="16">
+      <c r="A19" s="25">
+        <v>2</v>
+      </c>
+      <c r="B19" s="26">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2</v>
+      </c>
+      <c r="F19" s="26">
+        <v>24</v>
+      </c>
+      <c r="G19" s="26">
+        <v>99</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="48">
+      <c r="A20" s="25">
+        <v>2</v>
+      </c>
+      <c r="B20" s="26">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="26">
+        <v>2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>25</v>
+      </c>
+      <c r="G20" s="26">
+        <v>100</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="32">
+      <c r="A21" s="25">
+        <v>2</v>
+      </c>
+      <c r="B21" s="26">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="E21" s="26">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26">
+        <v>22</v>
+      </c>
+      <c r="G21" s="26">
+        <v>164</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="16">
+      <c r="A22" s="25">
+        <v>2</v>
+      </c>
+      <c r="B22" s="26">
+        <v>21</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2</v>
+      </c>
+      <c r="F22" s="26">
+        <v>26</v>
+      </c>
+      <c r="G22" s="26">
+        <v>100</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="16">
+      <c r="A23" s="25">
+        <v>2</v>
+      </c>
+      <c r="B23" s="26">
+        <v>22</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E23" s="26">
+        <v>3</v>
+      </c>
+      <c r="F23" s="26">
+        <v>27</v>
+      </c>
+      <c r="G23" s="26">
+        <v>166</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="16">
+      <c r="A24" s="25">
+        <v>2</v>
+      </c>
+      <c r="B24" s="26">
+        <v>23</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="26">
+        <v>3</v>
+      </c>
+      <c r="F24" s="26">
+        <v>25</v>
+      </c>
+      <c r="G24" s="26">
+        <v>165</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="16">
+      <c r="A25" s="25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="26">
+        <v>24</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="26">
+        <v>2</v>
+      </c>
+      <c r="F25" s="26">
+        <v>29</v>
+      </c>
+      <c r="G25" s="26">
+        <v>101</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="16">
+      <c r="A26" s="25">
+        <v>2</v>
+      </c>
+      <c r="B26" s="26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E26" s="26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="26">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26">
+        <v>166</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="16">
+      <c r="A27" s="25">
+        <v>2</v>
+      </c>
+      <c r="B27" s="26">
+        <v>26</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E27" s="26">
+        <v>2</v>
+      </c>
+      <c r="F27" s="26">
+        <v>34</v>
+      </c>
+      <c r="G27" s="26">
+        <v>103</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="16">
+      <c r="A28" s="25">
+        <v>2</v>
+      </c>
+      <c r="B28" s="26">
+        <v>27</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" s="26">
+        <v>2</v>
+      </c>
+      <c r="F28" s="26">
+        <v>35</v>
+      </c>
+      <c r="G28" s="26">
+        <v>104</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="16">
+      <c r="A29" s="25">
+        <v>2</v>
+      </c>
+      <c r="B29" s="26">
+        <v>28</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" s="26">
+        <v>2</v>
+      </c>
+      <c r="F29" s="26">
+        <v>35</v>
+      </c>
+      <c r="G29" s="26">
+        <v>104</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="16">
+      <c r="A30" s="25">
+        <v>2</v>
+      </c>
+      <c r="B30" s="26">
+        <v>29</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" s="26">
+        <v>2</v>
+      </c>
+      <c r="F30" s="26">
+        <v>35</v>
+      </c>
+      <c r="G30" s="26">
+        <v>104</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="32">
+      <c r="A31" s="25">
+        <v>2</v>
+      </c>
+      <c r="B31" s="26">
+        <v>30</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="26">
+        <v>3</v>
+      </c>
+      <c r="F31" s="26">
+        <v>37</v>
+      </c>
+      <c r="G31" s="26">
+        <v>170</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="32">
+      <c r="A32" s="25">
+        <v>2</v>
+      </c>
+      <c r="B32" s="26">
+        <v>31</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" s="26">
+        <v>2</v>
+      </c>
+      <c r="F32" s="26">
+        <v>38</v>
+      </c>
+      <c r="G32" s="26">
+        <v>106</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="48">
+      <c r="A33" s="25">
+        <v>2</v>
+      </c>
+      <c r="B33" s="26">
+        <v>32</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E33" s="26">
+        <v>2</v>
+      </c>
+      <c r="F33" s="26">
+        <v>40</v>
+      </c>
+      <c r="G33" s="26">
+        <v>106</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="16">
+      <c r="A34" s="25">
+        <v>2</v>
+      </c>
+      <c r="B34" s="26">
+        <v>33</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="E34" s="26">
+        <v>2</v>
+      </c>
+      <c r="F34" s="26">
+        <v>46</v>
+      </c>
+      <c r="G34" s="26">
+        <v>109</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="16">
+      <c r="A35" s="25">
+        <v>2</v>
+      </c>
+      <c r="B35" s="26">
+        <v>34</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E35" s="26">
+        <v>2</v>
+      </c>
+      <c r="F35" s="26">
+        <v>47</v>
+      </c>
+      <c r="G35" s="26">
+        <v>109</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="16">
+      <c r="A36" s="25">
+        <v>2</v>
+      </c>
+      <c r="B36" s="26">
+        <v>35</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E36" s="26">
+        <v>2</v>
+      </c>
+      <c r="F36" s="26">
+        <v>47</v>
+      </c>
+      <c r="G36" s="26">
+        <v>110</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="16">
+      <c r="A37" s="25">
+        <v>2</v>
+      </c>
+      <c r="B37" s="26">
+        <v>36</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E37" s="26">
+        <v>2</v>
+      </c>
+      <c r="F37" s="26">
+        <v>48</v>
+      </c>
+      <c r="G37" s="26">
+        <v>110</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="16">
+      <c r="A38" s="25">
+        <v>2</v>
+      </c>
+      <c r="B38" s="26">
+        <v>37</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="26">
+        <v>2</v>
+      </c>
+      <c r="F38" s="26">
+        <v>49</v>
+      </c>
+      <c r="G38" s="26">
+        <v>110</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="16">
+      <c r="A39" s="25">
+        <v>2</v>
+      </c>
+      <c r="B39" s="26">
+        <v>38</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39" s="26">
+        <v>3</v>
+      </c>
+      <c r="F39" s="26">
+        <v>59</v>
+      </c>
+      <c r="G39" s="26">
+        <v>178</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="16">
+      <c r="A40" s="25">
+        <v>2</v>
+      </c>
+      <c r="B40" s="26">
+        <v>39</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="26">
+        <v>3</v>
+      </c>
+      <c r="F40" s="26">
+        <v>64</v>
+      </c>
+      <c r="G40" s="26">
+        <v>180</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="48">
+      <c r="A41" s="25">
+        <v>2</v>
+      </c>
+      <c r="B41" s="26">
+        <v>40</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="E41" s="26">
+        <v>3</v>
+      </c>
+      <c r="F41" s="26">
+        <v>75</v>
+      </c>
+      <c r="G41" s="26">
+        <v>184</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="32">
+      <c r="A42" s="25">
+        <v>2</v>
+      </c>
+      <c r="B42" s="26">
+        <v>41</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" s="26">
+        <v>3</v>
+      </c>
+      <c r="F42" s="26">
+        <v>51</v>
+      </c>
+      <c r="G42" s="26">
+        <v>175</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="16">
+      <c r="A43" s="25">
+        <v>2</v>
+      </c>
+      <c r="B43" s="26">
+        <v>42</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E43" s="26">
+        <v>2</v>
+      </c>
+      <c r="F43" s="26">
+        <v>60</v>
+      </c>
+      <c r="G43" s="26">
+        <v>115</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="16">
+      <c r="A44" s="25">
+        <v>2</v>
+      </c>
+      <c r="B44" s="26">
+        <v>43</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="26">
+        <v>2</v>
+      </c>
+      <c r="F44" s="26">
+        <v>61</v>
+      </c>
+      <c r="G44" s="26">
+        <v>115</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="16">
+      <c r="A45" s="25">
+        <v>2</v>
+      </c>
+      <c r="B45" s="26">
+        <v>44</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="E45" s="26">
+        <v>2</v>
+      </c>
+      <c r="F45" s="26">
+        <v>65</v>
+      </c>
+      <c r="G45" s="26">
+        <v>117</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="16">
+      <c r="A46" s="25">
+        <v>2</v>
+      </c>
+      <c r="B46" s="26">
+        <v>45</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="E46" s="26">
+        <v>2</v>
+      </c>
+      <c r="F46" s="26">
+        <v>66</v>
+      </c>
+      <c r="G46" s="26">
+        <v>118</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="16">
+      <c r="A47" s="25">
+        <v>2</v>
+      </c>
+      <c r="B47" s="26">
+        <v>46</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E47" s="26">
+        <v>2</v>
+      </c>
+      <c r="F47" s="26">
+        <v>68</v>
+      </c>
+      <c r="G47" s="26">
+        <v>119</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="16">
+      <c r="A48" s="25">
+        <v>2</v>
+      </c>
+      <c r="B48" s="26">
+        <v>47</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E48" s="26">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26">
+        <v>73</v>
+      </c>
+      <c r="G48" s="26">
+        <v>121</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="16">
+      <c r="A49" s="25">
+        <v>2</v>
+      </c>
+      <c r="B49" s="26">
+        <v>48</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="E49" s="26">
+        <v>2</v>
+      </c>
+      <c r="F49" s="26">
+        <v>76</v>
+      </c>
+      <c r="G49" s="26">
+        <v>122</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="16">
+      <c r="A50" s="25">
+        <v>2</v>
+      </c>
+      <c r="B50" s="26">
+        <v>49</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E50" s="26">
+        <v>2</v>
+      </c>
+      <c r="F50" s="26">
+        <v>77</v>
+      </c>
+      <c r="G50" s="26">
+        <v>122</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="16">
+      <c r="A51" s="25">
+        <v>2</v>
+      </c>
+      <c r="B51" s="26">
         <v>50</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C51" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E51" s="26">
+        <v>2</v>
+      </c>
+      <c r="F51" s="26">
+        <v>79</v>
+      </c>
+      <c r="G51" s="26">
+        <v>123</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="16">
+      <c r="A52" s="25">
+        <v>2</v>
+      </c>
+      <c r="B52" s="26">
         <v>51</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="C52" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="E52" s="26">
+        <v>2</v>
+      </c>
+      <c r="F52" s="26">
+        <v>82</v>
+      </c>
+      <c r="G52" s="26">
+        <v>125</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="16">
+      <c r="A53" s="25">
+        <v>2</v>
+      </c>
+      <c r="B53" s="26">
         <v>52</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="C53" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="E53" s="26">
+        <v>2</v>
+      </c>
+      <c r="F53" s="26">
+        <v>83</v>
+      </c>
+      <c r="G53" s="26">
+        <v>125</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="32">
+      <c r="A54" s="25">
+        <v>2</v>
+      </c>
+      <c r="B54" s="26">
         <v>53</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="C54" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="E54" s="26">
+        <v>2</v>
+      </c>
+      <c r="F54" s="26">
+        <v>84</v>
+      </c>
+      <c r="G54" s="26">
+        <v>126</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="16">
+      <c r="A55" s="25">
+        <v>2</v>
+      </c>
+      <c r="B55" s="26">
         <v>54</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="19">
-      <c r="A2" s="25">
+      <c r="C55" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E55" s="26">
+        <v>2</v>
+      </c>
+      <c r="F55" s="26">
+        <v>108</v>
+      </c>
+      <c r="G55" s="26">
+        <v>136</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="16">
+      <c r="A56" s="25">
+        <v>2</v>
+      </c>
+      <c r="B56" s="26">
+        <v>55</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="E56" s="26">
+        <v>2</v>
+      </c>
+      <c r="F56" s="26">
+        <v>86</v>
+      </c>
+      <c r="G56" s="26">
+        <v>126</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="16">
+      <c r="A57" s="25">
+        <v>2</v>
+      </c>
+      <c r="B57" s="26">
+        <v>56</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="E57" s="26">
+        <v>2</v>
+      </c>
+      <c r="F57" s="26">
+        <v>87</v>
+      </c>
+      <c r="G57" s="26">
+        <v>127</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="16">
+      <c r="A58" s="25">
+        <v>2</v>
+      </c>
+      <c r="B58" s="26">
+        <v>57</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E58" s="26">
+        <v>2</v>
+      </c>
+      <c r="F58" s="26">
+        <v>86</v>
+      </c>
+      <c r="G58" s="26">
+        <v>126</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="16">
+      <c r="A59" s="25">
+        <v>2</v>
+      </c>
+      <c r="B59" s="26">
+        <v>58</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="26">
+        <v>3</v>
+      </c>
+      <c r="F59" s="26">
+        <v>91</v>
+      </c>
+      <c r="G59" s="26">
+        <v>191</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="16">
+      <c r="A60" s="25">
+        <v>2</v>
+      </c>
+      <c r="B60" s="26">
+        <v>59</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="E60" s="26">
+        <v>2</v>
+      </c>
+      <c r="F60" s="26">
+        <v>100</v>
+      </c>
+      <c r="G60" s="26">
+        <v>133</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="16">
+      <c r="A61" s="25">
+        <v>2</v>
+      </c>
+      <c r="B61" s="26">
+        <v>60</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="E61" s="26">
+        <v>2</v>
+      </c>
+      <c r="F61" s="26">
+        <v>93</v>
+      </c>
+      <c r="G61" s="26">
+        <v>129</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="16">
+      <c r="A62" s="25">
+        <v>2</v>
+      </c>
+      <c r="B62" s="26">
+        <v>61</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="E62" s="26">
+        <v>2</v>
+      </c>
+      <c r="F62" s="26">
+        <v>94</v>
+      </c>
+      <c r="G62" s="26">
+        <v>130</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="64">
+      <c r="A63" s="25">
+        <v>2</v>
+      </c>
+      <c r="B63" s="26">
+        <v>62</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E63" s="26">
+        <v>2</v>
+      </c>
+      <c r="F63" s="26">
+        <v>96</v>
+      </c>
+      <c r="G63" s="26">
+        <v>131</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="16">
+      <c r="A64" s="25">
+        <v>2</v>
+      </c>
+      <c r="B64" s="26">
+        <v>63</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="E64" s="26">
+        <v>2</v>
+      </c>
+      <c r="F64" s="26">
+        <v>97</v>
+      </c>
+      <c r="G64" s="26">
+        <v>131</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="64">
+      <c r="A65" s="25">
+        <v>2</v>
+      </c>
+      <c r="B65" s="26">
+        <v>64</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="E65" s="26">
+        <v>2</v>
+      </c>
+      <c r="F65" s="26">
+        <v>98</v>
+      </c>
+      <c r="G65" s="26">
+        <v>131</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="16">
+      <c r="A66" s="25">
+        <v>2</v>
+      </c>
+      <c r="B66" s="26">
+        <v>65</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="26">
+        <v>2</v>
+      </c>
+      <c r="F66" s="26">
+        <v>99</v>
+      </c>
+      <c r="G66" s="26">
+        <v>132</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="16">
+      <c r="A67" s="25">
+        <v>2</v>
+      </c>
+      <c r="B67" s="26">
+        <v>66</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="E67" s="26">
+        <v>2</v>
+      </c>
+      <c r="F67" s="26">
+        <v>100</v>
+      </c>
+      <c r="G67" s="26">
+        <v>133</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="16">
+      <c r="A68" s="25">
+        <v>2</v>
+      </c>
+      <c r="B68" s="26">
+        <v>67</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E68" s="26">
+        <v>2</v>
+      </c>
+      <c r="F68" s="26">
+        <v>104</v>
+      </c>
+      <c r="G68" s="26">
+        <v>134</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="16">
+      <c r="A69" s="25">
+        <v>2</v>
+      </c>
+      <c r="B69" s="26">
+        <v>68</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="26">
+        <v>2</v>
+      </c>
+      <c r="F69" s="26">
+        <v>105</v>
+      </c>
+      <c r="G69" s="26">
+        <v>135</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="16">
+      <c r="A70" s="25">
+        <v>2</v>
+      </c>
+      <c r="B70" s="26">
+        <v>69</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="E70" s="26">
+        <v>2</v>
+      </c>
+      <c r="F70" s="26">
+        <v>107</v>
+      </c>
+      <c r="G70" s="26">
+        <v>136</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="16">
+      <c r="A71" s="25">
+        <v>2</v>
+      </c>
+      <c r="B71" s="26">
+        <v>70</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="E71" s="26">
+        <v>2</v>
+      </c>
+      <c r="F71" s="26">
+        <v>109</v>
+      </c>
+      <c r="G71" s="26">
+        <v>137</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="16">
+      <c r="A72" s="25">
+        <v>2</v>
+      </c>
+      <c r="B72" s="26">
+        <v>71</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="E72" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="25">
-        <v>2</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="F72" s="26">
+        <v>152</v>
+      </c>
+      <c r="G72" s="26">
+        <v>67</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" ht="16">
+      <c r="A73" s="25">
+        <v>2</v>
+      </c>
+      <c r="B73" s="26">
+        <v>72</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" s="26">
+        <v>2</v>
+      </c>
+      <c r="F73" s="26">
+        <v>120</v>
+      </c>
+      <c r="G73" s="26">
+        <v>141</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="64">
+      <c r="A74" s="25">
+        <v>2</v>
+      </c>
+      <c r="B74" s="26">
+        <v>73</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="E74" s="26">
+        <v>2</v>
+      </c>
+      <c r="F74" s="26">
+        <v>111</v>
+      </c>
+      <c r="G74" s="26">
+        <v>137</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="16">
+      <c r="A75" s="25">
+        <v>2</v>
+      </c>
+      <c r="B75" s="26">
+        <v>74</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E75" s="26">
+        <v>2</v>
+      </c>
+      <c r="F75" s="26">
+        <v>36</v>
+      </c>
+      <c r="G75" s="26">
+        <v>105</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="16">
+      <c r="A76" s="25">
+        <v>2</v>
+      </c>
+      <c r="B76" s="26">
+        <v>75</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="E76" s="26">
+        <v>2</v>
+      </c>
+      <c r="F76" s="26">
+        <v>114</v>
+      </c>
+      <c r="G76" s="26">
+        <v>138</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="16">
+      <c r="A77" s="25">
+        <v>2</v>
+      </c>
+      <c r="B77" s="26">
+        <v>76</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="E77" s="26">
+        <v>2</v>
+      </c>
+      <c r="F77" s="26">
+        <v>116</v>
+      </c>
+      <c r="G77" s="26">
+        <v>139</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="16">
+      <c r="A78" s="25">
+        <v>2</v>
+      </c>
+      <c r="B78" s="26">
+        <v>77</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="E78" s="26">
+        <v>2</v>
+      </c>
+      <c r="F78" s="26">
+        <v>117</v>
+      </c>
+      <c r="G78" s="26">
+        <v>140</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="16">
+      <c r="A79" s="25">
+        <v>2</v>
+      </c>
+      <c r="B79" s="26">
+        <v>78</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="16">
+      <c r="A80" s="25">
+        <v>2</v>
+      </c>
+      <c r="B80" s="26">
+        <v>79</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="E80" s="26">
+        <v>2</v>
+      </c>
+      <c r="F80" s="26">
+        <v>123</v>
+      </c>
+      <c r="G80" s="26">
+        <v>142</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" ht="16">
+      <c r="A81" s="25">
+        <v>2</v>
+      </c>
+      <c r="B81" s="26">
+        <v>80</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="16">
+      <c r="A82" s="25">
+        <v>2</v>
+      </c>
+      <c r="B82" s="26">
+        <v>81</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="E82" s="26">
+        <v>2</v>
+      </c>
+      <c r="F82" s="26">
+        <v>125</v>
+      </c>
+      <c r="G82" s="26">
+        <v>143</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="16">
+      <c r="A83" s="25">
+        <v>2</v>
+      </c>
+      <c r="B83" s="26">
+        <v>82</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="E83" s="26">
+        <v>2</v>
+      </c>
+      <c r="F83" s="26">
+        <v>129</v>
+      </c>
+      <c r="G83" s="26">
+        <v>145</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="32">
+      <c r="A84" s="25">
+        <v>2</v>
+      </c>
+      <c r="B84" s="26">
+        <v>83</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="16">
+      <c r="A85" s="25">
+        <v>2</v>
+      </c>
+      <c r="B85" s="26">
+        <v>84</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="16">
+      <c r="A86" s="25">
+        <v>2</v>
+      </c>
+      <c r="B86" s="26">
+        <v>85</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="16">
+      <c r="A87" s="25">
+        <v>2</v>
+      </c>
+      <c r="B87" s="26">
+        <v>86</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="16">
+      <c r="A88" s="25">
+        <v>2</v>
+      </c>
+      <c r="B88" s="26">
+        <v>87</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="16">
+      <c r="A89" s="25">
+        <v>2</v>
+      </c>
+      <c r="B89" s="26">
+        <v>88</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" ht="16">
+      <c r="A90" s="25">
+        <v>2</v>
+      </c>
+      <c r="B90" s="26">
         <v>89</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="38">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="25">
-        <v>2</v>
-      </c>
-      <c r="E3" s="25">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25">
-        <v>89</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D4" s="25">
-        <v>2</v>
-      </c>
-      <c r="E4" s="25">
-        <v>3</v>
-      </c>
-      <c r="F4" s="25">
-        <v>89</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="19">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="25">
-        <v>3</v>
-      </c>
-      <c r="E5" s="25">
-        <v>5</v>
-      </c>
-      <c r="F5" s="25">
-        <v>158</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="19">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="25">
-        <v>3</v>
-      </c>
-      <c r="E6" s="25">
-        <v>8</v>
-      </c>
-      <c r="F6" s="25">
-        <v>159</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D7" s="25">
-        <v>3</v>
-      </c>
-      <c r="E7" s="25">
-        <v>7</v>
-      </c>
-      <c r="F7" s="25">
-        <v>159</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="25">
-        <v>2</v>
-      </c>
-      <c r="E8" s="25">
-        <v>4</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="C90" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="16">
+      <c r="A91" s="25">
+        <v>2</v>
+      </c>
+      <c r="B91" s="26">
         <v>90</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="25">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5</v>
-      </c>
-      <c r="F9" s="25">
-        <v>90</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="19">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="D10" s="25">
-        <v>2</v>
-      </c>
-      <c r="E10" s="25">
-        <v>6</v>
-      </c>
-      <c r="F10" s="25">
-        <v>90</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="19">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D11" s="25">
-        <v>2</v>
-      </c>
-      <c r="E11" s="25">
-        <v>9</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="C91" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="32">
+      <c r="A92" s="25">
+        <v>2</v>
+      </c>
+      <c r="B92" s="26">
+        <v>91</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="16">
+      <c r="A93" s="25">
+        <v>2</v>
+      </c>
+      <c r="B93" s="26">
         <v>92</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="19">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="D12" s="25">
-        <v>2</v>
-      </c>
-      <c r="E12" s="25">
-        <v>9</v>
-      </c>
-      <c r="F12" s="25">
-        <v>92</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="19">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D13" s="25">
-        <v>3</v>
-      </c>
-      <c r="E13" s="25">
-        <v>15</v>
-      </c>
-      <c r="F13" s="25">
-        <v>161</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="19">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D14" s="25">
-        <v>2</v>
-      </c>
-      <c r="E14" s="25">
-        <v>16</v>
-      </c>
-      <c r="F14" s="25">
-        <v>95</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="19">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="D15" s="25">
-        <v>2</v>
-      </c>
-      <c r="E15" s="25">
-        <v>16</v>
-      </c>
-      <c r="F15" s="25">
-        <v>96</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="19">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D16" s="25">
-        <v>2</v>
-      </c>
-      <c r="E16" s="25">
-        <v>20</v>
-      </c>
-      <c r="F16" s="25">
-        <v>97</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="76">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D17" s="25">
-        <v>2</v>
-      </c>
-      <c r="E17" s="25">
-        <v>20</v>
-      </c>
-      <c r="F17" s="25">
-        <v>97</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="38">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="D18" s="25">
-        <v>2</v>
-      </c>
-      <c r="E18" s="25">
-        <v>21</v>
-      </c>
-      <c r="F18" s="25">
-        <v>98</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="19">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D19" s="25">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25">
-        <v>24</v>
-      </c>
-      <c r="F19" s="25">
-        <v>99</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="51">
-      <c r="A20" s="25">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D20" s="25">
-        <v>2</v>
-      </c>
-      <c r="E20" s="25">
-        <v>25</v>
-      </c>
-      <c r="F20" s="25">
-        <v>100</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="38">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D21" s="25">
-        <v>3</v>
-      </c>
-      <c r="E21" s="25">
-        <v>22</v>
-      </c>
-      <c r="F21" s="25">
-        <v>164</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="19">
-      <c r="A22" s="25">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="25">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25">
-        <v>26</v>
-      </c>
-      <c r="F22" s="25">
-        <v>100</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="19">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D23" s="25">
-        <v>3</v>
-      </c>
-      <c r="E23" s="25">
-        <v>27</v>
-      </c>
-      <c r="F23" s="25">
-        <v>166</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="19">
-      <c r="A24" s="25">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="D24" s="25">
-        <v>3</v>
-      </c>
-      <c r="E24" s="25">
-        <v>25</v>
-      </c>
-      <c r="F24" s="25">
-        <v>165</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="19">
-      <c r="A25" s="25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="D25" s="25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="25">
-        <v>29</v>
-      </c>
-      <c r="F25" s="25">
-        <v>101</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="19">
-      <c r="A26" s="25">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="25">
-        <v>3</v>
-      </c>
-      <c r="E26" s="25">
-        <v>28</v>
-      </c>
-      <c r="F26" s="25">
-        <v>166</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="19">
-      <c r="A27" s="25">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D27" s="25">
-        <v>2</v>
-      </c>
-      <c r="E27" s="25">
-        <v>34</v>
-      </c>
-      <c r="F27" s="25">
-        <v>103</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="19">
-      <c r="A28" s="25">
-        <v>27</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="25">
-        <v>2</v>
-      </c>
-      <c r="E28" s="25">
-        <v>35</v>
-      </c>
-      <c r="F28" s="25">
-        <v>104</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="19">
-      <c r="A29" s="25">
-        <v>28</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D29" s="25">
-        <v>2</v>
-      </c>
-      <c r="E29" s="25">
-        <v>35</v>
-      </c>
-      <c r="F29" s="25">
-        <v>104</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="19">
-      <c r="A30" s="25">
-        <v>29</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D30" s="25">
-        <v>2</v>
-      </c>
-      <c r="E30" s="25">
-        <v>35</v>
-      </c>
-      <c r="F30" s="25">
-        <v>104</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="38">
-      <c r="A31" s="25">
-        <v>30</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="D31" s="25">
-        <v>3</v>
-      </c>
-      <c r="E31" s="25">
-        <v>37</v>
-      </c>
-      <c r="F31" s="25">
-        <v>170</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="38">
-      <c r="A32" s="25">
-        <v>31</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D32" s="25">
-        <v>2</v>
-      </c>
-      <c r="E32" s="25">
-        <v>38</v>
-      </c>
-      <c r="F32" s="25">
-        <v>106</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="57">
-      <c r="A33" s="25">
-        <v>32</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="D33" s="25">
-        <v>2</v>
-      </c>
-      <c r="E33" s="25">
-        <v>40</v>
-      </c>
-      <c r="F33" s="25">
-        <v>106</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="19">
-      <c r="A34" s="25">
-        <v>33</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="D34" s="25">
-        <v>2</v>
-      </c>
-      <c r="E34" s="25">
-        <v>46</v>
-      </c>
-      <c r="F34" s="25">
-        <v>109</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="19">
-      <c r="A35" s="25">
-        <v>34</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="D35" s="25">
-        <v>2</v>
-      </c>
-      <c r="E35" s="25">
-        <v>47</v>
-      </c>
-      <c r="F35" s="25">
-        <v>109</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="19">
-      <c r="A36" s="25">
-        <v>35</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D36" s="25">
-        <v>2</v>
-      </c>
-      <c r="E36" s="25">
-        <v>47</v>
-      </c>
-      <c r="F36" s="25">
-        <v>110</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="19">
-      <c r="A37" s="25">
-        <v>36</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D37" s="25">
-        <v>2</v>
-      </c>
-      <c r="E37" s="25">
-        <v>48</v>
-      </c>
-      <c r="F37" s="25">
-        <v>110</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="19">
-      <c r="A38" s="25">
-        <v>37</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D38" s="25">
-        <v>2</v>
-      </c>
-      <c r="E38" s="25">
-        <v>49</v>
-      </c>
-      <c r="F38" s="25">
-        <v>110</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="19">
-      <c r="A39" s="25">
-        <v>38</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="D39" s="25">
-        <v>3</v>
-      </c>
-      <c r="E39" s="25">
-        <v>59</v>
-      </c>
-      <c r="F39" s="25">
-        <v>178</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="19">
-      <c r="A40" s="25">
-        <v>39</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D40" s="25">
-        <v>3</v>
-      </c>
-      <c r="E40" s="25">
-        <v>64</v>
-      </c>
-      <c r="F40" s="25">
-        <v>180</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="57">
-      <c r="A41" s="25">
-        <v>40</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="D41" s="25">
-        <v>3</v>
-      </c>
-      <c r="E41" s="25">
-        <v>75</v>
-      </c>
-      <c r="F41" s="25">
-        <v>184</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="38">
-      <c r="A42" s="25">
-        <v>41</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="D42" s="25">
-        <v>3</v>
-      </c>
-      <c r="E42" s="25">
-        <v>51</v>
-      </c>
-      <c r="F42" s="25">
-        <v>175</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="19">
-      <c r="A43" s="25">
-        <v>42</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D43" s="25">
-        <v>2</v>
-      </c>
-      <c r="E43" s="25">
-        <v>60</v>
-      </c>
-      <c r="F43" s="25">
-        <v>115</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="19">
-      <c r="A44" s="25">
-        <v>43</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="25">
-        <v>2</v>
-      </c>
-      <c r="E44" s="25">
-        <v>61</v>
-      </c>
-      <c r="F44" s="25">
-        <v>115</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="19">
-      <c r="A45" s="25">
-        <v>44</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" s="25">
-        <v>2</v>
-      </c>
-      <c r="E45" s="25">
-        <v>65</v>
-      </c>
-      <c r="F45" s="25">
-        <v>117</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="19">
-      <c r="A46" s="25">
-        <v>45</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="D46" s="25">
-        <v>2</v>
-      </c>
-      <c r="E46" s="25">
-        <v>66</v>
-      </c>
-      <c r="F46" s="25">
-        <v>118</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="19">
-      <c r="A47" s="25">
-        <v>46</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D47" s="25">
-        <v>2</v>
-      </c>
-      <c r="E47" s="25">
-        <v>68</v>
-      </c>
-      <c r="F47" s="25">
-        <v>119</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="19">
-      <c r="A48" s="25">
-        <v>47</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="D48" s="25">
-        <v>2</v>
-      </c>
-      <c r="E48" s="25">
-        <v>73</v>
-      </c>
-      <c r="F48" s="25">
-        <v>121</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="19">
-      <c r="A49" s="25">
-        <v>48</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D49" s="25">
-        <v>2</v>
-      </c>
-      <c r="E49" s="25">
-        <v>76</v>
-      </c>
-      <c r="F49" s="25">
-        <v>122</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="19">
-      <c r="A50" s="25">
-        <v>49</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D50" s="25">
-        <v>2</v>
-      </c>
-      <c r="E50" s="25">
-        <v>77</v>
-      </c>
-      <c r="F50" s="25">
-        <v>122</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" ht="19">
-      <c r="A51" s="25">
-        <v>50</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="D51" s="25">
-        <v>2</v>
-      </c>
-      <c r="E51" s="25">
-        <v>79</v>
-      </c>
-      <c r="F51" s="25">
-        <v>123</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" ht="19">
-      <c r="A52" s="25">
-        <v>51</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="D52" s="25">
-        <v>2</v>
-      </c>
-      <c r="E52" s="25">
-        <v>82</v>
-      </c>
-      <c r="F52" s="25">
-        <v>125</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="19">
-      <c r="A53" s="25">
-        <v>52</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="D53" s="25">
-        <v>2</v>
-      </c>
-      <c r="E53" s="25">
-        <v>83</v>
-      </c>
-      <c r="F53" s="25">
-        <v>125</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" ht="38">
-      <c r="A54" s="25">
-        <v>53</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D54" s="25">
-        <v>2</v>
-      </c>
-      <c r="E54" s="25">
-        <v>84</v>
-      </c>
-      <c r="F54" s="25">
-        <v>126</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" ht="19">
-      <c r="A55" s="25">
-        <v>54</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D55" s="25">
-        <v>2</v>
-      </c>
-      <c r="E55" s="25">
-        <v>108</v>
-      </c>
-      <c r="F55" s="25">
-        <v>136</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" ht="19">
-      <c r="A56" s="25">
-        <v>55</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="D56" s="25">
-        <v>2</v>
-      </c>
-      <c r="E56" s="25">
-        <v>86</v>
-      </c>
-      <c r="F56" s="25">
-        <v>126</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" ht="19">
-      <c r="A57" s="25">
-        <v>56</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="D57" s="25">
-        <v>2</v>
-      </c>
-      <c r="E57" s="25">
-        <v>87</v>
-      </c>
-      <c r="F57" s="25">
-        <v>127</v>
-      </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" ht="19">
-      <c r="A58" s="25">
-        <v>57</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D58" s="25">
-        <v>2</v>
-      </c>
-      <c r="E58" s="25">
-        <v>86</v>
-      </c>
-      <c r="F58" s="25">
-        <v>126</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" ht="19">
-      <c r="A59" s="25">
-        <v>58</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" ht="19">
-      <c r="A60" s="25">
-        <v>59</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" ht="19">
-      <c r="A61" s="25">
-        <v>60</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" ht="19">
-      <c r="A62" s="25">
-        <v>61</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" ht="76">
-      <c r="A63" s="25">
-        <v>62</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" ht="19">
-      <c r="A64" s="25">
-        <v>63</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="76">
-      <c r="A65" s="25">
-        <v>64</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" ht="19">
-      <c r="A66" s="25">
-        <v>65</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" ht="19">
-      <c r="A67" s="25">
-        <v>66</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" ht="19">
-      <c r="A68" s="25">
-        <v>67</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" ht="19">
-      <c r="A69" s="25">
-        <v>68</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" ht="19">
-      <c r="A70" s="25">
-        <v>69</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" ht="19">
-      <c r="A71" s="25">
-        <v>70</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" ht="19">
-      <c r="A72" s="25">
-        <v>71</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" ht="19">
-      <c r="A73" s="25">
-        <v>72</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" ht="76">
-      <c r="A74" s="25">
-        <v>73</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" ht="19">
-      <c r="A75" s="25">
-        <v>74</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" ht="19">
-      <c r="A76" s="25">
-        <v>75</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" ht="19">
-      <c r="A77" s="25">
-        <v>76</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" ht="19">
-      <c r="A78" s="25">
-        <v>77</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" ht="19">
-      <c r="A79" s="25">
-        <v>78</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" ht="19">
-      <c r="A80" s="25">
-        <v>79</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" ht="19">
-      <c r="A81" s="25">
-        <v>80</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" ht="19">
-      <c r="A82" s="25">
-        <v>81</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" ht="19">
-      <c r="A83" s="25">
-        <v>82</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" ht="38">
-      <c r="A84" s="25">
-        <v>83</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="19">
-      <c r="A85" s="25">
-        <v>84</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" ht="19">
-      <c r="A86" s="25">
-        <v>85</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" ht="19">
-      <c r="A87" s="25">
-        <v>86</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" ht="19">
-      <c r="A88" s="25">
-        <v>87</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8" ht="19">
-      <c r="A89" s="25">
-        <v>88</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:8" ht="19">
-      <c r="A90" s="25">
-        <v>89</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" ht="19">
-      <c r="A91" s="25">
-        <v>90</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8" ht="38">
-      <c r="A92" s="25">
-        <v>91</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" ht="19">
-      <c r="A93" s="25">
-        <v>92</v>
-      </c>
-      <c r="B93" s="27" t="s">
+      <c r="C93" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="6"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
       <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" ht="19">
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="16">
       <c r="A94" s="25">
+        <v>2</v>
+      </c>
+      <c r="B94" s="26">
         <v>93</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="C94" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="6"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="1:8" ht="19">
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="16">
       <c r="A95" s="25">
+        <v>2</v>
+      </c>
+      <c r="B95" s="26">
         <v>94</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="C95" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="6"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
       <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="15"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="B96" s="15"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="15"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="15"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="11"/>
       <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F95">
-    <sortCondition ref="A1:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G95">
+    <sortCondition ref="B1:B95"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/出口日語/出口日语学习进度.xlsx
+++ b/出口日語/出口日语学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihana/GitHub/Japanese/出口日語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A6896-C3F5-654E-BEE2-D88B8D1E1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2466AC93-6C22-4B4D-B831-0D949E3463F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="512">
   <si>
     <t>～一方だ</t>
   </si>
@@ -1203,15 +1203,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（常識／本質）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">～ものだ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（感慨／懷古）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1817,12 +1809,92 @@
     <t>出顺</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>～か～ないかのうちに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～をもとにして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3
+2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>115
+131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201
+145</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（常識／本質）应该
+不应该</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真是（感慨／懷古）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如果能…的话</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能不能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如果要…的话</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虽然…但是</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～，～之类的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没变化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以…为契机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不管…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以…为首；～以及</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>围绕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以…为根据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刚…就…</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,6 +1968,12 @@
       <name val="楷体-简 常规体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="楷体-简 常规体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1932,7 +2010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1958,26 +2036,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1994,13 +2060,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3070,6 +3141,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4238,6 +4310,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4252,1519 +4325,1519 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="15">
         <v>6</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="15">
         <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="64">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="32">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="64">
-      <c r="A11" s="22">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="32">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="22">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="32">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="32">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="32">
-      <c r="A13" s="22">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="32">
-      <c r="A14" s="22">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="32">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="22">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="32">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="32">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="32">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="32">
+      <c r="A39" s="18">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="18">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="48">
+      <c r="A42" s="18">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="18">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="18">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="18">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="64">
+      <c r="A46" s="18">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="64">
+      <c r="A47" s="18">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="18">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" ht="48">
+      <c r="A49" s="18">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>88</v>
+      </c>
+      <c r="F49" s="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32">
+      <c r="A50" s="18">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15">
+        <v>3</v>
+      </c>
+      <c r="E50" s="15">
+        <v>89</v>
+      </c>
+      <c r="F50" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="18">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15">
+        <v>2</v>
+      </c>
+      <c r="E51" s="15">
+        <v>89</v>
+      </c>
+      <c r="F51" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="18">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15">
+        <v>3</v>
+      </c>
+      <c r="E52" s="15">
+        <v>90</v>
+      </c>
+      <c r="F52" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="18">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15">
+        <v>2</v>
+      </c>
+      <c r="E53" s="15">
+        <v>90</v>
+      </c>
+      <c r="F53" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="32">
+      <c r="A54" s="18">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15">
+        <v>3</v>
+      </c>
+      <c r="E54" s="15">
+        <v>92</v>
+      </c>
+      <c r="F54" s="15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="18">
+        <v>54</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15">
+        <v>2</v>
+      </c>
+      <c r="E55" s="15">
+        <v>91</v>
+      </c>
+      <c r="F55" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="18">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15">
+        <v>2</v>
+      </c>
+      <c r="E56" s="15">
+        <v>95</v>
+      </c>
+      <c r="F56" s="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="18">
+        <v>56</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15">
+        <v>3</v>
+      </c>
+      <c r="E57" s="15">
+        <v>94</v>
+      </c>
+      <c r="F57" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="18">
+        <v>57</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15">
+        <v>102</v>
+      </c>
+      <c r="F58" s="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="18">
+        <v>58</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="15">
+        <v>3</v>
+      </c>
+      <c r="E59" s="15">
+        <v>95</v>
+      </c>
+      <c r="F59" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="18">
+        <v>59</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="15">
+        <v>3</v>
+      </c>
+      <c r="E60" s="15">
+        <v>96</v>
+      </c>
+      <c r="F60" s="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="18">
+        <v>60</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="15">
+        <v>3</v>
+      </c>
+      <c r="E61" s="15">
+        <v>98</v>
+      </c>
+      <c r="F61" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="32">
+      <c r="A62" s="18">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="18">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="15">
+        <v>3</v>
+      </c>
+      <c r="E63" s="15">
+        <v>94</v>
+      </c>
+      <c r="F63" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="18">
+        <v>63</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="15">
+        <v>2</v>
+      </c>
+      <c r="E64" s="15">
+        <v>92</v>
+      </c>
+      <c r="F64" s="15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="15">
+        <v>2</v>
+      </c>
+      <c r="E65" s="15">
+        <v>106</v>
+      </c>
+      <c r="F65" s="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" s="15">
+        <v>3</v>
+      </c>
+      <c r="E66" s="15">
+        <v>100</v>
+      </c>
+      <c r="F66" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="32">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="15">
+        <v>3</v>
+      </c>
+      <c r="E67" s="15">
+        <v>100</v>
+      </c>
+      <c r="F67" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="32">
+      <c r="A68" s="18">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="15">
+        <v>4</v>
+      </c>
+      <c r="E68" s="15">
+        <v>79</v>
+      </c>
+      <c r="F68" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="18">
+        <v>68</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="15">
+        <v>2</v>
+      </c>
+      <c r="E69" s="15">
+        <v>110</v>
+      </c>
+      <c r="F69" s="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="32">
+      <c r="A70" s="18">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="15">
+        <v>3</v>
+      </c>
+      <c r="E70" s="15">
+        <v>107</v>
+      </c>
+      <c r="F70" s="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="18">
+        <v>70</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="15">
+        <v>2</v>
+      </c>
+      <c r="E71" s="15">
+        <v>118</v>
+      </c>
+      <c r="F71" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="18">
+        <v>71</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="15">
+        <v>2</v>
+      </c>
+      <c r="E72" s="15">
+        <v>120</v>
+      </c>
+      <c r="F72" s="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="32">
+      <c r="A73" s="18">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="15">
+        <v>3</v>
+      </c>
+      <c r="E73" s="15">
+        <v>43</v>
+      </c>
+      <c r="F73" s="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="18">
+        <v>73</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="15">
+        <v>2</v>
+      </c>
+      <c r="E74" s="15">
+        <v>121</v>
+      </c>
+      <c r="F74" s="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="32">
+      <c r="A75" s="18">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="15">
+        <v>3</v>
+      </c>
+      <c r="E75" s="15">
+        <v>110</v>
+      </c>
+      <c r="F75" s="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="48">
+      <c r="A76" s="18">
+        <v>75</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="15">
+        <v>2</v>
+      </c>
+      <c r="E76" s="15">
+        <v>122</v>
+      </c>
+      <c r="F76" s="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="32">
+      <c r="A77" s="18">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="15">
+        <v>3</v>
+      </c>
+      <c r="E77" s="15">
+        <v>111</v>
+      </c>
+      <c r="F77" s="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="32">
+      <c r="A78" s="18">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="15">
+        <v>3</v>
+      </c>
+      <c r="E78" s="15">
+        <v>111</v>
+      </c>
+      <c r="F78" s="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="18">
+        <v>78</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="15">
+        <v>3</v>
+      </c>
+      <c r="E79" s="15">
+        <v>23</v>
+      </c>
+      <c r="F79" s="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="64">
+      <c r="A80" s="18">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="15">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15">
+        <v>112</v>
+      </c>
+      <c r="F80" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="32">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" s="15">
+        <v>2</v>
+      </c>
+      <c r="E81" s="15">
+        <v>134</v>
+      </c>
+      <c r="F81" s="15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="48">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="15">
+        <v>3</v>
+      </c>
+      <c r="E82" s="15">
+        <v>114</v>
+      </c>
+      <c r="F82" s="15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="15">
+        <v>2</v>
+      </c>
+      <c r="E83" s="15">
+        <v>128</v>
+      </c>
+      <c r="F83" s="15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="18">
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3</v>
+      </c>
+      <c r="E84" s="15">
+        <v>122</v>
+      </c>
+      <c r="F84" s="15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="18">
+        <v>84</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="15">
+        <v>3</v>
+      </c>
+      <c r="E85" s="15">
+        <v>123</v>
+      </c>
+      <c r="F85" s="15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="15">
+        <v>3</v>
+      </c>
+      <c r="E86" s="15">
+        <v>124</v>
+      </c>
+      <c r="F86" s="15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="15">
+        <v>3</v>
+      </c>
+      <c r="E87" s="15">
+        <v>125</v>
+      </c>
+      <c r="F87" s="15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="48">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="15">
+        <v>3</v>
+      </c>
+      <c r="E88" s="15">
+        <v>76</v>
+      </c>
+      <c r="F88" s="15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="18">
+        <v>88</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" s="15">
+        <v>2</v>
+      </c>
+      <c r="E89" s="15">
+        <v>139</v>
+      </c>
+      <c r="F89" s="15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="32">
+      <c r="A90" s="18">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D90" s="15">
+        <v>3</v>
+      </c>
+      <c r="E90" s="15">
+        <v>127</v>
+      </c>
+      <c r="F90" s="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="32">
+      <c r="A91" s="18">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D91" s="15">
+        <v>2</v>
+      </c>
+      <c r="E91" s="15">
         <v>10</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="32">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" ht="32">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="22">
+      <c r="F91" s="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="32">
+      <c r="A92" s="18">
+        <v>91</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D92" s="15">
+        <v>3</v>
+      </c>
+      <c r="E92" s="15">
+        <v>126</v>
+      </c>
+      <c r="F92" s="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="32">
+      <c r="A93" s="18">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D93" s="15">
+        <v>2</v>
+      </c>
+      <c r="E93" s="15">
+        <v>141</v>
+      </c>
+      <c r="F93" s="15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="32">
+      <c r="A94" s="18">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="15">
+        <v>2</v>
+      </c>
+      <c r="E94" s="15">
+        <v>142</v>
+      </c>
+      <c r="F94" s="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="64">
+      <c r="A95" s="18">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D95" s="15">
+        <v>3</v>
+      </c>
+      <c r="E95" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="22">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="22">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="22">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22">
-        <v>25</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="22">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="22">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="22">
-        <v>28</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="22">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="22">
-        <v>30</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="22">
-        <v>31</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="22">
-        <v>32</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="22">
-        <v>33</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="22">
-        <v>34</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="22">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="22">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="22">
-        <v>37</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="22">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="22">
-        <v>39</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="22">
-        <v>40</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" ht="48">
-      <c r="A42" s="22">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="22">
-        <v>42</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="22">
-        <v>43</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="22">
-        <v>44</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" ht="64">
-      <c r="A46" s="22">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" ht="64">
-      <c r="A47" s="22">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="22">
-        <v>47</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" ht="48">
-      <c r="A49" s="22">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="19">
-        <v>3</v>
-      </c>
-      <c r="E49" s="19">
-        <v>88</v>
-      </c>
-      <c r="F49" s="19">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="32">
-      <c r="A50" s="22">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19">
-        <v>3</v>
-      </c>
-      <c r="E50" s="19">
-        <v>89</v>
-      </c>
-      <c r="F50" s="19">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="22">
-        <v>50</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19">
-        <v>2</v>
-      </c>
-      <c r="E51" s="19">
-        <v>89</v>
-      </c>
-      <c r="F51" s="19">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="22">
-        <v>51</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19">
-        <v>3</v>
-      </c>
-      <c r="E52" s="19">
-        <v>90</v>
-      </c>
-      <c r="F52" s="19">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="22">
-        <v>52</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19">
-        <v>2</v>
-      </c>
-      <c r="E53" s="19">
-        <v>90</v>
-      </c>
-      <c r="F53" s="19">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="32">
-      <c r="A54" s="22">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19">
-        <v>3</v>
-      </c>
-      <c r="E54" s="19">
-        <v>92</v>
-      </c>
-      <c r="F54" s="19">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="22">
-        <v>54</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19">
-        <v>2</v>
-      </c>
-      <c r="E55" s="19">
-        <v>91</v>
-      </c>
-      <c r="F55" s="19">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="22">
-        <v>55</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19">
-        <v>2</v>
-      </c>
-      <c r="E56" s="19">
-        <v>95</v>
-      </c>
-      <c r="F56" s="19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="22">
-        <v>56</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19">
-        <v>3</v>
-      </c>
-      <c r="E57" s="19">
-        <v>94</v>
-      </c>
-      <c r="F57" s="19">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="22">
-        <v>57</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19">
-        <v>2</v>
-      </c>
-      <c r="E58" s="19">
-        <v>102</v>
-      </c>
-      <c r="F58" s="19">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="22">
-        <v>58</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="19">
-        <v>3</v>
-      </c>
-      <c r="E59" s="19">
-        <v>95</v>
-      </c>
-      <c r="F59" s="19">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="22">
-        <v>59</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="19">
-        <v>3</v>
-      </c>
-      <c r="E60" s="19">
-        <v>96</v>
-      </c>
-      <c r="F60" s="19">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="22">
-        <v>60</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="19">
-        <v>3</v>
-      </c>
-      <c r="E61" s="19">
-        <v>98</v>
-      </c>
-      <c r="F61" s="19">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="32">
-      <c r="A62" s="22">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="22">
-        <v>62</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="19">
-        <v>3</v>
-      </c>
-      <c r="E63" s="19">
-        <v>94</v>
-      </c>
-      <c r="F63" s="19">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="22">
-        <v>63</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="19">
-        <v>2</v>
-      </c>
-      <c r="E64" s="19">
-        <v>92</v>
-      </c>
-      <c r="F64" s="19">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="22">
-        <v>64</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="19">
-        <v>2</v>
-      </c>
-      <c r="E65" s="19">
-        <v>106</v>
-      </c>
-      <c r="F65" s="19">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="22">
-        <v>65</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="D66" s="19">
-        <v>3</v>
-      </c>
-      <c r="E66" s="19">
-        <v>100</v>
-      </c>
-      <c r="F66" s="19">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="32">
-      <c r="A67" s="22">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="19">
-        <v>3</v>
-      </c>
-      <c r="E67" s="19">
-        <v>100</v>
-      </c>
-      <c r="F67" s="19">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="32">
-      <c r="A68" s="22">
-        <v>67</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="19">
-        <v>4</v>
-      </c>
-      <c r="E68" s="19">
-        <v>79</v>
-      </c>
-      <c r="F68" s="19">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="22">
-        <v>68</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="19">
-        <v>2</v>
-      </c>
-      <c r="E69" s="19">
-        <v>110</v>
-      </c>
-      <c r="F69" s="19">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="32">
-      <c r="A70" s="22">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="19">
-        <v>3</v>
-      </c>
-      <c r="E70" s="19">
-        <v>107</v>
-      </c>
-      <c r="F70" s="19">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="22">
-        <v>70</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="19">
-        <v>2</v>
-      </c>
-      <c r="E71" s="19">
-        <v>118</v>
-      </c>
-      <c r="F71" s="19">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="22">
-        <v>71</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="19">
-        <v>2</v>
-      </c>
-      <c r="E72" s="19">
-        <v>120</v>
-      </c>
-      <c r="F72" s="19">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="32">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="19">
-        <v>3</v>
-      </c>
-      <c r="E73" s="19">
-        <v>43</v>
-      </c>
-      <c r="F73" s="19">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="19">
-        <v>2</v>
-      </c>
-      <c r="E74" s="19">
-        <v>121</v>
-      </c>
-      <c r="F74" s="19">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="32">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="19">
-        <v>3</v>
-      </c>
-      <c r="E75" s="19">
-        <v>110</v>
-      </c>
-      <c r="F75" s="19">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="48">
-      <c r="A76" s="22">
-        <v>75</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="19">
-        <v>2</v>
-      </c>
-      <c r="E76" s="19">
-        <v>122</v>
-      </c>
-      <c r="F76" s="19">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="32">
-      <c r="A77" s="22">
-        <v>76</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="19">
-        <v>3</v>
-      </c>
-      <c r="E77" s="19">
-        <v>111</v>
-      </c>
-      <c r="F77" s="19">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="32">
-      <c r="A78" s="22">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="19">
-        <v>3</v>
-      </c>
-      <c r="E78" s="19">
-        <v>111</v>
-      </c>
-      <c r="F78" s="19">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="22">
-        <v>78</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="19">
-        <v>3</v>
-      </c>
-      <c r="E79" s="19">
-        <v>23</v>
-      </c>
-      <c r="F79" s="19">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="64">
-      <c r="A80" s="22">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="19">
-        <v>3</v>
-      </c>
-      <c r="E80" s="19">
-        <v>112</v>
-      </c>
-      <c r="F80" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="32">
-      <c r="A81" s="22">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D81" s="19">
-        <v>2</v>
-      </c>
-      <c r="E81" s="19">
-        <v>134</v>
-      </c>
-      <c r="F81" s="19">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="48">
-      <c r="A82" s="22">
-        <v>81</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="19">
-        <v>3</v>
-      </c>
-      <c r="E82" s="19">
-        <v>114</v>
-      </c>
-      <c r="F82" s="19">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="22">
-        <v>82</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="19">
-        <v>2</v>
-      </c>
-      <c r="E83" s="19">
-        <v>128</v>
-      </c>
-      <c r="F83" s="19">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="22">
-        <v>83</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="D84" s="19">
-        <v>3</v>
-      </c>
-      <c r="E84" s="19">
-        <v>122</v>
-      </c>
-      <c r="F84" s="19">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="22">
-        <v>84</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="19">
-        <v>3</v>
-      </c>
-      <c r="E85" s="19">
-        <v>123</v>
-      </c>
-      <c r="F85" s="19">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="22">
-        <v>85</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="19">
-        <v>3</v>
-      </c>
-      <c r="E86" s="19">
-        <v>124</v>
-      </c>
-      <c r="F86" s="19">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="22">
-        <v>86</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="19">
-        <v>3</v>
-      </c>
-      <c r="E87" s="19">
-        <v>125</v>
-      </c>
-      <c r="F87" s="19">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="48">
-      <c r="A88" s="22">
-        <v>87</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="19">
-        <v>3</v>
-      </c>
-      <c r="E88" s="19">
-        <v>76</v>
-      </c>
-      <c r="F88" s="19">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="22">
-        <v>88</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="D89" s="19">
-        <v>2</v>
-      </c>
-      <c r="E89" s="19">
-        <v>139</v>
-      </c>
-      <c r="F89" s="19">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="32">
-      <c r="A90" s="22">
-        <v>89</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="D90" s="19">
-        <v>3</v>
-      </c>
-      <c r="E90" s="19">
-        <v>127</v>
-      </c>
-      <c r="F90" s="19">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="32">
-      <c r="A91" s="22">
-        <v>90</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="D91" s="19">
-        <v>2</v>
-      </c>
-      <c r="E91" s="19">
-        <v>10</v>
-      </c>
-      <c r="F91" s="19">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="32">
-      <c r="A92" s="22">
-        <v>91</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D92" s="19">
-        <v>3</v>
-      </c>
-      <c r="E92" s="19">
-        <v>126</v>
-      </c>
-      <c r="F92" s="19">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="32">
-      <c r="A93" s="22">
-        <v>92</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D93" s="19">
-        <v>2</v>
-      </c>
-      <c r="E93" s="19">
-        <v>141</v>
-      </c>
-      <c r="F93" s="19">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="32">
-      <c r="A94" s="22">
-        <v>93</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D94" s="19">
-        <v>2</v>
-      </c>
-      <c r="E94" s="19">
-        <v>142</v>
-      </c>
-      <c r="F94" s="19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="64">
-      <c r="A95" s="22">
-        <v>94</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D95" s="19">
-        <v>3</v>
-      </c>
-      <c r="E95" s="19">
-        <v>17</v>
-      </c>
-      <c r="F95" s="19">
+      <c r="F95" s="15">
         <v>162</v>
       </c>
     </row>
@@ -5779,2309 +5852,2425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="25">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26">
+    <row r="2" spans="1:9" ht="19">
+      <c r="A2" s="22">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="26">
-        <v>2</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="C2" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23">
         <v>1</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="23">
         <v>89</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26">
-        <v>2</v>
-      </c>
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="1:9" ht="38">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="26">
-        <v>2</v>
-      </c>
-      <c r="F3" s="26">
-        <v>2</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="D3" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>2</v>
+      </c>
+      <c r="G3" s="23">
         <v>89</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="25">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26">
+    <row r="4" spans="1:9" ht="19">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="E4" s="26">
-        <v>2</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="D4" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23">
         <v>3</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <v>89</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26">
+    <row r="5" spans="1:9" ht="19">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <v>3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>5</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="23">
         <v>158</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="16">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="26">
+    <row r="6" spans="1:9" ht="19">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" s="23">
         <v>3</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>8</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>159</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="16">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26">
+    <row r="7" spans="1:9" ht="19">
+      <c r="A7" s="22">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23">
         <v>6</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="23">
         <v>3</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>7</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>159</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="16">
-      <c r="A8" s="25">
-        <v>2</v>
-      </c>
-      <c r="B8" s="26">
+    <row r="8" spans="1:9" ht="19">
+      <c r="A8" s="22">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23">
         <v>7</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" s="26">
-        <v>2</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="D8" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23">
         <v>4</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>90</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="16">
-      <c r="A9" s="25">
-        <v>2</v>
-      </c>
-      <c r="B9" s="26">
+    <row r="9" spans="1:9" ht="19">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="E9" s="26">
-        <v>2</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="D9" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2</v>
+      </c>
+      <c r="F9" s="23">
         <v>5</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>90</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="25">
-        <v>2</v>
-      </c>
-      <c r="B10" s="26">
+    <row r="10" spans="1:9" ht="19">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="E10" s="26">
-        <v>2</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="D10" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
         <v>6</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <v>90</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="25">
-        <v>2</v>
-      </c>
-      <c r="B11" s="26">
+    <row r="11" spans="1:9" ht="19">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" s="26">
-        <v>2</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="D11" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
         <v>9</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="23">
         <v>92</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="25">
-        <v>2</v>
-      </c>
-      <c r="B12" s="26">
+    <row r="12" spans="1:9" ht="19">
+      <c r="A12" s="22">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23">
         <v>11</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" s="26">
-        <v>2</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="D12" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <v>9</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="23">
         <v>92</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="25">
-        <v>2</v>
-      </c>
-      <c r="B13" s="26">
+    <row r="13" spans="1:9" ht="19">
+      <c r="A13" s="22">
+        <v>2</v>
+      </c>
+      <c r="B13" s="23">
         <v>12</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" s="23">
         <v>3</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>15</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <v>161</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="25">
-        <v>2</v>
-      </c>
-      <c r="B14" s="26">
+    <row r="14" spans="1:9" ht="19">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="23">
         <v>13</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="E14" s="26">
-        <v>2</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="D14" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <v>16</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <v>95</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26">
+    <row r="15" spans="1:9" ht="19">
+      <c r="A15" s="22">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23">
         <v>14</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="E15" s="26">
-        <v>2</v>
-      </c>
-      <c r="F15" s="26">
+      <c r="D15" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23">
         <v>16</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="23">
         <v>96</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="16">
-      <c r="A16" s="25">
-        <v>2</v>
-      </c>
-      <c r="B16" s="26">
+    <row r="16" spans="1:9" ht="19">
+      <c r="A16" s="22">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23">
         <v>15</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="E16" s="26">
-        <v>2</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="D16" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2</v>
+      </c>
+      <c r="F16" s="23">
         <v>20</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <v>97</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="64">
-      <c r="A17" s="25">
-        <v>2</v>
-      </c>
-      <c r="B17" s="26">
+    <row r="17" spans="1:9" ht="76">
+      <c r="A17" s="22">
+        <v>2</v>
+      </c>
+      <c r="B17" s="23">
         <v>16</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E17" s="26">
-        <v>2</v>
-      </c>
-      <c r="F17" s="26">
+      <c r="D17" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2</v>
+      </c>
+      <c r="F17" s="23">
         <v>20</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <v>97</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="32">
-      <c r="A18" s="25">
-        <v>2</v>
-      </c>
-      <c r="B18" s="26">
+    <row r="18" spans="1:9" ht="38">
+      <c r="A18" s="22">
+        <v>2</v>
+      </c>
+      <c r="B18" s="23">
         <v>17</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="E18" s="26">
-        <v>2</v>
-      </c>
-      <c r="F18" s="26">
+      <c r="D18" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
         <v>21</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="23">
         <v>98</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="25">
-        <v>2</v>
-      </c>
-      <c r="B19" s="26">
+    <row r="19" spans="1:9" ht="19">
+      <c r="A19" s="22">
+        <v>2</v>
+      </c>
+      <c r="B19" s="23">
         <v>18</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="E19" s="26">
-        <v>2</v>
-      </c>
-      <c r="F19" s="26">
+      <c r="D19" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2</v>
+      </c>
+      <c r="F19" s="23">
         <v>24</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="23">
         <v>99</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="48">
-      <c r="A20" s="25">
-        <v>2</v>
-      </c>
-      <c r="B20" s="26">
+    <row r="20" spans="1:9" ht="57">
+      <c r="A20" s="22">
+        <v>2</v>
+      </c>
+      <c r="B20" s="23">
         <v>19</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="E20" s="26">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26">
+      <c r="D20" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23">
         <v>25</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="23">
         <v>100</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="32">
-      <c r="A21" s="25">
-        <v>2</v>
-      </c>
-      <c r="B21" s="26">
+    <row r="21" spans="1:9" ht="38">
+      <c r="A21" s="22">
+        <v>2</v>
+      </c>
+      <c r="B21" s="23">
         <v>20</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="23">
         <v>3</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="23">
         <v>22</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="23">
         <v>164</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="16">
-      <c r="A22" s="25">
-        <v>2</v>
-      </c>
-      <c r="B22" s="26">
+    <row r="22" spans="1:9" ht="19">
+      <c r="A22" s="22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="23">
         <v>21</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="E22" s="26">
-        <v>2</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="23">
         <v>26</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="23">
         <v>100</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="16">
-      <c r="A23" s="25">
-        <v>2</v>
-      </c>
-      <c r="B23" s="26">
+    <row r="23" spans="1:9" ht="19">
+      <c r="A23" s="22">
+        <v>2</v>
+      </c>
+      <c r="B23" s="23">
         <v>22</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="C23" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="23">
         <v>3</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="23">
         <v>27</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <v>166</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="25">
-        <v>2</v>
-      </c>
-      <c r="B24" s="26">
+    <row r="24" spans="1:9" ht="19">
+      <c r="A24" s="22">
+        <v>2</v>
+      </c>
+      <c r="B24" s="23">
         <v>23</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="C24" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24" s="23">
         <v>3</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="23">
         <v>25</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <v>165</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="16">
-      <c r="A25" s="25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="26">
+    <row r="25" spans="1:9" ht="19">
+      <c r="A25" s="22">
+        <v>2</v>
+      </c>
+      <c r="B25" s="23">
         <v>24</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="E25" s="26">
-        <v>2</v>
-      </c>
-      <c r="F25" s="26">
+      <c r="D25" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23">
         <v>29</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="23">
         <v>101</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="16">
-      <c r="A26" s="25">
-        <v>2</v>
-      </c>
-      <c r="B26" s="26">
+    <row r="26" spans="1:9" ht="19">
+      <c r="A26" s="22">
+        <v>2</v>
+      </c>
+      <c r="B26" s="23">
         <v>25</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" s="23">
         <v>3</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="23">
         <v>28</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="23">
         <v>166</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="25">
-        <v>2</v>
-      </c>
-      <c r="B27" s="26">
+    <row r="27" spans="1:9" ht="19">
+      <c r="A27" s="22">
+        <v>2</v>
+      </c>
+      <c r="B27" s="23">
         <v>26</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E27" s="26">
-        <v>2</v>
-      </c>
-      <c r="F27" s="26">
+      <c r="D27" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="23">
         <v>34</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="23">
         <v>103</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="25">
-        <v>2</v>
-      </c>
-      <c r="B28" s="26">
+    <row r="28" spans="1:9" ht="19">
+      <c r="A28" s="22">
+        <v>2</v>
+      </c>
+      <c r="B28" s="23">
         <v>27</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="E28" s="26">
-        <v>2</v>
-      </c>
-      <c r="F28" s="26">
+      <c r="D28" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="23">
         <v>35</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="23">
         <v>104</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="25">
-        <v>2</v>
-      </c>
-      <c r="B29" s="26">
+    <row r="29" spans="1:9" ht="19">
+      <c r="A29" s="22">
+        <v>2</v>
+      </c>
+      <c r="B29" s="23">
         <v>28</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="E29" s="26">
-        <v>2</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="D29" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" s="23">
+        <v>2</v>
+      </c>
+      <c r="F29" s="23">
         <v>35</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="23">
         <v>104</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="16">
-      <c r="A30" s="25">
-        <v>2</v>
-      </c>
-      <c r="B30" s="26">
+    <row r="30" spans="1:9" ht="19">
+      <c r="A30" s="22">
+        <v>2</v>
+      </c>
+      <c r="B30" s="23">
         <v>29</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="E30" s="26">
-        <v>2</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="D30" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23">
         <v>35</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="23">
         <v>104</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="32">
-      <c r="A31" s="25">
-        <v>2</v>
-      </c>
-      <c r="B31" s="26">
+    <row r="31" spans="1:9" ht="38">
+      <c r="A31" s="22">
+        <v>2</v>
+      </c>
+      <c r="B31" s="23">
         <v>30</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D31" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E31" s="23">
         <v>3</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="23">
         <v>37</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="23">
         <v>170</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" ht="32">
-      <c r="A32" s="25">
-        <v>2</v>
-      </c>
-      <c r="B32" s="26">
+    <row r="32" spans="1:9" ht="38">
+      <c r="A32" s="22">
+        <v>2</v>
+      </c>
+      <c r="B32" s="23">
         <v>31</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="E32" s="26">
-        <v>2</v>
-      </c>
-      <c r="F32" s="26">
+      <c r="D32" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" s="23">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23">
         <v>38</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="23">
         <v>106</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="48">
-      <c r="A33" s="25">
-        <v>2</v>
-      </c>
-      <c r="B33" s="26">
+    <row r="33" spans="1:9" ht="57">
+      <c r="A33" s="22">
+        <v>2</v>
+      </c>
+      <c r="B33" s="23">
         <v>32</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="E33" s="26">
-        <v>2</v>
-      </c>
-      <c r="F33" s="26">
+      <c r="D33" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E33" s="23">
+        <v>2</v>
+      </c>
+      <c r="F33" s="23">
         <v>40</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="23">
         <v>106</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="25">
-        <v>2</v>
-      </c>
-      <c r="B34" s="26">
+    <row r="34" spans="1:9" ht="19">
+      <c r="A34" s="22">
+        <v>2</v>
+      </c>
+      <c r="B34" s="23">
         <v>33</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="E34" s="26">
-        <v>2</v>
-      </c>
-      <c r="F34" s="26">
+      <c r="D34" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E34" s="23">
+        <v>2</v>
+      </c>
+      <c r="F34" s="23">
         <v>46</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="23">
         <v>109</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" ht="16">
-      <c r="A35" s="25">
-        <v>2</v>
-      </c>
-      <c r="B35" s="26">
+    <row r="35" spans="1:9" ht="19">
+      <c r="A35" s="22">
+        <v>2</v>
+      </c>
+      <c r="B35" s="23">
         <v>34</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E35" s="26">
-        <v>2</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="D35" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E35" s="23">
+        <v>2</v>
+      </c>
+      <c r="F35" s="23">
         <v>47</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="23">
         <v>109</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" ht="16">
-      <c r="A36" s="25">
-        <v>2</v>
-      </c>
-      <c r="B36" s="26">
+    <row r="36" spans="1:9" ht="19">
+      <c r="A36" s="22">
+        <v>2</v>
+      </c>
+      <c r="B36" s="23">
         <v>35</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="E36" s="26">
-        <v>2</v>
-      </c>
-      <c r="F36" s="26">
+      <c r="D36" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="E36" s="23">
+        <v>2</v>
+      </c>
+      <c r="F36" s="23">
         <v>47</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="23">
         <v>110</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="16">
-      <c r="A37" s="25">
-        <v>2</v>
-      </c>
-      <c r="B37" s="26">
+    <row r="37" spans="1:9" ht="19">
+      <c r="A37" s="22">
+        <v>2</v>
+      </c>
+      <c r="B37" s="23">
         <v>36</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="E37" s="26">
-        <v>2</v>
-      </c>
-      <c r="F37" s="26">
+      <c r="D37" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E37" s="23">
+        <v>2</v>
+      </c>
+      <c r="F37" s="23">
         <v>48</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="23">
         <v>110</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" ht="16">
-      <c r="A38" s="25">
-        <v>2</v>
-      </c>
-      <c r="B38" s="26">
+    <row r="38" spans="1:9" ht="19">
+      <c r="A38" s="22">
+        <v>2</v>
+      </c>
+      <c r="B38" s="23">
         <v>37</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="E38" s="26">
-        <v>2</v>
-      </c>
-      <c r="F38" s="26">
+      <c r="D38" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" s="23">
+        <v>2</v>
+      </c>
+      <c r="F38" s="23">
         <v>49</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="23">
         <v>110</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="16">
-      <c r="A39" s="25">
-        <v>2</v>
-      </c>
-      <c r="B39" s="26">
+    <row r="39" spans="1:9" ht="19">
+      <c r="A39" s="22">
+        <v>2</v>
+      </c>
+      <c r="B39" s="23">
         <v>38</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="E39" s="26">
+      <c r="C39" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E39" s="23">
         <v>3</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="23">
         <v>59</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="23">
         <v>178</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="16">
-      <c r="A40" s="25">
-        <v>2</v>
-      </c>
-      <c r="B40" s="26">
+    <row r="40" spans="1:9" ht="19">
+      <c r="A40" s="22">
+        <v>2</v>
+      </c>
+      <c r="B40" s="23">
         <v>39</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="D40" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" s="23">
         <v>3</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="23">
         <v>64</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="23">
         <v>180</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="48">
-      <c r="A41" s="25">
-        <v>2</v>
-      </c>
-      <c r="B41" s="26">
+    <row r="41" spans="1:9" ht="57">
+      <c r="A41" s="22">
+        <v>2</v>
+      </c>
+      <c r="B41" s="23">
         <v>40</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="E41" s="26">
+      <c r="D41" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="23">
         <v>3</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="23">
         <v>75</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="23">
         <v>184</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="32">
-      <c r="A42" s="25">
-        <v>2</v>
-      </c>
-      <c r="B42" s="26">
+    <row r="42" spans="1:9" ht="38">
+      <c r="A42" s="22">
+        <v>2</v>
+      </c>
+      <c r="B42" s="23">
         <v>41</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="E42" s="26">
+      <c r="D42" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E42" s="23">
         <v>3</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="23">
         <v>51</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="23">
         <v>175</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" ht="16">
-      <c r="A43" s="25">
-        <v>2</v>
-      </c>
-      <c r="B43" s="26">
+    <row r="43" spans="1:9" ht="19">
+      <c r="A43" s="22">
+        <v>2</v>
+      </c>
+      <c r="B43" s="23">
         <v>42</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="E43" s="26">
-        <v>2</v>
-      </c>
-      <c r="F43" s="26">
+      <c r="D43" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E43" s="23">
+        <v>2</v>
+      </c>
+      <c r="F43" s="23">
         <v>60</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="23">
         <v>115</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" ht="16">
-      <c r="A44" s="25">
-        <v>2</v>
-      </c>
-      <c r="B44" s="26">
+    <row r="44" spans="1:9" ht="19">
+      <c r="A44" s="22">
+        <v>2</v>
+      </c>
+      <c r="B44" s="23">
         <v>43</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="26">
-        <v>2</v>
-      </c>
-      <c r="F44" s="26">
+      <c r="E44" s="23">
+        <v>2</v>
+      </c>
+      <c r="F44" s="23">
         <v>61</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="23">
         <v>115</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="16">
-      <c r="A45" s="25">
-        <v>2</v>
-      </c>
-      <c r="B45" s="26">
+    <row r="45" spans="1:9" ht="19">
+      <c r="A45" s="22">
+        <v>2</v>
+      </c>
+      <c r="B45" s="23">
         <v>44</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="E45" s="26">
-        <v>2</v>
-      </c>
-      <c r="F45" s="26">
+      <c r="D45" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" s="23">
+        <v>2</v>
+      </c>
+      <c r="F45" s="23">
         <v>65</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="23">
         <v>117</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" ht="16">
-      <c r="A46" s="25">
-        <v>2</v>
-      </c>
-      <c r="B46" s="26">
+    <row r="46" spans="1:9" ht="19">
+      <c r="A46" s="22">
+        <v>2</v>
+      </c>
+      <c r="B46" s="23">
         <v>45</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="E46" s="26">
-        <v>2</v>
-      </c>
-      <c r="F46" s="26">
+      <c r="D46" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E46" s="23">
+        <v>2</v>
+      </c>
+      <c r="F46" s="23">
         <v>66</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="23">
         <v>118</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" ht="16">
-      <c r="A47" s="25">
-        <v>2</v>
-      </c>
-      <c r="B47" s="26">
+    <row r="47" spans="1:9" ht="19">
+      <c r="A47" s="22">
+        <v>2</v>
+      </c>
+      <c r="B47" s="23">
         <v>46</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="E47" s="26">
-        <v>2</v>
-      </c>
-      <c r="F47" s="26">
+      <c r="D47" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E47" s="23">
+        <v>2</v>
+      </c>
+      <c r="F47" s="23">
         <v>68</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="23">
         <v>119</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" ht="16">
-      <c r="A48" s="25">
-        <v>2</v>
-      </c>
-      <c r="B48" s="26">
+    <row r="48" spans="1:9" ht="19">
+      <c r="A48" s="22">
+        <v>2</v>
+      </c>
+      <c r="B48" s="23">
         <v>47</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="E48" s="26">
-        <v>2</v>
-      </c>
-      <c r="F48" s="26">
+      <c r="D48" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="E48" s="23">
+        <v>2</v>
+      </c>
+      <c r="F48" s="23">
         <v>73</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="23">
         <v>121</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" ht="16">
-      <c r="A49" s="25">
-        <v>2</v>
-      </c>
-      <c r="B49" s="26">
+    <row r="49" spans="1:9" ht="19">
+      <c r="A49" s="22">
+        <v>2</v>
+      </c>
+      <c r="B49" s="23">
         <v>48</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="E49" s="26">
-        <v>2</v>
-      </c>
-      <c r="F49" s="26">
+      <c r="D49" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E49" s="23">
+        <v>2</v>
+      </c>
+      <c r="F49" s="23">
         <v>76</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="23">
         <v>122</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" ht="16">
-      <c r="A50" s="25">
-        <v>2</v>
-      </c>
-      <c r="B50" s="26">
+    <row r="50" spans="1:9" ht="19">
+      <c r="A50" s="22">
+        <v>2</v>
+      </c>
+      <c r="B50" s="23">
         <v>49</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="E50" s="26">
-        <v>2</v>
-      </c>
-      <c r="F50" s="26">
+      <c r="D50" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="E50" s="23">
+        <v>2</v>
+      </c>
+      <c r="F50" s="23">
         <v>77</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="23">
         <v>122</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" ht="16">
-      <c r="A51" s="25">
-        <v>2</v>
-      </c>
-      <c r="B51" s="26">
+    <row r="51" spans="1:9" ht="19">
+      <c r="A51" s="22">
+        <v>2</v>
+      </c>
+      <c r="B51" s="23">
         <v>50</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="E51" s="26">
-        <v>2</v>
-      </c>
-      <c r="F51" s="26">
+      <c r="D51" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="E51" s="23">
+        <v>2</v>
+      </c>
+      <c r="F51" s="23">
         <v>79</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="23">
         <v>123</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" ht="16">
-      <c r="A52" s="25">
-        <v>2</v>
-      </c>
-      <c r="B52" s="26">
+    <row r="52" spans="1:9" ht="19">
+      <c r="A52" s="22">
+        <v>2</v>
+      </c>
+      <c r="B52" s="23">
         <v>51</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E52" s="26">
-        <v>2</v>
-      </c>
-      <c r="F52" s="26">
+      <c r="D52" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="E52" s="23">
+        <v>2</v>
+      </c>
+      <c r="F52" s="23">
         <v>82</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="23">
         <v>125</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" ht="16">
-      <c r="A53" s="25">
-        <v>2</v>
-      </c>
-      <c r="B53" s="26">
+    <row r="53" spans="1:9" ht="19">
+      <c r="A53" s="22">
+        <v>2</v>
+      </c>
+      <c r="B53" s="23">
         <v>52</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="E53" s="26">
-        <v>2</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="D53" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E53" s="23">
+        <v>2</v>
+      </c>
+      <c r="F53" s="23">
         <v>83</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="23">
         <v>125</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" ht="32">
-      <c r="A54" s="25">
-        <v>2</v>
-      </c>
-      <c r="B54" s="26">
+    <row r="54" spans="1:9" ht="38">
+      <c r="A54" s="22">
+        <v>2</v>
+      </c>
+      <c r="B54" s="23">
         <v>53</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="E54" s="26">
-        <v>2</v>
-      </c>
-      <c r="F54" s="26">
+      <c r="D54" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E54" s="23">
+        <v>2</v>
+      </c>
+      <c r="F54" s="23">
         <v>84</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="23">
         <v>126</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="16">
-      <c r="A55" s="25">
-        <v>2</v>
-      </c>
-      <c r="B55" s="26">
+    <row r="55" spans="1:9" ht="19">
+      <c r="A55" s="22">
+        <v>2</v>
+      </c>
+      <c r="B55" s="23">
         <v>54</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="E55" s="26">
-        <v>2</v>
-      </c>
-      <c r="F55" s="26">
+      <c r="D55" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="E55" s="23">
+        <v>2</v>
+      </c>
+      <c r="F55" s="23">
         <v>108</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="23">
         <v>136</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="16">
-      <c r="A56" s="25">
-        <v>2</v>
-      </c>
-      <c r="B56" s="26">
+    <row r="56" spans="1:9" ht="19">
+      <c r="A56" s="22">
+        <v>2</v>
+      </c>
+      <c r="B56" s="23">
         <v>55</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="E56" s="26">
-        <v>2</v>
-      </c>
-      <c r="F56" s="26">
+      <c r="D56" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E56" s="23">
+        <v>2</v>
+      </c>
+      <c r="F56" s="23">
         <v>86</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="23">
         <v>126</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="16">
-      <c r="A57" s="25">
-        <v>2</v>
-      </c>
-      <c r="B57" s="26">
+    <row r="57" spans="1:9" ht="19">
+      <c r="A57" s="22">
+        <v>2</v>
+      </c>
+      <c r="B57" s="23">
         <v>56</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="E57" s="26">
-        <v>2</v>
-      </c>
-      <c r="F57" s="26">
+      <c r="D57" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E57" s="23">
+        <v>2</v>
+      </c>
+      <c r="F57" s="23">
         <v>87</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="23">
         <v>127</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" ht="16">
-      <c r="A58" s="25">
-        <v>2</v>
-      </c>
-      <c r="B58" s="26">
+    <row r="58" spans="1:9" ht="19">
+      <c r="A58" s="22">
+        <v>2</v>
+      </c>
+      <c r="B58" s="23">
         <v>57</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="E58" s="26">
-        <v>2</v>
-      </c>
-      <c r="F58" s="26">
+      <c r="C58" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E58" s="23">
+        <v>2</v>
+      </c>
+      <c r="F58" s="23">
         <v>86</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="23">
         <v>126</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" ht="16">
-      <c r="A59" s="25">
-        <v>2</v>
-      </c>
-      <c r="B59" s="26">
+    <row r="59" spans="1:9" ht="19">
+      <c r="A59" s="22">
+        <v>2</v>
+      </c>
+      <c r="B59" s="23">
         <v>58</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="23">
         <v>3</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="23">
         <v>91</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="23">
         <v>191</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" ht="16">
-      <c r="A60" s="25">
-        <v>2</v>
-      </c>
-      <c r="B60" s="26">
+    <row r="60" spans="1:9" ht="19">
+      <c r="A60" s="22">
+        <v>2</v>
+      </c>
+      <c r="B60" s="23">
         <v>59</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="E60" s="26">
-        <v>2</v>
-      </c>
-      <c r="F60" s="26">
+      <c r="D60" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" s="23">
+        <v>2</v>
+      </c>
+      <c r="F60" s="23">
         <v>100</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="23">
         <v>133</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" ht="16">
-      <c r="A61" s="25">
-        <v>2</v>
-      </c>
-      <c r="B61" s="26">
+    <row r="61" spans="1:9" ht="19">
+      <c r="A61" s="22">
+        <v>2</v>
+      </c>
+      <c r="B61" s="23">
         <v>60</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="E61" s="26">
-        <v>2</v>
-      </c>
-      <c r="F61" s="26">
+      <c r="D61" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E61" s="23">
+        <v>2</v>
+      </c>
+      <c r="F61" s="23">
         <v>93</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="23">
         <v>129</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" ht="16">
-      <c r="A62" s="25">
-        <v>2</v>
-      </c>
-      <c r="B62" s="26">
+    <row r="62" spans="1:9" ht="19">
+      <c r="A62" s="22">
+        <v>2</v>
+      </c>
+      <c r="B62" s="23">
         <v>61</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="E62" s="26">
-        <v>2</v>
-      </c>
-      <c r="F62" s="26">
+      <c r="D62" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="E62" s="23">
+        <v>2</v>
+      </c>
+      <c r="F62" s="23">
         <v>94</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="23">
         <v>130</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" ht="64">
-      <c r="A63" s="25">
-        <v>2</v>
-      </c>
-      <c r="B63" s="26">
+    <row r="63" spans="1:9" ht="76">
+      <c r="A63" s="22">
+        <v>2</v>
+      </c>
+      <c r="B63" s="23">
         <v>62</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="E63" s="26">
-        <v>2</v>
-      </c>
-      <c r="F63" s="26">
+      <c r="C63" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="E63" s="23">
+        <v>2</v>
+      </c>
+      <c r="F63" s="23">
         <v>96</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="23">
         <v>131</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" ht="16">
-      <c r="A64" s="25">
-        <v>2</v>
-      </c>
-      <c r="B64" s="26">
+    <row r="64" spans="1:9" ht="19">
+      <c r="A64" s="22">
+        <v>2</v>
+      </c>
+      <c r="B64" s="23">
         <v>63</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="E64" s="26">
-        <v>2</v>
-      </c>
-      <c r="F64" s="26">
+      <c r="D64" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E64" s="23">
+        <v>2</v>
+      </c>
+      <c r="F64" s="23">
         <v>97</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G64" s="23">
         <v>131</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" ht="64">
-      <c r="A65" s="25">
-        <v>2</v>
-      </c>
-      <c r="B65" s="26">
+    <row r="65" spans="1:9" ht="76">
+      <c r="A65" s="22">
+        <v>2</v>
+      </c>
+      <c r="B65" s="23">
         <v>64</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="E65" s="26">
-        <v>2</v>
-      </c>
-      <c r="F65" s="26">
+      <c r="D65" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E65" s="23">
+        <v>2</v>
+      </c>
+      <c r="F65" s="23">
         <v>98</v>
       </c>
-      <c r="G65" s="26">
+      <c r="G65" s="23">
         <v>131</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" ht="16">
-      <c r="A66" s="25">
-        <v>2</v>
-      </c>
-      <c r="B66" s="26">
+    <row r="66" spans="1:9" ht="19">
+      <c r="A66" s="22">
+        <v>2</v>
+      </c>
+      <c r="B66" s="23">
         <v>65</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="E66" s="26">
-        <v>2</v>
-      </c>
-      <c r="F66" s="26">
+      <c r="D66" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="E66" s="23">
+        <v>2</v>
+      </c>
+      <c r="F66" s="23">
         <v>99</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="23">
         <v>132</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" ht="16">
-      <c r="A67" s="25">
-        <v>2</v>
-      </c>
-      <c r="B67" s="26">
+    <row r="67" spans="1:9" ht="19">
+      <c r="A67" s="22">
+        <v>2</v>
+      </c>
+      <c r="B67" s="23">
         <v>66</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="E67" s="26">
-        <v>2</v>
-      </c>
-      <c r="F67" s="26">
+      <c r="D67" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E67" s="23">
+        <v>2</v>
+      </c>
+      <c r="F67" s="23">
         <v>100</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="23">
         <v>133</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" ht="16">
-      <c r="A68" s="25">
-        <v>2</v>
-      </c>
-      <c r="B68" s="26">
+    <row r="68" spans="1:9" ht="19">
+      <c r="A68" s="22">
+        <v>2</v>
+      </c>
+      <c r="B68" s="23">
         <v>67</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E68" s="26">
-        <v>2</v>
-      </c>
-      <c r="F68" s="26">
+      <c r="D68" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E68" s="23">
+        <v>2</v>
+      </c>
+      <c r="F68" s="23">
         <v>104</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G68" s="23">
         <v>134</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" ht="16">
-      <c r="A69" s="25">
-        <v>2</v>
-      </c>
-      <c r="B69" s="26">
+    <row r="69" spans="1:9" ht="19">
+      <c r="A69" s="22">
+        <v>2</v>
+      </c>
+      <c r="B69" s="23">
         <v>68</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="26">
-        <v>2</v>
-      </c>
-      <c r="F69" s="26">
+      <c r="E69" s="23">
+        <v>2</v>
+      </c>
+      <c r="F69" s="23">
         <v>105</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G69" s="23">
         <v>135</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" ht="16">
-      <c r="A70" s="25">
-        <v>2</v>
-      </c>
-      <c r="B70" s="26">
+    <row r="70" spans="1:9" ht="19">
+      <c r="A70" s="22">
+        <v>2</v>
+      </c>
+      <c r="B70" s="23">
         <v>69</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="E70" s="26">
-        <v>2</v>
-      </c>
-      <c r="F70" s="26">
+      <c r="D70" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="E70" s="23">
+        <v>2</v>
+      </c>
+      <c r="F70" s="23">
         <v>107</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="23">
         <v>136</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" ht="16">
-      <c r="A71" s="25">
-        <v>2</v>
-      </c>
-      <c r="B71" s="26">
+    <row r="71" spans="1:9" ht="19">
+      <c r="A71" s="22">
+        <v>2</v>
+      </c>
+      <c r="B71" s="23">
         <v>70</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="E71" s="26">
-        <v>2</v>
-      </c>
-      <c r="F71" s="26">
+      <c r="D71" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E71" s="23">
+        <v>2</v>
+      </c>
+      <c r="F71" s="23">
         <v>109</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="23">
         <v>137</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" ht="16">
-      <c r="A72" s="25">
-        <v>2</v>
-      </c>
-      <c r="B72" s="26">
+    <row r="72" spans="1:9" ht="19">
+      <c r="A72" s="22">
+        <v>2</v>
+      </c>
+      <c r="B72" s="23">
         <v>71</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="E72" s="26">
+      <c r="D72" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="E72" s="23">
         <v>1</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="23">
         <v>152</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="23">
         <v>67</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" ht="16">
-      <c r="A73" s="25">
-        <v>2</v>
-      </c>
-      <c r="B73" s="26">
+    <row r="73" spans="1:9" ht="19">
+      <c r="A73" s="22">
+        <v>2</v>
+      </c>
+      <c r="B73" s="23">
         <v>72</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="E73" s="26">
-        <v>2</v>
-      </c>
-      <c r="F73" s="26">
+      <c r="D73" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E73" s="23">
+        <v>2</v>
+      </c>
+      <c r="F73" s="23">
         <v>120</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="23">
         <v>141</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" ht="64">
-      <c r="A74" s="25">
-        <v>2</v>
-      </c>
-      <c r="B74" s="26">
+    <row r="74" spans="1:9" ht="76">
+      <c r="A74" s="22">
+        <v>2</v>
+      </c>
+      <c r="B74" s="23">
         <v>73</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="E74" s="26">
-        <v>2</v>
-      </c>
-      <c r="F74" s="26">
+      <c r="D74" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E74" s="23">
+        <v>2</v>
+      </c>
+      <c r="F74" s="23">
         <v>111</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="23">
         <v>137</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" ht="16">
-      <c r="A75" s="25">
-        <v>2</v>
-      </c>
-      <c r="B75" s="26">
+    <row r="75" spans="1:9" ht="19">
+      <c r="A75" s="22">
+        <v>2</v>
+      </c>
+      <c r="B75" s="23">
         <v>74</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D75" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E75" s="26">
-        <v>2</v>
-      </c>
-      <c r="F75" s="26">
+      <c r="D75" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="E75" s="23">
+        <v>2</v>
+      </c>
+      <c r="F75" s="23">
         <v>36</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="23">
         <v>105</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" ht="16">
-      <c r="A76" s="25">
-        <v>2</v>
-      </c>
-      <c r="B76" s="26">
+    <row r="76" spans="1:9" ht="19">
+      <c r="A76" s="22">
+        <v>2</v>
+      </c>
+      <c r="B76" s="23">
         <v>75</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D76" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="E76" s="26">
-        <v>2</v>
-      </c>
-      <c r="F76" s="26">
+      <c r="D76" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E76" s="23">
+        <v>2</v>
+      </c>
+      <c r="F76" s="23">
         <v>114</v>
       </c>
-      <c r="G76" s="26">
+      <c r="G76" s="23">
         <v>138</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" ht="16">
-      <c r="A77" s="25">
-        <v>2</v>
-      </c>
-      <c r="B77" s="26">
+    <row r="77" spans="1:9" ht="19">
+      <c r="A77" s="22">
+        <v>2</v>
+      </c>
+      <c r="B77" s="23">
         <v>76</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D77" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="E77" s="26">
-        <v>2</v>
-      </c>
-      <c r="F77" s="26">
+      <c r="D77" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="E77" s="23">
+        <v>2</v>
+      </c>
+      <c r="F77" s="23">
         <v>116</v>
       </c>
-      <c r="G77" s="26">
+      <c r="G77" s="23">
         <v>139</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" ht="16">
-      <c r="A78" s="25">
-        <v>2</v>
-      </c>
-      <c r="B78" s="26">
+    <row r="78" spans="1:9" ht="19">
+      <c r="A78" s="22">
+        <v>2</v>
+      </c>
+      <c r="B78" s="23">
         <v>77</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="E78" s="26">
-        <v>2</v>
-      </c>
-      <c r="F78" s="26">
+      <c r="D78" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E78" s="23">
+        <v>2</v>
+      </c>
+      <c r="F78" s="23">
         <v>117</v>
       </c>
-      <c r="G78" s="26">
+      <c r="G78" s="23">
         <v>140</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" ht="16">
-      <c r="A79" s="25">
-        <v>2</v>
-      </c>
-      <c r="B79" s="26">
+    <row r="79" spans="1:9" ht="19">
+      <c r="A79" s="22">
+        <v>2</v>
+      </c>
+      <c r="B79" s="23">
         <v>78</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
+      <c r="D79" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" ht="16">
-      <c r="A80" s="25">
-        <v>2</v>
-      </c>
-      <c r="B80" s="26">
+    <row r="80" spans="1:9" ht="19">
+      <c r="A80" s="22">
+        <v>2</v>
+      </c>
+      <c r="B80" s="23">
         <v>79</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="E80" s="26">
-        <v>2</v>
-      </c>
-      <c r="F80" s="26">
+      <c r="D80" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E80" s="23">
+        <v>2</v>
+      </c>
+      <c r="F80" s="23">
         <v>123</v>
       </c>
-      <c r="G80" s="26">
+      <c r="G80" s="23">
         <v>142</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" ht="16">
-      <c r="A81" s="25">
-        <v>2</v>
-      </c>
-      <c r="B81" s="26">
+    <row r="81" spans="1:9" ht="19">
+      <c r="A81" s="22">
+        <v>2</v>
+      </c>
+      <c r="B81" s="23">
         <v>80</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
+      <c r="C81" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" ht="16">
-      <c r="A82" s="25">
-        <v>2</v>
-      </c>
-      <c r="B82" s="26">
+    <row r="82" spans="1:9" ht="19">
+      <c r="A82" s="22">
+        <v>2</v>
+      </c>
+      <c r="B82" s="23">
         <v>81</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="E82" s="26">
-        <v>2</v>
-      </c>
-      <c r="F82" s="26">
+      <c r="D82" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E82" s="23">
+        <v>2</v>
+      </c>
+      <c r="F82" s="23">
         <v>125</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="23">
         <v>143</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" ht="16">
-      <c r="A83" s="25">
-        <v>2</v>
-      </c>
-      <c r="B83" s="26">
+    <row r="83" spans="1:9" ht="19">
+      <c r="A83" s="22">
+        <v>2</v>
+      </c>
+      <c r="B83" s="23">
         <v>82</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D83" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="E83" s="26">
-        <v>2</v>
-      </c>
-      <c r="F83" s="26">
+      <c r="D83" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" s="23">
+        <v>2</v>
+      </c>
+      <c r="F83" s="23">
         <v>129</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="23">
         <v>145</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" ht="32">
-      <c r="A84" s="25">
-        <v>2</v>
-      </c>
-      <c r="B84" s="26">
+    <row r="84" spans="1:9" ht="38">
+      <c r="A84" s="22">
+        <v>2</v>
+      </c>
+      <c r="B84" s="23">
         <v>83</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="D84" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
+      <c r="D84" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>497</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" ht="16">
-      <c r="A85" s="25">
-        <v>2</v>
-      </c>
-      <c r="B85" s="26">
+    <row r="85" spans="1:9" ht="19">
+      <c r="A85" s="22">
+        <v>2</v>
+      </c>
+      <c r="B85" s="23">
         <v>84</v>
       </c>
-      <c r="C85" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
+      <c r="C85" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="E85" s="23">
+        <v>3</v>
+      </c>
+      <c r="F85" s="23">
+        <v>115</v>
+      </c>
+      <c r="G85" s="23">
+        <v>201</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" ht="16">
-      <c r="A86" s="25">
-        <v>2</v>
-      </c>
-      <c r="B86" s="26">
+    <row r="86" spans="1:9" ht="19">
+      <c r="A86" s="22">
+        <v>2</v>
+      </c>
+      <c r="B86" s="23">
         <v>85</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
+      <c r="D86" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="E86" s="23">
+        <v>2</v>
+      </c>
+      <c r="F86" s="23">
+        <v>132</v>
+      </c>
+      <c r="G86" s="23">
+        <v>146</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" ht="16">
-      <c r="A87" s="25">
-        <v>2</v>
-      </c>
-      <c r="B87" s="26">
+    <row r="87" spans="1:9" ht="19">
+      <c r="A87" s="22">
+        <v>2</v>
+      </c>
+      <c r="B87" s="23">
         <v>86</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
+      <c r="D87" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" ht="16">
-      <c r="A88" s="25">
-        <v>2</v>
-      </c>
-      <c r="B88" s="26">
+    <row r="88" spans="1:9" ht="19">
+      <c r="A88" s="22">
+        <v>2</v>
+      </c>
+      <c r="B88" s="23">
         <v>87</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
+      <c r="D88" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="E88" s="23">
+        <v>2</v>
+      </c>
+      <c r="F88" s="23">
+        <v>132</v>
+      </c>
+      <c r="G88" s="23">
+        <v>146</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" ht="16">
-      <c r="A89" s="25">
-        <v>2</v>
-      </c>
-      <c r="B89" s="26">
+    <row r="89" spans="1:9" ht="19">
+      <c r="A89" s="22">
+        <v>2</v>
+      </c>
+      <c r="B89" s="23">
         <v>88</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
+      <c r="D89" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" s="23">
+        <v>2</v>
+      </c>
+      <c r="F89" s="23">
+        <v>133</v>
+      </c>
+      <c r="G89" s="23">
+        <v>146</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" ht="16">
-      <c r="A90" s="25">
-        <v>2</v>
-      </c>
-      <c r="B90" s="26">
+    <row r="90" spans="1:9" ht="19">
+      <c r="A90" s="22">
+        <v>2</v>
+      </c>
+      <c r="B90" s="23">
         <v>89</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
+      <c r="D90" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E90" s="23">
+        <v>3</v>
+      </c>
+      <c r="F90" s="23">
+        <v>116</v>
+      </c>
+      <c r="G90" s="23">
+        <v>202</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" ht="16">
-      <c r="A91" s="25">
-        <v>2</v>
-      </c>
-      <c r="B91" s="26">
+    <row r="91" spans="1:9" ht="19">
+      <c r="A91" s="22">
+        <v>2</v>
+      </c>
+      <c r="B91" s="23">
         <v>90</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
+      <c r="D91" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" s="23">
+        <v>3</v>
+      </c>
+      <c r="F91" s="23">
+        <v>117</v>
+      </c>
+      <c r="G91" s="23">
+        <v>203</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" ht="32">
-      <c r="A92" s="25">
-        <v>2</v>
-      </c>
-      <c r="B92" s="26">
+    <row r="92" spans="1:9" ht="38">
+      <c r="A92" s="22">
+        <v>2</v>
+      </c>
+      <c r="B92" s="23">
         <v>91</v>
       </c>
-      <c r="C92" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
+      <c r="C92" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="E92" s="23">
+        <v>2</v>
+      </c>
+      <c r="F92" s="23">
+        <v>10</v>
+      </c>
+      <c r="G92" s="23">
+        <v>93</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" ht="16">
-      <c r="A93" s="25">
-        <v>2</v>
-      </c>
-      <c r="B93" s="26">
+    <row r="93" spans="1:9" ht="19">
+      <c r="A93" s="22">
+        <v>2</v>
+      </c>
+      <c r="B93" s="23">
         <v>92</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
+      <c r="D93" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E93" s="23">
+        <v>2</v>
+      </c>
+      <c r="F93" s="23">
+        <v>143</v>
+      </c>
+      <c r="G93" s="23">
+        <v>150</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" ht="16">
-      <c r="A94" s="25">
-        <v>2</v>
-      </c>
-      <c r="B94" s="26">
+    <row r="94" spans="1:9" ht="19">
+      <c r="A94" s="22">
+        <v>2</v>
+      </c>
+      <c r="B94" s="23">
         <v>93</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
+      <c r="D94" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E94" s="23">
+        <v>3</v>
+      </c>
+      <c r="F94" s="23">
+        <v>128</v>
+      </c>
+      <c r="G94" s="23">
+        <v>207</v>
+      </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" ht="16">
-      <c r="A95" s="25">
-        <v>2</v>
-      </c>
-      <c r="B95" s="26">
+    <row r="95" spans="1:9" ht="19">
+      <c r="A95" s="22">
+        <v>2</v>
+      </c>
+      <c r="B95" s="23">
         <v>94</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
+      <c r="D95" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="E95" s="23">
+        <v>2</v>
+      </c>
+      <c r="F95" s="23">
+        <v>145</v>
+      </c>
+      <c r="G95" s="23">
+        <v>151</v>
+      </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="B96" s="15"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="11"/>
+      <c r="A96" s="22">
+        <v>2</v>
+      </c>
+      <c r="B96" s="23">
+        <v>95</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E96" s="20">
+        <v>2</v>
+      </c>
+      <c r="F96" s="21">
+        <v>146</v>
+      </c>
+      <c r="G96" s="20">
+        <v>151</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="15"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="11"/>
+    <row r="97" spans="1:9">
+      <c r="A97" s="22">
+        <v>2</v>
+      </c>
+      <c r="B97" s="23">
+        <v>96</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="E97" s="20">
+        <v>2</v>
+      </c>
+      <c r="F97" s="21">
+        <v>15</v>
+      </c>
+      <c r="G97" s="20">
+        <v>95</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
@@ -8105,5 +8294,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/出口日語/出口日语学习进度.xlsx
+++ b/出口日語/出口日语学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihana/GitHub/Japanese/出口日語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C52C4-5C7E-7C4A-A291-D083C266F144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B2B51D-E8E8-BB46-8DE3-5A5AF2AC7E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'N2'!$B$1:$G$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'N1'!$A$1:$G$97</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'N1'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="752">
   <si>
     <t>～一方だ</t>
   </si>
@@ -1894,18 +1896,807 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>～なくて（原因</t>
+    <t>～てもいいです
+～てもかまいません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～てはいけません
+～てはだめです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～なくてもいいです
+～なくてもかまいません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～なくてはいけません
+～なければなりません
+～ないとだめです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～終わります
+～終えます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やります
+～てやります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしあげます
+～てさしあげます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いただきます
+～ていただきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くださいます
+～てくださいます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ようになります
+～なくなります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～んです
+～のです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>到……为止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～つもり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～は…より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～にくい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ので</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ことができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ほうがいいです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～なさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ことにします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ていきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～てしまいます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示詞2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～だします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～てあげます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～てくれます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ために①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ようにしてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～より…ほうが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～と…とどちら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～と言います</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～と思います</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～うとします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～さ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ないで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>助詞：全肯定「でも」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意向形</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使役形</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尊敬形</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謙讓語</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～せていただきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～うございます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～し～し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～たばかりです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～たら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有过</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24
+25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可以</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移动；接近；时间；持续</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正在</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>94/95</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>88/89</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90/91</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>92/93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>某人帮我做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偶尔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38/39/40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>习惯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没有那么……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>认为</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无论</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れる・られる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谦让</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形容词；郑重</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只；光是</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10单元</t>
+  </si>
+  <si>
+    <t>9单元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>98
+129
+130
+132</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>转折</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比较好</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>过于</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令；指示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可以</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不……也行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客观决定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主观决定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再去；过去；下去</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尝试</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完；遗憾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>准备；善后</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>开始做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突然开始做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>做完</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感觉到</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帮某人做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请……做……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>给
+给做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>给予
+给做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>给我
+给我做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正要；正在；刚刚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的；为了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尽量做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请（尽量）做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理由；关心；强调</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比起……更……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…和…哪边……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在…之中…最……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（某人）说</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示；要求</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正要；正想</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有……的样子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>因为不；不…而且…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>维持状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是否</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せる・させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>される・させられる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尊敬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请别人做（尊敬）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请允许我（自谦）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请您做（自谦）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>请让……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>应该
+不可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列举理由/评价</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刚…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～吧；～对不对？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>假定；确定；发现</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～あっての</t>
+  </si>
+  <si>
+    <t>～うにも～ない</t>
+  </si>
+  <si>
+    <t>～かぎりだ</t>
+  </si>
+  <si>
+    <t>～かたがた</t>
+  </si>
+  <si>
+    <t>～かたわら</t>
+  </si>
+  <si>
+    <t>～がてら</t>
+  </si>
+  <si>
+    <t>～が早いか</t>
+  </si>
+  <si>
+    <t>～きらいがある</t>
+  </si>
+  <si>
+    <t>～こととて</t>
+  </si>
+  <si>
+    <t>～始末だ</t>
+  </si>
+  <si>
+    <t>～ずくめ</t>
+  </si>
+  <si>
+    <t>～すら</t>
+  </si>
+  <si>
+    <t>～そばから</t>
+  </si>
+  <si>
+    <t>～たところで</t>
+  </si>
+  <si>
+    <t>～だに</t>
+  </si>
+  <si>
+    <t>～たりとも</t>
+  </si>
+  <si>
+    <t>～たる</t>
+  </si>
+  <si>
+    <t>～つ～つ</t>
+  </si>
+  <si>
+    <t>～てからというもの</t>
+  </si>
+  <si>
+    <t>～でなくて何だろう</t>
+  </si>
+  <si>
+    <t>～じゃあるまいし</t>
+  </si>
+  <si>
+    <t>～てやまない</t>
+  </si>
+  <si>
+    <t>～と相まって</t>
+  </si>
+  <si>
+    <t>～とあって</t>
+  </si>
+  <si>
+    <t>～といい～といい</t>
+  </si>
+  <si>
+    <t>～といえども</t>
+  </si>
+  <si>
+    <t>～と思いきや</t>
+  </si>
+  <si>
+    <t>～ときたら</t>
+  </si>
+  <si>
+    <t>～ところを</t>
+  </si>
+  <si>
+    <t>～とはいえ</t>
+  </si>
+  <si>
+    <t>～とばかりに</t>
+  </si>
+  <si>
+    <t>～ないまでも</t>
+  </si>
+  <si>
+    <t>～なくして</t>
+  </si>
+  <si>
+    <t>～ならでは</t>
+  </si>
+  <si>
+    <t>～なり</t>
+  </si>
+  <si>
+    <t>～なり…なり</t>
+  </si>
+  <si>
+    <t>～にはあたらない</t>
+  </si>
+  <si>
+    <t>～にあって</t>
+  </si>
+  <si>
+    <t>～に至るまで</t>
+  </si>
+  <si>
+    <t>～にかかわる</t>
+  </si>
+  <si>
+    <t>～にかたくない</t>
+  </si>
+  <si>
+    <t>～にして</t>
+  </si>
+  <si>
+    <t>～に即して</t>
+  </si>
+  <si>
+    <t>～に足る</t>
+  </si>
+  <si>
+    <t>～にひきかえ</t>
+  </si>
+  <si>
+    <t>～にもまして</t>
+  </si>
+  <si>
+    <t>至り</t>
+  </si>
+  <si>
+    <t>～の極み</t>
+  </si>
+  <si>
+    <t>～はおろか</t>
+  </si>
+  <si>
+    <t>～ばこそ</t>
+  </si>
+  <si>
+    <t>～ばそれまでだ</t>
+  </si>
+  <si>
+    <t>～のではあるまいか</t>
+  </si>
+  <si>
+    <t>～ベく</t>
+  </si>
+  <si>
+    <t>～まじき</t>
+  </si>
+  <si>
+    <t>～まみれ</t>
+  </si>
+  <si>
+    <t>～めく</t>
+  </si>
+  <si>
+    <t>もさることながら</t>
+  </si>
+  <si>
+    <t>～ものを</t>
+  </si>
+  <si>
+    <t>～や否や</t>
+  </si>
+  <si>
+    <t>～ゆえに</t>
+  </si>
+  <si>
+    <t>～をおいて…ない</t>
+  </si>
+  <si>
+    <t>～をもって</t>
+  </si>
+  <si>
+    <t>～を禁じ得ない</t>
+  </si>
+  <si>
+    <t>～をものともせずに</t>
+  </si>
+  <si>
+    <t>文法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>級別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頁數</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～極まる
+～極まりない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは（驚き）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>序</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>級</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～いかん</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="冬青黑体简体中文 W3"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
       </rPr>
-      <t>・</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -1915,22 +2706,24 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>並述）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>～ばかり（偏向</t>
+      <t>～いかんによって</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～いかんでは</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="冬青黑体简体中文 W3"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
       </rPr>
-      <t>・</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -1940,72 +2733,882 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>偏重）</t>
-    </r>
-  </si>
-  <si>
-    <t>～てもいいです
-～てもかまいません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～てはいけません
-～てはだめです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～なくてもいいです
-～なくてもかまいません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～なくてはいけません
-～なければなりません
-～ないとだめです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～終わります
-～終えます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やります
-～てやります</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さしあげます
-～てさしあげます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いただきます
-～ていただきます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>くださいます
-～てくださいます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ようになります
-～なくなります</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～んです
-～のです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>～ず</t>
+      <t>～いかんによっては</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～いかんによらず</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～いかんにかかわらず</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～うが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～うと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～うが～まいが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～うと～まいと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～たが最後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～たら最後</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～からある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～からする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～からの</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ごとく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ごとき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ごとし</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～なしに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ことなしに</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ないではおかない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ずにはおかない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ないではすまない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ずにはすまない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～であれ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～であろうが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～であろうと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～とあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～とあらば</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～というところだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～といったところだ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～といったらない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～といったらありはしない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～にしたところで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～としたところで</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ともなく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ともなしに</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ともなると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ともなれば</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ないものでもない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ないでもない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～なくもない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～ながらに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～ながらの</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～なりに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～なりの</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～てはたまらない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～てはかなわない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～に至って</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～に至る</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～に則して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～に則って</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～にたえる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～にたえない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～べからず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～べからざる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～までだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～までのことだ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～までもない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～までもなく</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～を限りに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～限りで</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～を皮切りにして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Klee Medium"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～を皮切りとして</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>～なくて（原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="冬青黑体简体中文 W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>並述）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>～ず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2016,7 +3619,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2032,7 +3635,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2043,7 +3646,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2059,7 +3662,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2070,7 +3673,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2080,7 +3683,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2091,7 +3694,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2101,7 +3704,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2112,7 +3715,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2128,7 +3731,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2139,7 +3742,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2155,7 +3758,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2166,7 +3769,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2182,7 +3785,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2193,7 +3796,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2209,7 +3812,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2220,7 +3823,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2230,7 +3833,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2241,7 +3844,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2251,7 +3854,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2262,7 +3865,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2278,7 +3881,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2289,7 +3892,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2305,7 +3908,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2316,7 +3919,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2327,494 +3930,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>到……为止</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～つもり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～は…より</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～にくい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ので</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ことができます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ほうがいいです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～なさい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ことにします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ていきます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～てしまいます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ています</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指示詞2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～だします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～てあげます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～てくれます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ために①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ようにしてください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～より…ほうが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～と…とどちら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～と言います</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～と思います</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～うとします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～さ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～ないで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>助詞：全肯定「でも」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>意向形</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>命令形</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使役形</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尊敬形</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>謙讓語</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～せていただきます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～うございます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～し～し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～たばかりです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～たら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有过</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>24
-25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不可以</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移动；接近；时间；持续</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正在</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>持续</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>94/95</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>88/89</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90/91</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>92/93</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>某人帮我做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>偶尔</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>38/39/40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>习惯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>没有那么……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>认为</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>打算</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无论</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>能力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>な</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>れる・られる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>谦让</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>形容词；郑重</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>只；光是</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10单元</t>
-  </si>
-  <si>
-    <t>9单元</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>98
-129
-130
-132</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>计划</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原因</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>转折</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比较好</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>过于</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>命令；指示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可以</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不……也行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必须</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>客观决定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主观决定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再去；过去；下去</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尝试</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完；遗憾</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>准备；善后</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>开始做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>突然开始做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>做完</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>感觉到</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>帮某人做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请……做……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>给
-给做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>给予
-给做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>给我
-给我做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目的</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正要；正在；刚刚</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目的；为了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尽量做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请（尽量）做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理由；关心；强调</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比起……更……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…和…哪边……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在…之中…最……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（某人）说</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指示；要求</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正要；正想</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有……的样子</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>因为不；不…而且…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>维持状态</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>是否</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ば</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>せる・させる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>される・させられる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尊敬</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请别人做（尊敬）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请允许我（自谦）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请您做（自谦）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请让……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>～はずです</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="冬青黑体简体中文 W3"/>
         <family val="2"/>
@@ -2825,7 +3946,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -2836,24 +3957,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>应该
-不可能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列举理由/评价</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>刚…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～吧；～对不对？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>假定；确定；发现</t>
+    <r>
+      <t>～ばかり（偏向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="冬青黑体简体中文 W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏重）</t>
+    </r>
+  </si>
+  <si>
+    <t>级</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2861,7 +3990,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2925,7 +4054,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="冬青黑体简体中文 W3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Klee Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -2971,7 +4114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3024,7 +4167,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3309,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7369BD21-13ED-47F0-A561-613CAF1795CF}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4103,2118 +5255,2119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF5FAC9-7E8F-4987-B664-D67CC8417A32}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="244" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" zoomScale="244" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="23">
+        <v>4</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" s="23">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23">
+        <v>44</v>
+      </c>
+      <c r="G2" s="23">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="22">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22">
+        <v>58</v>
+      </c>
+      <c r="G3" s="22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="23">
+        <v>4</v>
+      </c>
+      <c r="B4" s="23">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="23">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23">
+        <v>57</v>
+      </c>
+      <c r="G4" s="23">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>53</v>
+      </c>
+      <c r="G5" s="22">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="23">
+        <v>4</v>
+      </c>
+      <c r="F6" s="23">
+        <v>33</v>
+      </c>
+      <c r="G6" s="23">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>34</v>
+      </c>
+      <c r="G7" s="22">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23">
+        <v>7</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" s="23">
+        <v>4</v>
+      </c>
+      <c r="F8" s="23">
+        <v>35</v>
+      </c>
+      <c r="G8" s="23">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" s="22">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
+        <v>69</v>
+      </c>
+      <c r="G9" s="22">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" s="23">
+        <v>4</v>
+      </c>
+      <c r="F10" s="23">
+        <v>23</v>
+      </c>
+      <c r="G10" s="23">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="22">
+        <v>4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>85</v>
+      </c>
+      <c r="G11" s="22">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="23">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E12" s="23">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23">
+        <v>84</v>
+      </c>
+      <c r="G12" s="23">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="22">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E13" s="22">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>112</v>
+      </c>
+      <c r="G13" s="22">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36">
+      <c r="A14" s="23">
+        <v>4</v>
+      </c>
+      <c r="B14" s="23">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4</v>
+      </c>
+      <c r="F14" s="23">
+        <v>30</v>
+      </c>
+      <c r="G14" s="23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="22">
+        <v>4</v>
+      </c>
+      <c r="B15" s="22">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="36">
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="23">
+        <v>15</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E16" s="23">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="G16" s="23">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="22">
+        <v>4</v>
+      </c>
+      <c r="F17" s="22">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36">
+      <c r="A18" s="23">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23">
+        <v>17</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="E18" s="23">
+        <v>4</v>
+      </c>
+      <c r="F18" s="23">
+        <v>28</v>
+      </c>
+      <c r="G18" s="23">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="54">
+      <c r="A19" s="22">
+        <v>4</v>
+      </c>
+      <c r="B19" s="22">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="E19" s="22">
+        <v>4</v>
+      </c>
+      <c r="F19" s="22">
+        <v>29</v>
+      </c>
+      <c r="G19" s="22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="23">
+        <v>4</v>
+      </c>
+      <c r="B20" s="23">
+        <v>19</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20" s="23">
+        <v>3</v>
+      </c>
+      <c r="F20" s="23">
+        <v>31</v>
+      </c>
+      <c r="G20" s="23">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="22">
+        <v>4</v>
+      </c>
+      <c r="B21" s="22">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>29</v>
+      </c>
+      <c r="G21" s="22">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36">
+      <c r="A22" s="23">
+        <v>4</v>
+      </c>
+      <c r="B22" s="23">
+        <v>21</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="E22" s="23">
+        <v>4</v>
+      </c>
+      <c r="F22" s="23">
+        <v>16</v>
+      </c>
+      <c r="G22" s="23">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="22">
+        <v>4</v>
+      </c>
+      <c r="B23" s="22">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="E23" s="22">
+        <v>4</v>
+      </c>
+      <c r="F23" s="22">
+        <v>15</v>
+      </c>
+      <c r="G23" s="22">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="23">
+        <v>4</v>
+      </c>
+      <c r="B24" s="23">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4</v>
+      </c>
+      <c r="F24" s="23">
+        <v>18</v>
+      </c>
+      <c r="G24" s="23">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="22">
+        <v>4</v>
+      </c>
+      <c r="B25" s="22">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="22">
+        <v>4</v>
+      </c>
+      <c r="F25" s="22">
+        <v>17</v>
+      </c>
+      <c r="G25" s="22">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="23">
+        <v>4</v>
+      </c>
+      <c r="B26" s="23">
+        <v>25</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="E26" s="23">
+        <v>4</v>
+      </c>
+      <c r="F26" s="23">
+        <v>14</v>
+      </c>
+      <c r="G26" s="23">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="22">
+        <v>4</v>
+      </c>
+      <c r="B27" s="22">
+        <v>26</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="E27" s="22">
+        <v>5</v>
+      </c>
+      <c r="F27" s="22">
+        <v>108</v>
+      </c>
+      <c r="G27" s="22">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="23">
+        <v>4</v>
+      </c>
+      <c r="B28" s="23">
+        <v>27</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="22">
+        <v>4</v>
+      </c>
+      <c r="B29" s="22">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="23">
+        <v>4</v>
+      </c>
+      <c r="B30" s="23">
+        <v>29</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="22">
+        <v>4</v>
+      </c>
+      <c r="B31" s="22">
+        <v>30</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="E31" s="22">
+        <v>4</v>
+      </c>
+      <c r="F31" s="22">
+        <v>31</v>
+      </c>
+      <c r="G31" s="22">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="23">
+        <v>4</v>
+      </c>
+      <c r="B32" s="23">
+        <v>31</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" s="23">
+        <v>4</v>
+      </c>
+      <c r="F32" s="23">
+        <v>32</v>
+      </c>
+      <c r="G32" s="23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="36">
+      <c r="A33" s="22">
+        <v>4</v>
+      </c>
+      <c r="B33" s="22">
+        <v>32</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="23">
+        <v>4</v>
+      </c>
+      <c r="B34" s="23">
+        <v>33</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" s="23">
+        <v>4</v>
+      </c>
+      <c r="F34" s="23">
+        <v>80</v>
+      </c>
+      <c r="G34" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18">
+      <c r="A35" s="22">
+        <v>4</v>
+      </c>
+      <c r="B35" s="22">
+        <v>34</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="E35" s="22">
+        <v>4</v>
+      </c>
+      <c r="F35" s="22">
+        <v>89</v>
+      </c>
+      <c r="G35" s="22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18">
+      <c r="A36" s="23">
+        <v>4</v>
+      </c>
+      <c r="B36" s="23">
+        <v>35</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="E36" s="23">
+        <v>4</v>
+      </c>
+      <c r="F36" s="23">
+        <v>91</v>
+      </c>
+      <c r="G36" s="23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="22">
+        <v>4</v>
+      </c>
+      <c r="B37" s="22">
+        <v>36</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" s="22">
+        <v>4</v>
+      </c>
+      <c r="F37" s="22">
+        <v>93</v>
+      </c>
+      <c r="G37" s="22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="36">
+      <c r="A38" s="23">
+        <v>4</v>
+      </c>
+      <c r="B38" s="23">
+        <v>37</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="E38" s="23">
+        <v>4</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="G38" s="23">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="36">
+      <c r="A39" s="22">
+        <v>4</v>
+      </c>
+      <c r="B39" s="22">
+        <v>38</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="E39" s="22">
+        <v>4</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="G39" s="22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="36">
+      <c r="A40" s="23">
+        <v>4</v>
+      </c>
+      <c r="B40" s="23">
+        <v>39</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="E40" s="23">
+        <v>4</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="G40" s="23">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="36">
+      <c r="A41" s="22">
+        <v>4</v>
+      </c>
+      <c r="B41" s="22">
+        <v>40</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E41" s="22">
+        <v>4</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G41" s="22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="23">
+        <v>4</v>
+      </c>
+      <c r="B42" s="23">
+        <v>41</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E42" s="23">
+        <v>4</v>
+      </c>
+      <c r="F42" s="23">
+        <v>84</v>
+      </c>
+      <c r="G42" s="23">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="22">
+        <v>4</v>
+      </c>
+      <c r="B43" s="22">
+        <v>42</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E43" s="22">
+        <v>4</v>
+      </c>
+      <c r="F43" s="22">
+        <v>68</v>
+      </c>
+      <c r="G43" s="22">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="23">
+        <v>4</v>
+      </c>
+      <c r="B44" s="23">
+        <v>43</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E44" s="23">
+        <v>4</v>
+      </c>
+      <c r="F44" s="23">
+        <v>68</v>
+      </c>
+      <c r="G44" s="23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="22">
+        <v>4</v>
+      </c>
+      <c r="B45" s="22">
+        <v>44</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="E45" s="22">
+        <v>4</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="G45" s="22">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="23">
+        <v>4</v>
+      </c>
+      <c r="B46" s="23">
+        <v>45</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="E46" s="23">
+        <v>4</v>
+      </c>
+      <c r="F46" s="23">
+        <v>69</v>
+      </c>
+      <c r="G46" s="23">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="36">
+      <c r="A47" s="22">
+        <v>4</v>
+      </c>
+      <c r="B47" s="22">
         <v>46</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C47" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E47" s="22">
+        <v>4</v>
+      </c>
+      <c r="F47" s="22">
+        <v>70</v>
+      </c>
+      <c r="G47" s="22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="23">
+        <v>4</v>
+      </c>
+      <c r="B48" s="23">
         <v>47</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C48" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="E48" s="23">
+        <v>4</v>
+      </c>
+      <c r="F48" s="23">
+        <v>71</v>
+      </c>
+      <c r="G48" s="23">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="22">
+        <v>4</v>
+      </c>
+      <c r="B49" s="22">
         <v>48</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="C49" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E49" s="22">
+        <v>4</v>
+      </c>
+      <c r="F49" s="22">
+        <v>71</v>
+      </c>
+      <c r="G49" s="22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="36">
+      <c r="A50" s="23">
+        <v>4</v>
+      </c>
+      <c r="B50" s="23">
         <v>49</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="C50" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="E50" s="23">
+        <v>4</v>
+      </c>
+      <c r="F50" s="23">
+        <v>22</v>
+      </c>
+      <c r="G50" s="23">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="22">
+        <v>4</v>
+      </c>
+      <c r="B51" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17">
-      <c r="A2" s="15">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="C51" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="E51" s="22">
+        <v>4</v>
+      </c>
+      <c r="F51" s="22">
+        <v>53</v>
+      </c>
+      <c r="G51" s="22">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="23">
+        <v>4</v>
+      </c>
+      <c r="B52" s="23">
+        <v>51</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="E52" s="23">
+        <v>4</v>
+      </c>
+      <c r="F52" s="23">
+        <v>52</v>
+      </c>
+      <c r="G52" s="23">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="22">
+        <v>4</v>
+      </c>
+      <c r="B53" s="22">
+        <v>52</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="E53" s="22">
+        <v>5</v>
+      </c>
+      <c r="F53" s="22">
+        <v>119</v>
+      </c>
+      <c r="G53" s="22">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="23">
+        <v>4</v>
+      </c>
+      <c r="B54" s="23">
+        <v>53</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E54" s="23">
+        <v>5</v>
+      </c>
+      <c r="F54" s="23">
+        <v>120</v>
+      </c>
+      <c r="G54" s="23">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="22">
+        <v>4</v>
+      </c>
+      <c r="B55" s="22">
+        <v>54</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="E55" s="22">
+        <v>4</v>
+      </c>
+      <c r="F55" s="22">
+        <v>86</v>
+      </c>
+      <c r="G55" s="22">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="23">
+        <v>4</v>
+      </c>
+      <c r="B56" s="23">
+        <v>55</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="E56" s="23">
+        <v>3</v>
+      </c>
+      <c r="F56" s="23">
+        <v>118</v>
+      </c>
+      <c r="G56" s="23">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="22">
+        <v>4</v>
+      </c>
+      <c r="B57" s="22">
+        <v>56</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="23">
+        <v>4</v>
+      </c>
+      <c r="B58" s="23">
+        <v>57</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E58" s="23">
+        <v>4</v>
+      </c>
+      <c r="F58" s="23">
+        <v>87</v>
+      </c>
+      <c r="G58" s="23">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="A59" s="22">
+        <v>4</v>
+      </c>
+      <c r="B59" s="22">
+        <v>58</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="E59" s="22">
+        <v>4</v>
+      </c>
+      <c r="F59" s="22">
+        <v>72</v>
+      </c>
+      <c r="G59" s="22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="A60" s="23">
+        <v>4</v>
+      </c>
+      <c r="B60" s="23">
+        <v>59</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="E60" s="23">
+        <v>4</v>
+      </c>
+      <c r="F60" s="23">
+        <v>3</v>
+      </c>
+      <c r="G60" s="23">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18">
+      <c r="A61" s="22">
+        <v>4</v>
+      </c>
+      <c r="B61" s="22">
+        <v>60</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="E61" s="22">
+        <v>4</v>
+      </c>
+      <c r="F61" s="22">
+        <v>36</v>
+      </c>
+      <c r="G61" s="22">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18">
+      <c r="A62" s="23">
+        <v>4</v>
+      </c>
+      <c r="B62" s="23">
+        <v>61</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" ht="18">
+      <c r="A63" s="22">
+        <v>4</v>
+      </c>
+      <c r="B63" s="22">
+        <v>62</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E63" s="22">
+        <v>4</v>
+      </c>
+      <c r="F63" s="22">
+        <v>77</v>
+      </c>
+      <c r="G63" s="22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19">
+      <c r="A64" s="23">
+        <v>4</v>
+      </c>
+      <c r="B64" s="23">
+        <v>63</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="E64" s="23">
+        <v>4</v>
+      </c>
+      <c r="F64" s="23">
+        <v>78</v>
+      </c>
+      <c r="G64" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="37">
+      <c r="A65" s="22">
+        <v>4</v>
+      </c>
+      <c r="B65" s="22">
+        <v>64</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="E65" s="22">
+        <v>4</v>
+      </c>
+      <c r="F65" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="G65" s="22">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18">
+      <c r="A66" s="23">
+        <v>4</v>
+      </c>
+      <c r="B66" s="23">
+        <v>65</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E66" s="23">
+        <v>4</v>
+      </c>
+      <c r="F66" s="23">
+        <v>54</v>
+      </c>
+      <c r="G66" s="23">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18">
+      <c r="A67" s="22">
+        <v>4</v>
+      </c>
+      <c r="B67" s="22">
+        <v>66</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="E67" s="22">
+        <v>5</v>
+      </c>
+      <c r="F67" s="22">
+        <v>65</v>
+      </c>
+      <c r="G67" s="22">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="37">
+      <c r="A68" s="23">
+        <v>4</v>
+      </c>
+      <c r="B68" s="23">
+        <v>67</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="E68" s="23">
+        <v>4</v>
+      </c>
+      <c r="F68" s="23">
+        <v>82</v>
+      </c>
+      <c r="G68" s="23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18">
+      <c r="A69" s="22">
+        <v>4</v>
+      </c>
+      <c r="B69" s="22">
+        <v>68</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" ht="18">
+      <c r="A70" s="23">
+        <v>4</v>
+      </c>
+      <c r="B70" s="23">
+        <v>69</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="E70" s="23">
+        <v>4</v>
+      </c>
+      <c r="F70" s="23">
+        <v>8</v>
+      </c>
+      <c r="G70" s="23">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18">
+      <c r="A71" s="22">
+        <v>4</v>
+      </c>
+      <c r="B71" s="22">
+        <v>70</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="E71" s="22">
+        <v>4</v>
+      </c>
+      <c r="F71" s="22">
+        <v>12</v>
+      </c>
+      <c r="G71" s="22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18">
+      <c r="A72" s="23">
+        <v>4</v>
+      </c>
+      <c r="B72" s="23">
+        <v>71</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E72" s="23">
+        <v>4</v>
+      </c>
+      <c r="F72" s="23">
+        <v>13</v>
+      </c>
+      <c r="G72" s="23">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18">
+      <c r="A73" s="22">
+        <v>4</v>
+      </c>
+      <c r="B73" s="22">
+        <v>72</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="E73" s="22">
+        <v>4</v>
+      </c>
+      <c r="F73" s="22">
+        <v>63</v>
+      </c>
+      <c r="G73" s="22">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18">
+      <c r="A74" s="23">
+        <v>4</v>
+      </c>
+      <c r="B74" s="23">
+        <v>73</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="E74" s="23">
+        <v>4</v>
+      </c>
+      <c r="F74" s="23">
+        <v>10</v>
+      </c>
+      <c r="G74" s="23">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18">
+      <c r="A75" s="22">
+        <v>4</v>
+      </c>
+      <c r="B75" s="22">
+        <v>74</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="E75" s="22">
+        <v>4</v>
+      </c>
+      <c r="F75" s="22">
+        <v>9</v>
+      </c>
+      <c r="G75" s="22">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18">
+      <c r="A76" s="23">
+        <v>4</v>
+      </c>
+      <c r="B76" s="23">
+        <v>75</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="E76" s="23">
+        <v>4</v>
+      </c>
+      <c r="F76" s="23">
+        <v>11</v>
+      </c>
+      <c r="G76" s="23">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18">
+      <c r="A77" s="22">
+        <v>4</v>
+      </c>
+      <c r="B77" s="22">
+        <v>76</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E77" s="22">
+        <v>4</v>
+      </c>
+      <c r="F77" s="22">
+        <v>112</v>
+      </c>
+      <c r="G77" s="22">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18">
+      <c r="A78" s="23">
+        <v>4</v>
+      </c>
+      <c r="B78" s="23">
+        <v>77</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23">
+        <v>4</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="G78" s="23">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18">
+      <c r="A79" s="22">
+        <v>4</v>
+      </c>
+      <c r="B79" s="22">
+        <v>78</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22">
+        <v>4</v>
+      </c>
+      <c r="F79" s="22">
+        <v>110</v>
+      </c>
+      <c r="G79" s="22">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="75">
+      <c r="A80" s="23">
+        <v>4</v>
+      </c>
+      <c r="B80" s="23">
+        <v>79</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="E80" s="23">
+        <v>4</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" s="23">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="37">
+      <c r="A81" s="22">
+        <v>4</v>
+      </c>
+      <c r="B81" s="22">
+        <v>80</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="E81" s="22">
+        <v>4</v>
+      </c>
+      <c r="F81" s="22">
+        <v>111</v>
+      </c>
+      <c r="G81" s="22">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="37">
+      <c r="A82" s="23">
+        <v>4</v>
+      </c>
+      <c r="B82" s="23">
+        <v>81</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E82" s="23">
+        <v>4</v>
+      </c>
+      <c r="F82" s="23">
+        <v>126</v>
+      </c>
+      <c r="G82" s="23">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18">
+      <c r="A83" s="22">
+        <v>4</v>
+      </c>
+      <c r="B83" s="22">
+        <v>82</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="E83" s="22">
+        <v>3</v>
+      </c>
+      <c r="F83" s="22">
+        <v>138</v>
+      </c>
+      <c r="G83" s="22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="37">
+      <c r="A84" s="23">
+        <v>4</v>
+      </c>
+      <c r="B84" s="23">
+        <v>83</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" ht="75">
+      <c r="A85" s="22">
+        <v>4</v>
+      </c>
+      <c r="B85" s="22">
+        <v>84</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22">
+        <v>4</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85" s="22">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18">
+      <c r="A86" s="23">
+        <v>4</v>
+      </c>
+      <c r="B86" s="23">
         <v>85</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="E2" s="15">
-        <v>4</v>
-      </c>
-      <c r="F2" s="15">
-        <v>44</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="C86" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="1:7" ht="18">
+      <c r="A87" s="22">
+        <v>4</v>
+      </c>
+      <c r="B87" s="22">
+        <v>86</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="1:7" ht="37">
+      <c r="A88" s="23">
+        <v>4</v>
+      </c>
+      <c r="B88" s="23">
+        <v>87</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="E88" s="23">
+        <v>3</v>
+      </c>
+      <c r="F88" s="23">
+        <v>134</v>
+      </c>
+      <c r="G88" s="23">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="37">
+      <c r="A89" s="22">
+        <v>4</v>
+      </c>
+      <c r="B89" s="22">
+        <v>88</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="E89" s="22">
+        <v>4</v>
+      </c>
+      <c r="F89" s="22">
+        <v>97</v>
+      </c>
+      <c r="G89" s="22">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="37">
+      <c r="A90" s="23">
+        <v>4</v>
+      </c>
+      <c r="B90" s="23">
+        <v>89</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="E90" s="23">
+        <v>4</v>
+      </c>
+      <c r="F90" s="23">
+        <v>60</v>
+      </c>
+      <c r="G90" s="23">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18">
+      <c r="A91" s="22">
+        <v>4</v>
+      </c>
+      <c r="B91" s="22">
+        <v>90</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="E91" s="22">
+        <v>4</v>
+      </c>
+      <c r="F91" s="22">
+        <v>51</v>
+      </c>
+      <c r="G91" s="22">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="19">
+      <c r="A92" s="23">
+        <v>4</v>
+      </c>
+      <c r="B92" s="23">
+        <v>91</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="E92" s="23">
+        <v>4</v>
+      </c>
+      <c r="F92" s="23">
+        <v>41</v>
+      </c>
+      <c r="G92" s="23">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18">
+      <c r="A93" s="22">
+        <v>4</v>
+      </c>
+      <c r="B93" s="22">
+        <v>92</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E93" s="22">
+        <v>4</v>
+      </c>
+      <c r="F93" s="22">
+        <v>43</v>
+      </c>
+      <c r="G93" s="22">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="20">
-        <v>4</v>
-      </c>
-      <c r="B3" s="20">
-        <v>2</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="20">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20">
-        <v>58</v>
-      </c>
-      <c r="G3" s="20">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17">
-      <c r="A4" s="15">
-        <v>4</v>
-      </c>
-      <c r="B4" s="15">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" s="15">
-        <v>4</v>
-      </c>
-      <c r="F4" s="15">
-        <v>57</v>
-      </c>
-      <c r="G4" s="15">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>4</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="20">
-        <v>53</v>
-      </c>
-      <c r="G5" s="20">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15">
+    <row r="94" spans="1:7" ht="18">
+      <c r="A94" s="23">
+        <v>4</v>
+      </c>
+      <c r="B94" s="23">
+        <v>93</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="E94" s="23">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15">
-        <v>33</v>
-      </c>
-      <c r="G6" s="15">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17">
-      <c r="A7" s="20">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20">
-        <v>6</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="20">
-        <v>4</v>
-      </c>
-      <c r="F7" s="20">
-        <v>34</v>
-      </c>
-      <c r="G7" s="20">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17">
-      <c r="A8" s="15">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15">
-        <v>35</v>
-      </c>
-      <c r="G8" s="15">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17">
-      <c r="A9" s="20">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20">
-        <v>8</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="E9" s="20">
-        <v>5</v>
-      </c>
-      <c r="F9" s="20">
-        <v>69</v>
-      </c>
-      <c r="G9" s="20">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17">
-      <c r="A10" s="15">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4</v>
-      </c>
-      <c r="F10" s="15">
-        <v>23</v>
-      </c>
-      <c r="G10" s="15">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17">
-      <c r="A11" s="20">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" s="20">
-        <v>4</v>
-      </c>
-      <c r="F11" s="20">
-        <v>85</v>
-      </c>
-      <c r="G11" s="20">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="15">
-        <v>11</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12" s="15">
-        <v>4</v>
-      </c>
-      <c r="F12" s="15">
-        <v>84</v>
-      </c>
-      <c r="G12" s="15">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17">
-      <c r="A13" s="20">
-        <v>4</v>
-      </c>
-      <c r="B13" s="20">
-        <v>12</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="E13" s="20">
-        <v>5</v>
-      </c>
-      <c r="F13" s="20">
-        <v>112</v>
-      </c>
-      <c r="G13" s="20">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34">
-      <c r="A14" s="15">
-        <v>4</v>
-      </c>
-      <c r="B14" s="15">
-        <v>13</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4</v>
-      </c>
-      <c r="F14" s="15">
-        <v>30</v>
-      </c>
-      <c r="G14" s="15">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17">
-      <c r="A15" s="20">
-        <v>4</v>
-      </c>
-      <c r="B15" s="20">
-        <v>14</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="34">
-      <c r="A16" s="15">
-        <v>4</v>
-      </c>
-      <c r="B16" s="15">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="E16" s="15">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G16" s="15">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34">
-      <c r="A17" s="20">
-        <v>4</v>
-      </c>
-      <c r="B17" s="20">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="E17" s="20">
-        <v>4</v>
-      </c>
-      <c r="F17" s="20">
-        <v>26</v>
-      </c>
-      <c r="G17" s="20">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34">
-      <c r="A18" s="15">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15">
-        <v>17</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="E18" s="15">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15">
-        <v>28</v>
-      </c>
-      <c r="G18" s="15">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="51">
-      <c r="A19" s="20">
-        <v>4</v>
-      </c>
-      <c r="B19" s="20">
-        <v>18</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="E19" s="20">
-        <v>4</v>
-      </c>
-      <c r="F19" s="20">
-        <v>29</v>
-      </c>
-      <c r="G19" s="20">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17">
-      <c r="A20" s="15">
-        <v>4</v>
-      </c>
-      <c r="B20" s="15">
-        <v>19</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="E20" s="15">
-        <v>3</v>
-      </c>
-      <c r="F20" s="15">
-        <v>31</v>
-      </c>
-      <c r="G20" s="15">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17">
-      <c r="A21" s="20">
-        <v>4</v>
-      </c>
-      <c r="B21" s="20">
-        <v>20</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="E21" s="20">
-        <v>3</v>
-      </c>
-      <c r="F21" s="20">
-        <v>29</v>
-      </c>
-      <c r="G21" s="20">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17">
-      <c r="A22" s="15">
-        <v>4</v>
-      </c>
-      <c r="B22" s="15">
-        <v>21</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="E22" s="15">
-        <v>4</v>
-      </c>
-      <c r="F22" s="15">
-        <v>16</v>
-      </c>
-      <c r="G22" s="15">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17">
-      <c r="A23" s="20">
-        <v>4</v>
-      </c>
-      <c r="B23" s="20">
-        <v>22</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="E23" s="20">
-        <v>4</v>
-      </c>
-      <c r="F23" s="20">
-        <v>15</v>
-      </c>
-      <c r="G23" s="20">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17">
-      <c r="A24" s="15">
-        <v>4</v>
-      </c>
-      <c r="B24" s="15">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="E24" s="15">
-        <v>4</v>
-      </c>
-      <c r="F24" s="15">
-        <v>18</v>
-      </c>
-      <c r="G24" s="15">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17">
-      <c r="A25" s="20">
-        <v>4</v>
-      </c>
-      <c r="B25" s="20">
-        <v>24</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="E25" s="20">
-        <v>4</v>
-      </c>
-      <c r="F25" s="20">
-        <v>17</v>
-      </c>
-      <c r="G25" s="20">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17">
-      <c r="A26" s="15">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15">
-        <v>25</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="F94" s="23">
+        <v>105</v>
+      </c>
+      <c r="G94" s="23">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18">
+      <c r="A95" s="22">
+        <v>4</v>
+      </c>
+      <c r="B95" s="22">
         <v>94</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="E26" s="15">
-        <v>4</v>
-      </c>
-      <c r="F26" s="15">
-        <v>14</v>
-      </c>
-      <c r="G26" s="15">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17">
-      <c r="A27" s="20">
-        <v>4</v>
-      </c>
-      <c r="B27" s="20">
-        <v>26</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="E27" s="20">
-        <v>5</v>
-      </c>
-      <c r="F27" s="20">
-        <v>108</v>
-      </c>
-      <c r="G27" s="20">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17">
-      <c r="A28" s="15">
-        <v>4</v>
-      </c>
-      <c r="B28" s="15">
-        <v>27</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="17">
-      <c r="A29" s="20">
-        <v>4</v>
-      </c>
-      <c r="B29" s="20">
-        <v>28</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="17">
-      <c r="A30" s="15">
-        <v>4</v>
-      </c>
-      <c r="B30" s="15">
-        <v>29</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="17">
-      <c r="A31" s="20">
-        <v>4</v>
-      </c>
-      <c r="B31" s="20">
-        <v>30</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="E31" s="20">
-        <v>4</v>
-      </c>
-      <c r="F31" s="20">
-        <v>31</v>
-      </c>
-      <c r="G31" s="20">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17">
-      <c r="A32" s="15">
-        <v>4</v>
-      </c>
-      <c r="B32" s="15">
-        <v>31</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="E32" s="15">
-        <v>4</v>
-      </c>
-      <c r="F32" s="15">
-        <v>32</v>
-      </c>
-      <c r="G32" s="15">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="34">
-      <c r="A33" s="20">
-        <v>4</v>
-      </c>
-      <c r="B33" s="20">
-        <v>32</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" ht="17">
-      <c r="A34" s="15">
-        <v>4</v>
-      </c>
-      <c r="B34" s="15">
-        <v>33</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="E34" s="15">
-        <v>4</v>
-      </c>
-      <c r="F34" s="15">
-        <v>80</v>
-      </c>
-      <c r="G34" s="15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17">
-      <c r="A35" s="20">
-        <v>4</v>
-      </c>
-      <c r="B35" s="20">
-        <v>34</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="E35" s="20">
-        <v>4</v>
-      </c>
-      <c r="F35" s="20">
-        <v>89</v>
-      </c>
-      <c r="G35" s="20">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17">
-      <c r="A36" s="15">
-        <v>4</v>
-      </c>
-      <c r="B36" s="15">
-        <v>35</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="E36" s="15">
-        <v>4</v>
-      </c>
-      <c r="F36" s="15">
-        <v>91</v>
-      </c>
-      <c r="G36" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17">
-      <c r="A37" s="20">
-        <v>4</v>
-      </c>
-      <c r="B37" s="20">
-        <v>36</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="E37" s="20">
-        <v>4</v>
-      </c>
-      <c r="F37" s="20">
-        <v>93</v>
-      </c>
-      <c r="G37" s="20">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="34">
-      <c r="A38" s="15">
-        <v>4</v>
-      </c>
-      <c r="B38" s="15">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="E38" s="15">
-        <v>4</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="G38" s="15">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="34">
-      <c r="A39" s="20">
-        <v>4</v>
-      </c>
-      <c r="B39" s="20">
-        <v>38</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>611</v>
-      </c>
-      <c r="E39" s="20">
-        <v>4</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="G39" s="20">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="34">
-      <c r="A40" s="15">
-        <v>4</v>
-      </c>
-      <c r="B40" s="15">
-        <v>39</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="E40" s="15">
-        <v>4</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="G40" s="15">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="34">
-      <c r="A41" s="20">
-        <v>4</v>
-      </c>
-      <c r="B41" s="20">
-        <v>40</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="E41" s="20">
-        <v>4</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="G41" s="20">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17">
-      <c r="A42" s="15">
-        <v>4</v>
-      </c>
-      <c r="B42" s="15">
-        <v>41</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="E42" s="15">
-        <v>4</v>
-      </c>
-      <c r="F42" s="15">
-        <v>84</v>
-      </c>
-      <c r="G42" s="15">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17">
-      <c r="A43" s="20">
-        <v>4</v>
-      </c>
-      <c r="B43" s="20">
-        <v>42</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="E43" s="20">
-        <v>4</v>
-      </c>
-      <c r="F43" s="20">
-        <v>68</v>
-      </c>
-      <c r="G43" s="20">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17">
-      <c r="A44" s="15">
-        <v>4</v>
-      </c>
-      <c r="B44" s="15">
-        <v>43</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="E44" s="15">
-        <v>4</v>
-      </c>
-      <c r="F44" s="15">
-        <v>68</v>
-      </c>
-      <c r="G44" s="15">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17">
-      <c r="A45" s="20">
-        <v>4</v>
-      </c>
-      <c r="B45" s="20">
-        <v>44</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="E45" s="20">
-        <v>4</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="G45" s="20">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17">
-      <c r="A46" s="15">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15">
-        <v>45</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="E46" s="15">
-        <v>4</v>
-      </c>
-      <c r="F46" s="15">
-        <v>69</v>
-      </c>
-      <c r="G46" s="15">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="34">
-      <c r="A47" s="20">
-        <v>4</v>
-      </c>
-      <c r="B47" s="20">
-        <v>46</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="E47" s="20">
-        <v>4</v>
-      </c>
-      <c r="F47" s="20">
-        <v>70</v>
-      </c>
-      <c r="G47" s="20">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17">
-      <c r="A48" s="15">
-        <v>4</v>
-      </c>
-      <c r="B48" s="15">
-        <v>47</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="E48" s="15">
-        <v>4</v>
-      </c>
-      <c r="F48" s="15">
-        <v>71</v>
-      </c>
-      <c r="G48" s="15">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17">
-      <c r="A49" s="20">
-        <v>4</v>
-      </c>
-      <c r="B49" s="20">
-        <v>48</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="E49" s="20">
-        <v>4</v>
-      </c>
-      <c r="F49" s="20">
-        <v>71</v>
-      </c>
-      <c r="G49" s="20">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="34">
-      <c r="A50" s="15">
-        <v>4</v>
-      </c>
-      <c r="B50" s="15">
-        <v>49</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="E50" s="15">
-        <v>4</v>
-      </c>
-      <c r="F50" s="15">
-        <v>22</v>
-      </c>
-      <c r="G50" s="15">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17">
-      <c r="A51" s="20">
-        <v>4</v>
-      </c>
-      <c r="B51" s="20">
-        <v>50</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="E51" s="20">
-        <v>4</v>
-      </c>
-      <c r="F51" s="20">
-        <v>53</v>
-      </c>
-      <c r="G51" s="20">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17">
-      <c r="A52" s="15">
-        <v>4</v>
-      </c>
-      <c r="B52" s="15">
-        <v>51</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="E52" s="15">
-        <v>4</v>
-      </c>
-      <c r="F52" s="15">
-        <v>52</v>
-      </c>
-      <c r="G52" s="15">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17">
-      <c r="A53" s="20">
-        <v>4</v>
-      </c>
-      <c r="B53" s="20">
-        <v>52</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="E53" s="20">
-        <v>5</v>
-      </c>
-      <c r="F53" s="20">
-        <v>119</v>
-      </c>
-      <c r="G53" s="20">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17">
-      <c r="A54" s="15">
-        <v>4</v>
-      </c>
-      <c r="B54" s="15">
-        <v>53</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="E54" s="15">
-        <v>5</v>
-      </c>
-      <c r="F54" s="15">
-        <v>120</v>
-      </c>
-      <c r="G54" s="15">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17">
-      <c r="A55" s="20">
-        <v>4</v>
-      </c>
-      <c r="B55" s="20">
-        <v>54</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="E55" s="20">
-        <v>4</v>
-      </c>
-      <c r="F55" s="20">
-        <v>86</v>
-      </c>
-      <c r="G55" s="20">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17">
-      <c r="A56" s="15">
-        <v>4</v>
-      </c>
-      <c r="B56" s="15">
-        <v>55</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="E56" s="15">
-        <v>3</v>
-      </c>
-      <c r="F56" s="15">
-        <v>118</v>
-      </c>
-      <c r="G56" s="15">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17">
-      <c r="A57" s="20">
-        <v>4</v>
-      </c>
-      <c r="B57" s="20">
-        <v>56</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" ht="17">
-      <c r="A58" s="15">
-        <v>4</v>
-      </c>
-      <c r="B58" s="15">
-        <v>57</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="E58" s="15">
-        <v>4</v>
-      </c>
-      <c r="F58" s="15">
-        <v>87</v>
-      </c>
-      <c r="G58" s="15">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17">
-      <c r="A59" s="20">
-        <v>4</v>
-      </c>
-      <c r="B59" s="20">
-        <v>58</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="E59" s="20">
-        <v>4</v>
-      </c>
-      <c r="F59" s="20">
-        <v>72</v>
-      </c>
-      <c r="G59" s="20">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="17">
-      <c r="A60" s="15">
-        <v>4</v>
-      </c>
-      <c r="B60" s="15">
-        <v>59</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="E60" s="15">
-        <v>4</v>
-      </c>
-      <c r="F60" s="15">
-        <v>3</v>
-      </c>
-      <c r="G60" s="15">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="17">
-      <c r="A61" s="20">
-        <v>4</v>
-      </c>
-      <c r="B61" s="20">
-        <v>60</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="E61" s="20">
-        <v>4</v>
-      </c>
-      <c r="F61" s="20">
-        <v>36</v>
-      </c>
-      <c r="G61" s="20">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17">
-      <c r="A62" s="15">
-        <v>4</v>
-      </c>
-      <c r="B62" s="15">
+      <c r="C95" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="E95" s="22">
+        <v>4</v>
+      </c>
+      <c r="F95" s="22">
         <v>61</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" ht="17">
-      <c r="A63" s="20">
-        <v>4</v>
-      </c>
-      <c r="B63" s="20">
-        <v>62</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="E63" s="20">
-        <v>4</v>
-      </c>
-      <c r="F63" s="20">
-        <v>77</v>
-      </c>
-      <c r="G63" s="20">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="18">
-      <c r="A64" s="15">
-        <v>4</v>
-      </c>
-      <c r="B64" s="15">
-        <v>63</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="E64" s="15">
-        <v>4</v>
-      </c>
-      <c r="F64" s="15">
-        <v>78</v>
-      </c>
-      <c r="G64" s="15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="35">
-      <c r="A65" s="20">
-        <v>4</v>
-      </c>
-      <c r="B65" s="20">
-        <v>64</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="E65" s="20">
-        <v>4</v>
-      </c>
-      <c r="F65" s="20">
-        <v>1</v>
-      </c>
-      <c r="G65" s="20">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17">
-      <c r="A66" s="15">
-        <v>4</v>
-      </c>
-      <c r="B66" s="15">
-        <v>65</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="E66" s="15">
-        <v>4</v>
-      </c>
-      <c r="F66" s="15">
-        <v>54</v>
-      </c>
-      <c r="G66" s="15">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17">
-      <c r="A67" s="20">
-        <v>4</v>
-      </c>
-      <c r="B67" s="20">
-        <v>66</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="E67" s="20">
-        <v>5</v>
-      </c>
-      <c r="F67" s="20">
-        <v>65</v>
-      </c>
-      <c r="G67" s="20">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="35">
-      <c r="A68" s="15">
-        <v>4</v>
-      </c>
-      <c r="B68" s="15">
-        <v>67</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="E68" s="15">
-        <v>4</v>
-      </c>
-      <c r="F68" s="15">
-        <v>82</v>
-      </c>
-      <c r="G68" s="15">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17">
-      <c r="A69" s="20">
-        <v>4</v>
-      </c>
-      <c r="B69" s="20">
-        <v>68</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" ht="17">
-      <c r="A70" s="15">
-        <v>4</v>
-      </c>
-      <c r="B70" s="15">
-        <v>69</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="E70" s="15">
-        <v>4</v>
-      </c>
-      <c r="F70" s="15">
-        <v>8</v>
-      </c>
-      <c r="G70" s="15">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17">
-      <c r="A71" s="20">
-        <v>4</v>
-      </c>
-      <c r="B71" s="20">
-        <v>70</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="E71" s="20">
-        <v>4</v>
-      </c>
-      <c r="F71" s="20">
-        <v>12</v>
-      </c>
-      <c r="G71" s="20">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="17">
-      <c r="A72" s="15">
-        <v>4</v>
-      </c>
-      <c r="B72" s="15">
-        <v>71</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="E72" s="15">
-        <v>4</v>
-      </c>
-      <c r="F72" s="15">
-        <v>13</v>
-      </c>
-      <c r="G72" s="15">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="17">
-      <c r="A73" s="20">
-        <v>4</v>
-      </c>
-      <c r="B73" s="20">
-        <v>72</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="E73" s="20">
-        <v>4</v>
-      </c>
-      <c r="F73" s="20">
-        <v>63</v>
-      </c>
-      <c r="G73" s="20">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="17">
-      <c r="A74" s="15">
-        <v>4</v>
-      </c>
-      <c r="B74" s="15">
-        <v>73</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="E74" s="15">
-        <v>4</v>
-      </c>
-      <c r="F74" s="15">
-        <v>10</v>
-      </c>
-      <c r="G74" s="15">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="17">
-      <c r="A75" s="20">
-        <v>4</v>
-      </c>
-      <c r="B75" s="20">
-        <v>74</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="E75" s="20">
-        <v>4</v>
-      </c>
-      <c r="F75" s="20">
-        <v>9</v>
-      </c>
-      <c r="G75" s="20">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="17">
-      <c r="A76" s="15">
-        <v>4</v>
-      </c>
-      <c r="B76" s="15">
-        <v>75</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="E76" s="15">
-        <v>4</v>
-      </c>
-      <c r="F76" s="15">
-        <v>11</v>
-      </c>
-      <c r="G76" s="15">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="17">
-      <c r="A77" s="20">
-        <v>4</v>
-      </c>
-      <c r="B77" s="20">
-        <v>76</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="E77" s="20">
-        <v>4</v>
-      </c>
-      <c r="F77" s="20">
-        <v>112</v>
-      </c>
-      <c r="G77" s="20">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="17">
-      <c r="A78" s="15">
-        <v>4</v>
-      </c>
-      <c r="B78" s="15">
-        <v>77</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15">
-        <v>4</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="G78" s="15">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="17">
-      <c r="A79" s="20">
-        <v>4</v>
-      </c>
-      <c r="B79" s="20">
-        <v>78</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20">
-        <v>4</v>
-      </c>
-      <c r="F79" s="20">
-        <v>110</v>
-      </c>
-      <c r="G79" s="20">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="71">
-      <c r="A80" s="15">
-        <v>4</v>
-      </c>
-      <c r="B80" s="15">
-        <v>79</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="E80" s="15">
-        <v>4</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="G80" s="15">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="35">
-      <c r="A81" s="20">
-        <v>4</v>
-      </c>
-      <c r="B81" s="20">
-        <v>80</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="E81" s="20">
-        <v>4</v>
-      </c>
-      <c r="F81" s="20">
-        <v>111</v>
-      </c>
-      <c r="G81" s="20">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="35">
-      <c r="A82" s="15">
-        <v>4</v>
-      </c>
-      <c r="B82" s="15">
-        <v>81</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="E82" s="15">
-        <v>4</v>
-      </c>
-      <c r="F82" s="15">
-        <v>126</v>
-      </c>
-      <c r="G82" s="15">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="17">
-      <c r="A83" s="20">
-        <v>4</v>
-      </c>
-      <c r="B83" s="20">
-        <v>82</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="E83" s="20">
-        <v>3</v>
-      </c>
-      <c r="F83" s="20">
-        <v>138</v>
-      </c>
-      <c r="G83" s="20">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="35">
-      <c r="A84" s="15">
-        <v>4</v>
-      </c>
-      <c r="B84" s="15">
-        <v>83</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7" ht="71">
-      <c r="A85" s="20">
-        <v>4</v>
-      </c>
-      <c r="B85" s="20">
-        <v>84</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20">
-        <v>4</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="G85" s="20">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="17">
-      <c r="A86" s="15">
-        <v>4</v>
-      </c>
-      <c r="B86" s="15">
-        <v>85</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="1:7" ht="17">
-      <c r="A87" s="20">
-        <v>4</v>
-      </c>
-      <c r="B87" s="20">
-        <v>86</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-    </row>
-    <row r="88" spans="1:7" ht="35">
-      <c r="A88" s="15">
-        <v>4</v>
-      </c>
-      <c r="B88" s="15">
-        <v>87</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="E88" s="15">
-        <v>3</v>
-      </c>
-      <c r="F88" s="15">
-        <v>134</v>
-      </c>
-      <c r="G88" s="15">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="35">
-      <c r="A89" s="20">
-        <v>4</v>
-      </c>
-      <c r="B89" s="20">
-        <v>88</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="E89" s="20">
-        <v>4</v>
-      </c>
-      <c r="F89" s="20">
-        <v>97</v>
-      </c>
-      <c r="G89" s="20">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="35">
-      <c r="A90" s="15">
-        <v>4</v>
-      </c>
-      <c r="B90" s="15">
-        <v>89</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="E90" s="15">
-        <v>4</v>
-      </c>
-      <c r="F90" s="15">
-        <v>60</v>
-      </c>
-      <c r="G90" s="15">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="17">
-      <c r="A91" s="20">
-        <v>4</v>
-      </c>
-      <c r="B91" s="20">
-        <v>90</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="E91" s="20">
-        <v>4</v>
-      </c>
-      <c r="F91" s="20">
-        <v>51</v>
-      </c>
-      <c r="G91" s="20">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18">
-      <c r="A92" s="15">
-        <v>4</v>
-      </c>
-      <c r="B92" s="15">
-        <v>91</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="E92" s="15">
-        <v>4</v>
-      </c>
-      <c r="F92" s="15">
-        <v>41</v>
-      </c>
-      <c r="G92" s="15">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="17">
-      <c r="A93" s="20">
-        <v>4</v>
-      </c>
-      <c r="B93" s="20">
-        <v>92</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="E93" s="20">
-        <v>4</v>
-      </c>
-      <c r="F93" s="20">
-        <v>43</v>
-      </c>
-      <c r="G93" s="20">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="17">
-      <c r="A94" s="15">
-        <v>4</v>
-      </c>
-      <c r="B94" s="15">
-        <v>93</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="E94" s="15">
-        <v>5</v>
-      </c>
-      <c r="F94" s="15">
-        <v>105</v>
-      </c>
-      <c r="G94" s="15">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="17">
-      <c r="A95" s="20">
-        <v>4</v>
-      </c>
-      <c r="B95" s="20">
-        <v>94</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="E95" s="20">
-        <v>4</v>
-      </c>
-      <c r="F95" s="20">
-        <v>61</v>
-      </c>
-      <c r="G95" s="20">
+      <c r="G95" s="22">
         <v>242</v>
       </c>
     </row>
@@ -8398,7 +9551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+    <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -10832,14 +11985,1487 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C16DA70-DEB9-4296-9F6F-9DB06B5E65D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="233" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="5" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="35">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="35">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="35">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="35">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="35">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="35">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="53">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="34">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="53">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="35">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="13">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="35">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="35">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="16">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13">
+        <v>26</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="16">
+      <c r="A28" s="13">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13">
+        <v>27</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="16">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="16">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13">
+        <v>29</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="16">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13">
+        <v>30</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="53">
+      <c r="A32" s="13">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13">
+        <v>31</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" ht="16">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13">
+        <v>32</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" ht="16">
+      <c r="A34" s="13">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13">
+        <v>33</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="16">
+      <c r="A35" s="13">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
+        <v>34</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" ht="16">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13">
+        <v>35</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="16">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13">
+        <v>36</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="16">
+      <c r="A38" s="13">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13">
+        <v>37</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" ht="35">
+      <c r="A39" s="13">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13">
+        <v>38</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" ht="16">
+      <c r="A40" s="13">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13">
+        <v>39</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" ht="35">
+      <c r="A41" s="13">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13">
+        <v>40</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" ht="16">
+      <c r="A42" s="13">
+        <v>1</v>
+      </c>
+      <c r="B42" s="13">
+        <v>41</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" ht="35">
+      <c r="A43" s="13">
+        <v>1</v>
+      </c>
+      <c r="B43" s="13">
+        <v>42</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" ht="16">
+      <c r="A44" s="13">
+        <v>1</v>
+      </c>
+      <c r="B44" s="13">
+        <v>43</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" ht="16">
+      <c r="A45" s="13">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13">
+        <v>44</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" ht="16">
+      <c r="A46" s="13">
+        <v>1</v>
+      </c>
+      <c r="B46" s="13">
+        <v>45</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" ht="35">
+      <c r="A47" s="13">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13">
+        <v>46</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" ht="16">
+      <c r="A48" s="13">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13">
+        <v>47</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" ht="16">
+      <c r="A49" s="13">
+        <v>1</v>
+      </c>
+      <c r="B49" s="13">
+        <v>48</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" ht="16">
+      <c r="A50" s="13">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13">
+        <v>49</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" ht="35">
+      <c r="A51" s="13">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13">
+        <v>50</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" ht="35">
+      <c r="A52" s="13">
+        <v>1</v>
+      </c>
+      <c r="B52" s="13">
+        <v>51</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" ht="16">
+      <c r="A53" s="13">
+        <v>1</v>
+      </c>
+      <c r="B53" s="13">
+        <v>52</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7" ht="53">
+      <c r="A54" s="13">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13">
+        <v>53</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" ht="35">
+      <c r="A55" s="13">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13">
+        <v>54</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:7" ht="16">
+      <c r="A56" s="13">
+        <v>1</v>
+      </c>
+      <c r="B56" s="13">
+        <v>55</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7" ht="16">
+      <c r="A57" s="13">
+        <v>1</v>
+      </c>
+      <c r="B57" s="13">
+        <v>56</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7" ht="16">
+      <c r="A58" s="13">
+        <v>1</v>
+      </c>
+      <c r="B58" s="13">
+        <v>57</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" ht="16">
+      <c r="A59" s="13">
+        <v>1</v>
+      </c>
+      <c r="B59" s="13">
+        <v>58</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" ht="35">
+      <c r="A60" s="13">
+        <v>1</v>
+      </c>
+      <c r="B60" s="13">
+        <v>59</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" ht="16">
+      <c r="A61" s="13">
+        <v>1</v>
+      </c>
+      <c r="B61" s="13">
+        <v>60</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" ht="35">
+      <c r="A62" s="13">
+        <v>1</v>
+      </c>
+      <c r="B62" s="13">
+        <v>61</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" ht="16">
+      <c r="A63" s="13">
+        <v>1</v>
+      </c>
+      <c r="B63" s="13">
+        <v>62</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" ht="35">
+      <c r="A64" s="13">
+        <v>1</v>
+      </c>
+      <c r="B64" s="13">
+        <v>63</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7" ht="16">
+      <c r="A65" s="13">
+        <v>1</v>
+      </c>
+      <c r="B65" s="13">
+        <v>64</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7" ht="16">
+      <c r="A66" s="13">
+        <v>1</v>
+      </c>
+      <c r="B66" s="13">
+        <v>65</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" ht="16">
+      <c r="A67" s="13">
+        <v>1</v>
+      </c>
+      <c r="B67" s="13">
+        <v>66</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" ht="16">
+      <c r="A68" s="13">
+        <v>1</v>
+      </c>
+      <c r="B68" s="13">
+        <v>67</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7" ht="16">
+      <c r="A69" s="13">
+        <v>1</v>
+      </c>
+      <c r="B69" s="13">
+        <v>68</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:7" ht="35">
+      <c r="A70" s="13">
+        <v>1</v>
+      </c>
+      <c r="B70" s="13">
+        <v>69</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7" ht="35">
+      <c r="A71" s="13">
+        <v>1</v>
+      </c>
+      <c r="B71" s="13">
+        <v>70</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7" ht="16">
+      <c r="A72" s="13">
+        <v>1</v>
+      </c>
+      <c r="B72" s="13">
+        <v>71</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" ht="16">
+      <c r="A73" s="13">
+        <v>1</v>
+      </c>
+      <c r="B73" s="13">
+        <v>72</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7" ht="16">
+      <c r="A74" s="13">
+        <v>1</v>
+      </c>
+      <c r="B74" s="13">
+        <v>73</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7" ht="16">
+      <c r="A75" s="13">
+        <v>1</v>
+      </c>
+      <c r="B75" s="13">
+        <v>74</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7" ht="16">
+      <c r="A76" s="13">
+        <v>1</v>
+      </c>
+      <c r="B76" s="13">
+        <v>75</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="1:7" ht="16">
+      <c r="A77" s="13">
+        <v>1</v>
+      </c>
+      <c r="B77" s="13">
+        <v>76</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7" ht="16">
+      <c r="A78" s="13">
+        <v>1</v>
+      </c>
+      <c r="B78" s="13">
+        <v>77</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" ht="16">
+      <c r="A79" s="13">
+        <v>1</v>
+      </c>
+      <c r="B79" s="13">
+        <v>78</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7" ht="35">
+      <c r="A80" s="13">
+        <v>1</v>
+      </c>
+      <c r="B80" s="13">
+        <v>79</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" ht="16">
+      <c r="A81" s="13">
+        <v>1</v>
+      </c>
+      <c r="B81" s="13">
+        <v>80</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="1:7" ht="16">
+      <c r="A82" s="13">
+        <v>1</v>
+      </c>
+      <c r="B82" s="13">
+        <v>81</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:7" ht="16">
+      <c r="A83" s="13">
+        <v>1</v>
+      </c>
+      <c r="B83" s="13">
+        <v>82</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" ht="35">
+      <c r="A84" s="13">
+        <v>1</v>
+      </c>
+      <c r="B84" s="13">
+        <v>83</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" ht="35">
+      <c r="A85" s="13">
+        <v>1</v>
+      </c>
+      <c r="B85" s="13">
+        <v>84</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" ht="16">
+      <c r="A86" s="13">
+        <v>1</v>
+      </c>
+      <c r="B86" s="13">
+        <v>85</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" ht="16">
+      <c r="A87" s="13">
+        <v>1</v>
+      </c>
+      <c r="B87" s="13">
+        <v>86</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" ht="16">
+      <c r="A88" s="13">
+        <v>1</v>
+      </c>
+      <c r="B88" s="13">
+        <v>87</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" ht="16">
+      <c r="A89" s="13">
+        <v>1</v>
+      </c>
+      <c r="B89" s="13">
+        <v>88</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" spans="1:7" ht="16">
+      <c r="A90" s="13">
+        <v>1</v>
+      </c>
+      <c r="B90" s="13">
+        <v>89</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" spans="1:7" ht="16">
+      <c r="A91" s="13">
+        <v>1</v>
+      </c>
+      <c r="B91" s="13">
+        <v>90</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" ht="16">
+      <c r="A92" s="13">
+        <v>1</v>
+      </c>
+      <c r="B92" s="13">
+        <v>91</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" ht="35">
+      <c r="A93" s="13">
+        <v>1</v>
+      </c>
+      <c r="B93" s="13">
+        <v>92</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="1:7" ht="16">
+      <c r="A94" s="13">
+        <v>1</v>
+      </c>
+      <c r="B94" s="13">
+        <v>93</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" spans="1:7" ht="35">
+      <c r="A95" s="13">
+        <v>1</v>
+      </c>
+      <c r="B95" s="13">
+        <v>94</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" spans="1:7" ht="16">
+      <c r="A96" s="13">
+        <v>1</v>
+      </c>
+      <c r="B96" s="13">
+        <v>95</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+    </row>
+    <row r="97" spans="1:7" ht="16">
+      <c r="A97" s="13">
+        <v>1</v>
+      </c>
+      <c r="B97" s="13">
+        <v>96</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/出口日語/出口日语学习进度.xlsx
+++ b/出口日語/出口日语学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihana/GitHub/Japanese/出口日語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B2B51D-E8E8-BB46-8DE3-5A5AF2AC7E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1FF20-1EB6-904F-A449-F65E1CCCAF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N5" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="N1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'N2'!$B$1:$G$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'N2'!$A$1:$H$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'N1'!$A$1:$G$97</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'N1'!$1:$1</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="753">
   <si>
     <t>～一方だ</t>
   </si>
@@ -3983,6 +3983,10 @@
   </si>
   <si>
     <t>级</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全掌握</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4114,7 +4118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4179,6 +4183,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5255,7 +5263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF5FAC9-7E8F-4987-B664-D67CC8417A32}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6939,7 +6947,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18">
+    <row r="76" spans="1:7" ht="36">
       <c r="A76" s="23">
         <v>4</v>
       </c>
@@ -9549,10 +9557,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -9564,6 +9573,7 @@
     <col min="5" max="5" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
@@ -9588,82 +9598,84 @@
       <c r="G1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="24" t="s">
+        <v>752</v>
+      </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="17" hidden="1">
       <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="17">
+        <v>71</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="F2" s="17">
+        <v>152</v>
+      </c>
+      <c r="G2" s="17">
+        <v>67</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="17">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E2" s="17">
-        <v>2</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17">
         <v>1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>89</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="34">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>2</v>
       </c>
       <c r="G3" s="17">
         <v>89</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="E4" s="17">
         <v>2</v>
       </c>
       <c r="F4" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="17">
         <v>89</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="17">
@@ -9671,24 +9683,24 @@
         <v>2</v>
       </c>
       <c r="B5" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>356</v>
+        <v>120</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="E5" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="17">
-        <v>158</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="H5" s="25"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="17">
@@ -9696,24 +9708,24 @@
         <v>2</v>
       </c>
       <c r="B6" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E6" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="17">
-        <v>159</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="H6" s="25"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="17">
@@ -9721,24 +9733,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E7" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" s="17">
-        <v>159</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="H7" s="25"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="17">
@@ -9746,24 +9758,24 @@
         <v>2</v>
       </c>
       <c r="B8" s="17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="E8" s="17">
         <v>2</v>
       </c>
       <c r="F8" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="17">
         <v>90</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="17">
@@ -9771,24 +9783,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E9" s="17">
         <v>2</v>
       </c>
       <c r="F9" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G9" s="17">
-        <v>90</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="H9" s="25"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="17">
@@ -9796,74 +9808,74 @@
         <v>2</v>
       </c>
       <c r="B10" s="17">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17">
-        <v>6</v>
-      </c>
       <c r="G10" s="17">
-        <v>90</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="H10" s="25"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="34">
       <c r="A11" s="16">
         <v>2</v>
       </c>
       <c r="B11" s="17">
+        <v>91</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17">
-        <v>9</v>
-      </c>
       <c r="G11" s="17">
-        <v>92</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="H11" s="25"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="16">
         <v>2</v>
       </c>
       <c r="B12" s="17">
-        <v>11</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17">
-        <v>9</v>
-      </c>
-      <c r="G12" s="17">
-        <v>92</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="19">
+        <v>15</v>
+      </c>
+      <c r="G12" s="18">
+        <v>95</v>
+      </c>
+      <c r="H12" s="25"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="17">
@@ -9871,24 +9883,24 @@
         <v>2</v>
       </c>
       <c r="B13" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E13" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="17">
-        <v>161</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="17">
@@ -9896,13 +9908,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E14" s="17">
         <v>2</v>
@@ -9911,9 +9923,9 @@
         <v>16</v>
       </c>
       <c r="G14" s="17">
-        <v>95</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="H14" s="25"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="17">
@@ -9921,38 +9933,38 @@
         <v>2</v>
       </c>
       <c r="B15" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E15" s="17">
         <v>2</v>
       </c>
       <c r="F15" s="17">
+        <v>20</v>
+      </c>
+      <c r="G15" s="17">
+        <v>97</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="68">
+      <c r="A16" s="16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17">
         <v>16</v>
       </c>
-      <c r="G15" s="17">
-        <v>96</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17">
-        <v>15</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E16" s="17">
         <v>2</v>
@@ -9963,132 +9975,132 @@
       <c r="G16" s="17">
         <v>97</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="68">
+    <row r="17" spans="1:9" ht="34">
       <c r="A17" s="16">
         <v>2</v>
       </c>
       <c r="B17" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E17" s="17">
         <v>2</v>
       </c>
       <c r="F17" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="17">
-        <v>97</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="H17" s="25"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="34">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="16">
         <v>2</v>
       </c>
       <c r="B18" s="17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E18" s="17">
         <v>2</v>
       </c>
       <c r="F18" s="17">
+        <v>24</v>
+      </c>
+      <c r="G18" s="17">
+        <v>99</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="51">
+      <c r="A19" s="16">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2</v>
+      </c>
+      <c r="F19" s="17">
+        <v>25</v>
+      </c>
+      <c r="G19" s="17">
+        <v>100</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="17">
+      <c r="A20" s="16">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17">
         <v>21</v>
       </c>
-      <c r="G18" s="17">
-        <v>98</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="16">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17">
-        <v>18</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E19" s="17">
-        <v>2</v>
-      </c>
-      <c r="F19" s="17">
-        <v>24</v>
-      </c>
-      <c r="G19" s="17">
-        <v>99</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="51">
-      <c r="A20" s="16">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17">
-        <v>19</v>
-      </c>
       <c r="C20" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="E20" s="17">
         <v>2</v>
       </c>
       <c r="F20" s="17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="17">
         <v>100</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="34">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="16">
         <v>2</v>
       </c>
       <c r="B21" s="17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="E21" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G21" s="17">
-        <v>164</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="H21" s="25"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="17">
@@ -10096,24 +10108,24 @@
         <v>2</v>
       </c>
       <c r="B22" s="17">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="E22" s="17">
         <v>2</v>
       </c>
       <c r="F22" s="17">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G22" s="17">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="H22" s="25"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="17">
@@ -10121,24 +10133,24 @@
         <v>2</v>
       </c>
       <c r="B23" s="17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="E23" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G23" s="17">
-        <v>166</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="H23" s="25"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="17">
@@ -10146,24 +10158,24 @@
         <v>2</v>
       </c>
       <c r="B24" s="17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="E24" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G24" s="17">
-        <v>165</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="H24" s="25"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="17">
@@ -10171,24 +10183,24 @@
         <v>2</v>
       </c>
       <c r="B25" s="17">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E25" s="17">
         <v>2</v>
       </c>
       <c r="F25" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G25" s="17">
-        <v>101</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="H25" s="25"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="17">
@@ -10196,35 +10208,35 @@
         <v>2</v>
       </c>
       <c r="B26" s="17">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="E26" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="17">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G26" s="17">
-        <v>166</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="H26" s="25"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="16">
         <v>2</v>
       </c>
       <c r="B27" s="17">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>384</v>
@@ -10233,37 +10245,37 @@
         <v>2</v>
       </c>
       <c r="F27" s="17">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" s="17">
-        <v>103</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="H27" s="25"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9" ht="51">
       <c r="A28" s="16">
         <v>2</v>
       </c>
       <c r="B28" s="17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E28" s="17">
         <v>2</v>
       </c>
       <c r="F28" s="17">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G28" s="17">
-        <v>104</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="H28" s="25"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="17">
@@ -10271,24 +10283,24 @@
         <v>2</v>
       </c>
       <c r="B29" s="17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E29" s="17">
         <v>2</v>
       </c>
       <c r="F29" s="17">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G29" s="17">
-        <v>104</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="H29" s="25"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="17">
@@ -10296,99 +10308,99 @@
         <v>2</v>
       </c>
       <c r="B30" s="17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="E30" s="17">
         <v>2</v>
       </c>
       <c r="F30" s="17">
+        <v>47</v>
+      </c>
+      <c r="G30" s="17">
+        <v>109</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="17">
+      <c r="A31" s="16">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17">
         <v>35</v>
       </c>
-      <c r="G30" s="17">
-        <v>104</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="34">
-      <c r="A31" s="16">
-        <v>2</v>
-      </c>
-      <c r="B31" s="17">
-        <v>30</v>
-      </c>
       <c r="C31" s="17" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E31" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="17">
+        <v>47</v>
+      </c>
+      <c r="G31" s="17">
+        <v>110</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="17">
+      <c r="A32" s="16">
+        <v>2</v>
+      </c>
+      <c r="B32" s="17">
+        <v>36</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="17">
+        <v>48</v>
+      </c>
+      <c r="G32" s="17">
+        <v>110</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="17">
+      <c r="A33" s="16">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17">
         <v>37</v>
       </c>
-      <c r="G31" s="17">
-        <v>170</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="34">
-      <c r="A32" s="16">
-        <v>2</v>
-      </c>
-      <c r="B32" s="17">
-        <v>31</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="E32" s="17">
-        <v>2</v>
-      </c>
-      <c r="F32" s="17">
-        <v>38</v>
-      </c>
-      <c r="G32" s="17">
-        <v>106</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="51">
-      <c r="A33" s="16">
-        <v>2</v>
-      </c>
-      <c r="B33" s="17">
-        <v>32</v>
-      </c>
       <c r="C33" s="17" t="s">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E33" s="17">
         <v>2</v>
       </c>
       <c r="F33" s="17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33" s="17">
-        <v>106</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="H33" s="25"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="17">
@@ -10396,24 +10408,24 @@
         <v>2</v>
       </c>
       <c r="B34" s="17">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E34" s="17">
         <v>2</v>
       </c>
       <c r="F34" s="17">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G34" s="17">
-        <v>109</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="H34" s="25"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="17">
@@ -10421,24 +10433,24 @@
         <v>2</v>
       </c>
       <c r="B35" s="17">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="E35" s="17">
         <v>2</v>
       </c>
       <c r="F35" s="17">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G35" s="17">
-        <v>109</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="H35" s="25"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="17">
@@ -10446,24 +10458,24 @@
         <v>2</v>
       </c>
       <c r="B36" s="17">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="E36" s="17">
         <v>2</v>
       </c>
       <c r="F36" s="17">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G36" s="17">
-        <v>110</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="H36" s="25"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="17">
@@ -10471,24 +10483,24 @@
         <v>2</v>
       </c>
       <c r="B37" s="17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E37" s="17">
         <v>2</v>
       </c>
       <c r="F37" s="17">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G37" s="17">
-        <v>110</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="H37" s="25"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="17">
@@ -10496,24 +10508,24 @@
         <v>2</v>
       </c>
       <c r="B38" s="17">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="E38" s="17">
         <v>2</v>
       </c>
       <c r="F38" s="17">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G38" s="17">
-        <v>110</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="H38" s="25"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="17">
@@ -10521,24 +10533,24 @@
         <v>2</v>
       </c>
       <c r="B39" s="17">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>305</v>
+        <v>152</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E39" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="17">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G39" s="17">
-        <v>178</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="H39" s="25"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="17">
@@ -10546,74 +10558,74 @@
         <v>2</v>
       </c>
       <c r="B40" s="17">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="E40" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="17">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G40" s="17">
-        <v>180</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="H40" s="25"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="51">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="16">
         <v>2</v>
       </c>
       <c r="B41" s="17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="E41" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="17">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G41" s="17">
-        <v>184</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="H41" s="25"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="34">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="16">
         <v>2</v>
       </c>
       <c r="B42" s="17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="E42" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="17">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G42" s="17">
-        <v>175</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="H42" s="25"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="17">
@@ -10621,24 +10633,24 @@
         <v>2</v>
       </c>
       <c r="B43" s="17">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="E43" s="17">
         <v>2</v>
       </c>
       <c r="F43" s="17">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G43" s="17">
-        <v>115</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="H43" s="25"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="17">
@@ -10646,49 +10658,49 @@
         <v>2</v>
       </c>
       <c r="B44" s="17">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="E44" s="17">
         <v>2</v>
       </c>
       <c r="F44" s="17">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G44" s="17">
-        <v>115</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="H44" s="25"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="17">
+    <row r="45" spans="1:9" ht="34">
       <c r="A45" s="16">
         <v>2</v>
       </c>
       <c r="B45" s="17">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="E45" s="17">
         <v>2</v>
       </c>
       <c r="F45" s="17">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G45" s="17">
-        <v>117</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="H45" s="25"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="17">
@@ -10696,24 +10708,24 @@
         <v>2</v>
       </c>
       <c r="B46" s="17">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="E46" s="17">
         <v>2</v>
       </c>
       <c r="F46" s="17">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G46" s="17">
-        <v>118</v>
-      </c>
-      <c r="H46" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="H46" s="25"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="17">
@@ -10721,24 +10733,24 @@
         <v>2</v>
       </c>
       <c r="B47" s="17">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="E47" s="17">
         <v>2</v>
       </c>
       <c r="F47" s="17">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G47" s="17">
-        <v>119</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="H47" s="25"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="17">
@@ -10746,24 +10758,24 @@
         <v>2</v>
       </c>
       <c r="B48" s="17">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="E48" s="17">
         <v>2</v>
       </c>
       <c r="F48" s="17">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G48" s="17">
-        <v>121</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="H48" s="25"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="17">
@@ -10771,24 +10783,24 @@
         <v>2</v>
       </c>
       <c r="B49" s="17">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E49" s="17">
         <v>2</v>
       </c>
       <c r="F49" s="17">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G49" s="17">
-        <v>122</v>
-      </c>
-      <c r="H49" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="H49" s="25"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" ht="17">
@@ -10796,49 +10808,49 @@
         <v>2</v>
       </c>
       <c r="B50" s="17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E50" s="17">
         <v>2</v>
       </c>
       <c r="F50" s="17">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G50" s="17">
-        <v>122</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="17">
+    <row r="51" spans="1:9" ht="68">
       <c r="A51" s="16">
         <v>2</v>
       </c>
       <c r="B51" s="17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E51" s="17">
         <v>2</v>
       </c>
       <c r="F51" s="17">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G51" s="17">
-        <v>123</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="H51" s="25"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="17">
@@ -10846,74 +10858,74 @@
         <v>2</v>
       </c>
       <c r="B52" s="17">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="E52" s="17">
         <v>2</v>
       </c>
       <c r="F52" s="17">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G52" s="17">
-        <v>125</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="H52" s="25"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="17">
+    <row r="53" spans="1:9" ht="68">
       <c r="A53" s="16">
         <v>2</v>
       </c>
       <c r="B53" s="17">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="E53" s="17">
         <v>2</v>
       </c>
       <c r="F53" s="17">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G53" s="17">
-        <v>125</v>
-      </c>
-      <c r="H53" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="H53" s="25"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="34">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="16">
         <v>2</v>
       </c>
       <c r="B54" s="17">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E54" s="17">
         <v>2</v>
       </c>
       <c r="F54" s="17">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G54" s="17">
-        <v>126</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="H54" s="25"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="17">
@@ -10921,24 +10933,24 @@
         <v>2</v>
       </c>
       <c r="B55" s="17">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="E55" s="17">
         <v>2</v>
       </c>
       <c r="F55" s="17">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G55" s="17">
-        <v>136</v>
-      </c>
-      <c r="H55" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="H55" s="25"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="17">
@@ -10946,24 +10958,24 @@
         <v>2</v>
       </c>
       <c r="B56" s="17">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="E56" s="17">
         <v>2</v>
       </c>
       <c r="F56" s="17">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G56" s="17">
-        <v>126</v>
-      </c>
-      <c r="H56" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="H56" s="25"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="17">
@@ -10971,24 +10983,24 @@
         <v>2</v>
       </c>
       <c r="B57" s="17">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="E57" s="17">
         <v>2</v>
       </c>
       <c r="F57" s="17">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G57" s="17">
-        <v>127</v>
-      </c>
-      <c r="H57" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="H57" s="25"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="17">
@@ -10996,24 +11008,24 @@
         <v>2</v>
       </c>
       <c r="B58" s="17">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="E58" s="17">
         <v>2</v>
       </c>
       <c r="F58" s="17">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G58" s="17">
-        <v>126</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="H58" s="25"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="17">
@@ -11021,24 +11033,24 @@
         <v>2</v>
       </c>
       <c r="B59" s="17">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="E59" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="17">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G59" s="17">
-        <v>191</v>
-      </c>
-      <c r="H59" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="H59" s="25"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" ht="17">
@@ -11046,24 +11058,24 @@
         <v>2</v>
       </c>
       <c r="B60" s="17">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E60" s="17">
         <v>2</v>
       </c>
       <c r="F60" s="17">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G60" s="17">
-        <v>133</v>
-      </c>
-      <c r="H60" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="H60" s="25"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="17">
@@ -11071,74 +11083,74 @@
         <v>2</v>
       </c>
       <c r="B61" s="17">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="E61" s="17">
         <v>2</v>
       </c>
       <c r="F61" s="17">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G61" s="17">
-        <v>129</v>
-      </c>
-      <c r="H61" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="H61" s="25"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="17">
+    <row r="62" spans="1:9" ht="68">
       <c r="A62" s="16">
         <v>2</v>
       </c>
       <c r="B62" s="17">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E62" s="17">
         <v>2</v>
       </c>
       <c r="F62" s="17">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G62" s="17">
-        <v>130</v>
-      </c>
-      <c r="H62" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="H62" s="25"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="68">
+    <row r="63" spans="1:9" ht="17">
       <c r="A63" s="16">
         <v>2</v>
       </c>
       <c r="B63" s="17">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E63" s="17">
         <v>2</v>
       </c>
       <c r="F63" s="17">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G63" s="17">
-        <v>131</v>
-      </c>
-      <c r="H63" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="H63" s="25"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" ht="17">
@@ -11146,49 +11158,49 @@
         <v>2</v>
       </c>
       <c r="B64" s="17">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E64" s="17">
         <v>2</v>
       </c>
       <c r="F64" s="17">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G64" s="17">
-        <v>131</v>
-      </c>
-      <c r="H64" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="H64" s="25"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="68">
+    <row r="65" spans="1:9" ht="17">
       <c r="A65" s="16">
         <v>2</v>
       </c>
       <c r="B65" s="17">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E65" s="17">
         <v>2</v>
       </c>
       <c r="F65" s="17">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G65" s="17">
-        <v>131</v>
-      </c>
-      <c r="H65" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="H65" s="25"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" ht="17">
@@ -11196,24 +11208,24 @@
         <v>2</v>
       </c>
       <c r="B66" s="17">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E66" s="17">
         <v>2</v>
       </c>
       <c r="F66" s="17">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G66" s="17">
-        <v>132</v>
-      </c>
-      <c r="H66" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="H66" s="25"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" ht="17">
@@ -11221,24 +11233,24 @@
         <v>2</v>
       </c>
       <c r="B67" s="17">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E67" s="17">
         <v>2</v>
       </c>
       <c r="F67" s="17">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G67" s="17">
-        <v>133</v>
-      </c>
-      <c r="H67" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="H67" s="25"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" ht="17">
@@ -11246,24 +11258,24 @@
         <v>2</v>
       </c>
       <c r="B68" s="17">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E68" s="17">
         <v>2</v>
       </c>
       <c r="F68" s="17">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G68" s="17">
-        <v>134</v>
-      </c>
-      <c r="H68" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="H68" s="25"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" ht="17">
@@ -11271,24 +11283,24 @@
         <v>2</v>
       </c>
       <c r="B69" s="17">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="E69" s="17">
         <v>2</v>
       </c>
       <c r="F69" s="17">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G69" s="17">
-        <v>135</v>
-      </c>
-      <c r="H69" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="H69" s="25"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" ht="17">
@@ -11296,24 +11308,24 @@
         <v>2</v>
       </c>
       <c r="B70" s="17">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="E70" s="17">
         <v>2</v>
       </c>
       <c r="F70" s="17">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="G70" s="17">
-        <v>136</v>
-      </c>
-      <c r="H70" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="H70" s="25"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" ht="17">
@@ -11321,24 +11333,24 @@
         <v>2</v>
       </c>
       <c r="B71" s="17">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="E71" s="17">
         <v>2</v>
       </c>
       <c r="F71" s="17">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="G71" s="17">
-        <v>137</v>
-      </c>
-      <c r="H71" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="H71" s="25"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="17">
@@ -11346,24 +11358,24 @@
         <v>2</v>
       </c>
       <c r="B72" s="17">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="E72" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="17">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G72" s="17">
-        <v>67</v>
-      </c>
-      <c r="H72" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="H72" s="25"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="17">
@@ -11371,611 +11383,621 @@
         <v>2</v>
       </c>
       <c r="B73" s="17">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="E73" s="17">
         <v>2</v>
       </c>
       <c r="F73" s="17">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="G73" s="17">
-        <v>141</v>
-      </c>
-      <c r="H73" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="H73" s="25"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="68">
+    <row r="74" spans="1:9" ht="17">
       <c r="A74" s="16">
         <v>2</v>
       </c>
       <c r="B74" s="17">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="E74" s="17">
         <v>2</v>
       </c>
       <c r="F74" s="17">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G74" s="17">
-        <v>137</v>
-      </c>
-      <c r="H74" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="H74" s="25"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="17">
+    <row r="75" spans="1:9" ht="16">
       <c r="A75" s="16">
         <v>2</v>
       </c>
       <c r="B75" s="17">
-        <v>74</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="E75" s="17">
-        <v>2</v>
-      </c>
-      <c r="F75" s="17">
-        <v>36</v>
-      </c>
-      <c r="G75" s="17">
-        <v>105</v>
-      </c>
-      <c r="H75" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E75" s="18">
+        <v>2</v>
+      </c>
+      <c r="F75" s="19">
+        <v>146</v>
+      </c>
+      <c r="G75" s="18">
+        <v>151</v>
+      </c>
+      <c r="H75" s="25"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="17">
+    <row r="76" spans="1:9" ht="17" hidden="1">
       <c r="A76" s="16">
         <v>2</v>
       </c>
       <c r="B76" s="17">
+        <v>4</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="17">
+        <v>3</v>
+      </c>
+      <c r="F76" s="17">
+        <v>5</v>
+      </c>
+      <c r="G76" s="17">
+        <v>158</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="17" hidden="1">
+      <c r="A77" s="16">
+        <v>2</v>
+      </c>
+      <c r="B77" s="17">
+        <v>5</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E77" s="17">
+        <v>3</v>
+      </c>
+      <c r="F77" s="17">
+        <v>8</v>
+      </c>
+      <c r="G77" s="17">
+        <v>159</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" hidden="1">
+      <c r="A78" s="16">
+        <v>2</v>
+      </c>
+      <c r="B78" s="17">
+        <v>6</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E78" s="17">
+        <v>3</v>
+      </c>
+      <c r="F78" s="17">
+        <v>7</v>
+      </c>
+      <c r="G78" s="17">
+        <v>159</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" hidden="1">
+      <c r="A79" s="16">
+        <v>2</v>
+      </c>
+      <c r="B79" s="17">
+        <v>12</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E79" s="17">
+        <v>3</v>
+      </c>
+      <c r="F79" s="17">
+        <v>15</v>
+      </c>
+      <c r="G79" s="17">
+        <v>161</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="34" hidden="1">
+      <c r="A80" s="16">
+        <v>2</v>
+      </c>
+      <c r="B80" s="17">
+        <v>20</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" s="17">
+        <v>3</v>
+      </c>
+      <c r="F80" s="17">
+        <v>22</v>
+      </c>
+      <c r="G80" s="17">
+        <v>164</v>
+      </c>
+      <c r="H80" s="25"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="17" hidden="1">
+      <c r="A81" s="16">
+        <v>2</v>
+      </c>
+      <c r="B81" s="17">
+        <v>22</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E81" s="17">
+        <v>3</v>
+      </c>
+      <c r="F81" s="17">
+        <v>27</v>
+      </c>
+      <c r="G81" s="17">
+        <v>166</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" hidden="1">
+      <c r="A82" s="16">
+        <v>2</v>
+      </c>
+      <c r="B82" s="17">
+        <v>23</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E82" s="17">
+        <v>3</v>
+      </c>
+      <c r="F82" s="17">
+        <v>25</v>
+      </c>
+      <c r="G82" s="17">
+        <v>165</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="17" hidden="1">
+      <c r="A83" s="16">
+        <v>2</v>
+      </c>
+      <c r="B83" s="17">
+        <v>25</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E83" s="17">
+        <v>3</v>
+      </c>
+      <c r="F83" s="17">
+        <v>28</v>
+      </c>
+      <c r="G83" s="17">
+        <v>166</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="34" hidden="1">
+      <c r="A84" s="16">
+        <v>2</v>
+      </c>
+      <c r="B84" s="17">
+        <v>30</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E84" s="17">
+        <v>3</v>
+      </c>
+      <c r="F84" s="17">
+        <v>37</v>
+      </c>
+      <c r="G84" s="17">
+        <v>170</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="17" hidden="1">
+      <c r="A85" s="16">
+        <v>2</v>
+      </c>
+      <c r="B85" s="17">
+        <v>38</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E85" s="17">
+        <v>3</v>
+      </c>
+      <c r="F85" s="17">
+        <v>59</v>
+      </c>
+      <c r="G85" s="17">
+        <v>178</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="17" hidden="1">
+      <c r="A86" s="16">
+        <v>2</v>
+      </c>
+      <c r="B86" s="17">
+        <v>39</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" s="17">
+        <v>3</v>
+      </c>
+      <c r="F86" s="17">
+        <v>64</v>
+      </c>
+      <c r="G86" s="17">
+        <v>180</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="51" hidden="1">
+      <c r="A87" s="16">
+        <v>2</v>
+      </c>
+      <c r="B87" s="17">
+        <v>40</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E87" s="17">
+        <v>3</v>
+      </c>
+      <c r="F87" s="17">
         <v>75</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="E76" s="17">
-        <v>2</v>
-      </c>
-      <c r="F76" s="17">
-        <v>114</v>
-      </c>
-      <c r="G76" s="17">
-        <v>138</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="17">
-      <c r="A77" s="16">
-        <v>2</v>
-      </c>
-      <c r="B77" s="17">
-        <v>76</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="G87" s="17">
+        <v>184</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" ht="34" hidden="1">
+      <c r="A88" s="16">
+        <v>2</v>
+      </c>
+      <c r="B88" s="17">
+        <v>41</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" s="17">
+        <v>3</v>
+      </c>
+      <c r="F88" s="17">
+        <v>51</v>
+      </c>
+      <c r="G88" s="17">
         <v>175</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="E77" s="17">
-        <v>2</v>
-      </c>
-      <c r="F77" s="17">
+      <c r="H88" s="25"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" hidden="1">
+      <c r="A89" s="16">
+        <v>2</v>
+      </c>
+      <c r="B89" s="17">
+        <v>58</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="17">
+        <v>3</v>
+      </c>
+      <c r="F89" s="17">
+        <v>91</v>
+      </c>
+      <c r="G89" s="17">
+        <v>191</v>
+      </c>
+      <c r="H89" s="25"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="17" hidden="1">
+      <c r="A90" s="16">
+        <v>2</v>
+      </c>
+      <c r="B90" s="17">
+        <v>84</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E90" s="17">
+        <v>3</v>
+      </c>
+      <c r="F90" s="17">
+        <v>115</v>
+      </c>
+      <c r="G90" s="17">
+        <v>201</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="17" hidden="1">
+      <c r="A91" s="16">
+        <v>2</v>
+      </c>
+      <c r="B91" s="17">
+        <v>89</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E91" s="17">
+        <v>3</v>
+      </c>
+      <c r="F91" s="17">
         <v>116</v>
       </c>
-      <c r="G77" s="17">
-        <v>139</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="17">
-      <c r="A78" s="16">
-        <v>2</v>
-      </c>
-      <c r="B78" s="17">
-        <v>77</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E78" s="17">
-        <v>2</v>
-      </c>
-      <c r="F78" s="17">
+      <c r="G91" s="17">
+        <v>202</v>
+      </c>
+      <c r="H91" s="25"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" ht="17" hidden="1">
+      <c r="A92" s="16">
+        <v>2</v>
+      </c>
+      <c r="B92" s="17">
+        <v>90</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E92" s="17">
+        <v>3</v>
+      </c>
+      <c r="F92" s="17">
         <v>117</v>
       </c>
-      <c r="G78" s="17">
-        <v>140</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="17">
-      <c r="A79" s="16">
-        <v>2</v>
-      </c>
-      <c r="B79" s="17">
+      <c r="G92" s="17">
+        <v>203</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" hidden="1">
+      <c r="A93" s="16">
+        <v>2</v>
+      </c>
+      <c r="B93" s="17">
+        <v>93</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E93" s="17">
+        <v>3</v>
+      </c>
+      <c r="F93" s="17">
+        <v>128</v>
+      </c>
+      <c r="G93" s="17">
+        <v>207</v>
+      </c>
+      <c r="H93" s="25"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" ht="34" hidden="1">
+      <c r="A94" s="16">
+        <v>2</v>
+      </c>
+      <c r="B94" s="17">
+        <v>83</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="H94" s="25"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="17" hidden="1">
+      <c r="A95" s="16">
+        <v>2</v>
+      </c>
+      <c r="B95" s="17">
         <v>78</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C95" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D95" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="17">
-      <c r="A80" s="16">
-        <v>2</v>
-      </c>
-      <c r="B80" s="17">
-        <v>79</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E80" s="17">
-        <v>2</v>
-      </c>
-      <c r="F80" s="17">
-        <v>123</v>
-      </c>
-      <c r="G80" s="17">
-        <v>142</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="17">
-      <c r="A81" s="16">
-        <v>2</v>
-      </c>
-      <c r="B81" s="17">
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" hidden="1">
+      <c r="A96" s="16">
+        <v>2</v>
+      </c>
+      <c r="B96" s="17">
         <v>80</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C96" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D96" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="17">
-      <c r="A82" s="16">
-        <v>2</v>
-      </c>
-      <c r="B82" s="17">
-        <v>81</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="E82" s="17">
-        <v>2</v>
-      </c>
-      <c r="F82" s="17">
-        <v>125</v>
-      </c>
-      <c r="G82" s="17">
-        <v>143</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="17">
-      <c r="A83" s="16">
-        <v>2</v>
-      </c>
-      <c r="B83" s="17">
-        <v>82</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="E83" s="17">
-        <v>2</v>
-      </c>
-      <c r="F83" s="17">
-        <v>129</v>
-      </c>
-      <c r="G83" s="17">
-        <v>145</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="34">
-      <c r="A84" s="16">
-        <v>2</v>
-      </c>
-      <c r="B84" s="17">
-        <v>83</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" ht="17">
-      <c r="A85" s="16">
-        <v>2</v>
-      </c>
-      <c r="B85" s="17">
-        <v>84</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E85" s="17">
-        <v>3</v>
-      </c>
-      <c r="F85" s="17">
-        <v>115</v>
-      </c>
-      <c r="G85" s="17">
-        <v>201</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" ht="17">
-      <c r="A86" s="16">
-        <v>2</v>
-      </c>
-      <c r="B86" s="17">
-        <v>85</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="E86" s="17">
-        <v>2</v>
-      </c>
-      <c r="F86" s="17">
-        <v>132</v>
-      </c>
-      <c r="G86" s="17">
-        <v>146</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" ht="17">
-      <c r="A87" s="16">
-        <v>2</v>
-      </c>
-      <c r="B87" s="17">
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" hidden="1">
+      <c r="A97" s="16">
+        <v>2</v>
+      </c>
+      <c r="B97" s="17">
         <v>86</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C97" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D97" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" ht="17">
-      <c r="A88" s="16">
-        <v>2</v>
-      </c>
-      <c r="B88" s="17">
-        <v>87</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="E88" s="17">
-        <v>2</v>
-      </c>
-      <c r="F88" s="17">
-        <v>132</v>
-      </c>
-      <c r="G88" s="17">
-        <v>146</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" ht="17">
-      <c r="A89" s="16">
-        <v>2</v>
-      </c>
-      <c r="B89" s="17">
-        <v>88</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="E89" s="17">
-        <v>2</v>
-      </c>
-      <c r="F89" s="17">
-        <v>133</v>
-      </c>
-      <c r="G89" s="17">
-        <v>146</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="17">
-      <c r="A90" s="16">
-        <v>2</v>
-      </c>
-      <c r="B90" s="17">
-        <v>89</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E90" s="17">
-        <v>3</v>
-      </c>
-      <c r="F90" s="17">
-        <v>116</v>
-      </c>
-      <c r="G90" s="17">
-        <v>202</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" ht="17">
-      <c r="A91" s="16">
-        <v>2</v>
-      </c>
-      <c r="B91" s="17">
-        <v>90</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E91" s="17">
-        <v>3</v>
-      </c>
-      <c r="F91" s="17">
-        <v>117</v>
-      </c>
-      <c r="G91" s="17">
-        <v>203</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" ht="34">
-      <c r="A92" s="16">
-        <v>2</v>
-      </c>
-      <c r="B92" s="17">
-        <v>91</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="E92" s="17">
-        <v>2</v>
-      </c>
-      <c r="F92" s="17">
-        <v>10</v>
-      </c>
-      <c r="G92" s="17">
-        <v>93</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" ht="17">
-      <c r="A93" s="16">
-        <v>2</v>
-      </c>
-      <c r="B93" s="17">
-        <v>92</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="E93" s="17">
-        <v>2</v>
-      </c>
-      <c r="F93" s="17">
-        <v>143</v>
-      </c>
-      <c r="G93" s="17">
-        <v>150</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" ht="17">
-      <c r="A94" s="16">
-        <v>2</v>
-      </c>
-      <c r="B94" s="17">
-        <v>93</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="E94" s="17">
-        <v>3</v>
-      </c>
-      <c r="F94" s="17">
-        <v>128</v>
-      </c>
-      <c r="G94" s="17">
-        <v>207</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="17">
-      <c r="A95" s="16">
-        <v>2</v>
-      </c>
-      <c r="B95" s="17">
-        <v>94</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="E95" s="17">
-        <v>2</v>
-      </c>
-      <c r="F95" s="17">
-        <v>145</v>
-      </c>
-      <c r="G95" s="17">
-        <v>151</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="16">
-      <c r="A96" s="16">
-        <v>2</v>
-      </c>
-      <c r="B96" s="17">
-        <v>95</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E96" s="18">
-        <v>2</v>
-      </c>
-      <c r="F96" s="19">
-        <v>146</v>
-      </c>
-      <c r="G96" s="18">
-        <v>151</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="16">
-      <c r="A97" s="16">
-        <v>2</v>
-      </c>
-      <c r="B97" s="17">
-        <v>96</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="E97" s="18">
-        <v>2</v>
-      </c>
-      <c r="F97" s="19">
-        <v>15</v>
-      </c>
-      <c r="G97" s="18">
-        <v>95</v>
-      </c>
-      <c r="H97" s="3"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G95">
-    <sortCondition ref="B1:B95"/>
+  <autoFilter ref="A1:H97" xr:uid="{CCA18454-6AD2-447B-9EA4-886AE83440E0}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H75">
+      <sortCondition ref="F1:F97"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H97">
+    <sortCondition ref="E1:E97"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
